--- a/Code/Results/Cases/Case_3_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9922799590756531</v>
+        <v>0.9922799590756524</v>
       </c>
       <c r="D2">
         <v>1.011590883411412</v>
       </c>
       <c r="E2">
-        <v>0.9995990779614939</v>
+        <v>0.9995990779614938</v>
       </c>
       <c r="F2">
-        <v>0.9925293240579878</v>
+        <v>0.9925293240579873</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,10 +439,10 @@
         <v>1.041401732588613</v>
       </c>
       <c r="J2">
-        <v>1.014694052853747</v>
+        <v>1.014694052853746</v>
       </c>
       <c r="K2">
-        <v>1.022891066500103</v>
+        <v>1.022891066500102</v>
       </c>
       <c r="L2">
         <v>1.011064001092013</v>
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9995548148227089</v>
+        <v>0.9995548148227092</v>
       </c>
       <c r="D3">
         <v>1.017376341483012</v>
       </c>
       <c r="E3">
-        <v>1.005882375234809</v>
+        <v>1.00588237523481</v>
       </c>
       <c r="F3">
         <v>1.000843545664884</v>
@@ -477,13 +477,13 @@
         <v>1.044050359788969</v>
       </c>
       <c r="J3">
-        <v>1.020057623396666</v>
+        <v>1.020057623396667</v>
       </c>
       <c r="K3">
         <v>1.027791613444506</v>
       </c>
       <c r="L3">
-        <v>1.01644053921716</v>
+        <v>1.016440539217161</v>
       </c>
       <c r="M3">
         <v>1.011465644533278</v>
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004115248156602</v>
+        <v>1.004115248156601</v>
       </c>
       <c r="D4">
-        <v>1.02100427578237</v>
+        <v>1.021004275782369</v>
       </c>
       <c r="E4">
-        <v>1.009826281968504</v>
+        <v>1.009826281968503</v>
       </c>
       <c r="F4">
         <v>1.006060330337307</v>
@@ -512,16 +512,16 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045695129816697</v>
+        <v>1.045695129816696</v>
       </c>
       <c r="J4">
-        <v>1.023414268072362</v>
+        <v>1.023414268072361</v>
       </c>
       <c r="K4">
         <v>1.030855638519152</v>
       </c>
       <c r="L4">
-        <v>1.019807541582931</v>
+        <v>1.01980754158293</v>
       </c>
       <c r="M4">
         <v>1.01608615868</v>
@@ -535,10 +535,10 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005999296350546</v>
+        <v>1.005999296350547</v>
       </c>
       <c r="D5">
-        <v>1.022503266017304</v>
+        <v>1.022503266017305</v>
       </c>
       <c r="E5">
         <v>1.011456766667215</v>
@@ -556,7 +556,7 @@
         <v>1.024799586761631</v>
       </c>
       <c r="K5">
-        <v>1.032119488598483</v>
+        <v>1.032119488598484</v>
       </c>
       <c r="L5">
         <v>1.021197674587661</v>
@@ -576,7 +576,7 @@
         <v>1.006313747026167</v>
       </c>
       <c r="D6">
-        <v>1.022753458087266</v>
+        <v>1.022753458087267</v>
       </c>
       <c r="E6">
         <v>1.011728962345156</v>
@@ -600,7 +600,7 @@
         <v>1.021429637128133</v>
       </c>
       <c r="M6">
-        <v>1.018313446701825</v>
+        <v>1.018313446701826</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004140550665913</v>
+        <v>1.004140550665914</v>
       </c>
       <c r="D7">
-        <v>1.021024406407175</v>
+        <v>1.021024406407176</v>
       </c>
       <c r="E7">
-        <v>1.009848174725805</v>
+        <v>1.009848174725806</v>
       </c>
       <c r="F7">
         <v>1.006089286005015</v>
@@ -629,10 +629,10 @@
         <v>1.045704219519194</v>
       </c>
       <c r="J7">
-        <v>1.023432878361254</v>
+        <v>1.023432878361255</v>
       </c>
       <c r="K7">
-        <v>1.030872619809392</v>
+        <v>1.030872619809393</v>
       </c>
       <c r="L7">
         <v>1.019826214407314</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9947702097311644</v>
+        <v>0.9947702097311658</v>
       </c>
       <c r="D8">
-        <v>1.013570991333696</v>
+        <v>1.013570991333697</v>
       </c>
       <c r="E8">
-        <v>1.00174879422108</v>
+        <v>1.001748794221082</v>
       </c>
       <c r="F8">
-        <v>0.9953743961160342</v>
+        <v>0.9953743961160356</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042311638415415</v>
+        <v>1.042311638415416</v>
       </c>
       <c r="J8">
-        <v>1.016531212455854</v>
+        <v>1.016531212455855</v>
       </c>
       <c r="K8">
-        <v>1.024570219952193</v>
+        <v>1.024570219952194</v>
       </c>
       <c r="L8">
-        <v>1.012905128973013</v>
+        <v>1.012905128973014</v>
       </c>
       <c r="M8">
-        <v>1.006617390865163</v>
+        <v>1.006617390865165</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9770328931824694</v>
+        <v>0.9770328931824683</v>
       </c>
       <c r="D9">
-        <v>0.9994767504522034</v>
+        <v>0.999476750452202</v>
       </c>
       <c r="E9">
-        <v>0.9864623016111648</v>
+        <v>0.9864623016111633</v>
       </c>
       <c r="F9">
-        <v>0.9751268934936816</v>
+        <v>0.9751268934936799</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035765663061123</v>
+        <v>1.035765663061122</v>
       </c>
       <c r="J9">
-        <v>1.003423587711525</v>
+        <v>1.003423587711524</v>
       </c>
       <c r="K9">
-        <v>1.012578322723585</v>
+        <v>1.012578322723583</v>
       </c>
       <c r="L9">
-        <v>0.9997789047491021</v>
+        <v>0.9997789047491009</v>
       </c>
       <c r="M9">
-        <v>0.9886368361287791</v>
+        <v>0.9886368361287772</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9642240197420224</v>
+        <v>0.9642240197420225</v>
       </c>
       <c r="D10">
-        <v>0.9893164278514912</v>
+        <v>0.9893164278514911</v>
       </c>
       <c r="E10">
-        <v>0.9754600504118554</v>
+        <v>0.9754600504118551</v>
       </c>
       <c r="F10">
-        <v>0.9605223510217016</v>
+        <v>0.9605223510217015</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>1.03095825967018</v>
       </c>
       <c r="J10">
-        <v>0.9939326648732497</v>
+        <v>0.9939326648732496</v>
       </c>
       <c r="K10">
         <v>1.003881294409786</v>
@@ -752,7 +752,7 @@
         <v>0.990286982388206</v>
       </c>
       <c r="M10">
-        <v>0.9756429455685129</v>
+        <v>0.9756429455685128</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,13 +763,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9584016636641757</v>
+        <v>0.9584016636641758</v>
       </c>
       <c r="D11">
-        <v>0.9847042185009294</v>
+        <v>0.9847042185009295</v>
       </c>
       <c r="E11">
-        <v>0.970469219417364</v>
+        <v>0.9704692194173639</v>
       </c>
       <c r="F11">
         <v>0.9538859511279814</v>
@@ -784,13 +784,13 @@
         <v>0.9896135603577683</v>
       </c>
       <c r="K11">
-        <v>0.9999204729526108</v>
+        <v>0.9999204729526109</v>
       </c>
       <c r="L11">
         <v>0.9859703907789239</v>
       </c>
       <c r="M11">
-        <v>0.9697332564937927</v>
+        <v>0.9697332564937928</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9561932493248797</v>
+        <v>0.9561932493248809</v>
       </c>
       <c r="D12">
-        <v>0.9829559424622064</v>
+        <v>0.9829559424622079</v>
       </c>
       <c r="E12">
-        <v>0.9685779037733283</v>
+        <v>0.9685779037733295</v>
       </c>
       <c r="F12">
-        <v>0.9513689100633305</v>
+        <v>0.9513689100633319</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027916789137351</v>
+        <v>1.027916789137352</v>
       </c>
       <c r="J12">
-        <v>0.987974689130744</v>
+        <v>0.9879746891307455</v>
       </c>
       <c r="K12">
-        <v>0.9984171303477871</v>
+        <v>0.9984171303477887</v>
       </c>
       <c r="L12">
-        <v>0.9843329198155457</v>
+        <v>0.9843329198155469</v>
       </c>
       <c r="M12">
-        <v>0.9674911277154882</v>
+        <v>0.9674911277154895</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9566691063983794</v>
+        <v>0.9566691063983783</v>
       </c>
       <c r="D13">
-        <v>0.983332597071687</v>
+        <v>0.9833325970716861</v>
       </c>
       <c r="E13">
-        <v>0.968985354725227</v>
+        <v>0.968985354725226</v>
       </c>
       <c r="F13">
-        <v>0.951911265420167</v>
+        <v>0.951911265420166</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.028097529520399</v>
       </c>
       <c r="J13">
-        <v>0.9883278511899787</v>
+        <v>0.9883278511899776</v>
       </c>
       <c r="K13">
-        <v>0.9987411056790687</v>
+        <v>0.9987411056790676</v>
       </c>
       <c r="L13">
-        <v>0.984685759958346</v>
+        <v>0.9846857599583448</v>
       </c>
       <c r="M13">
-        <v>0.9679742778182859</v>
+        <v>0.967974277818285</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9582200752227235</v>
+        <v>0.9582200752227241</v>
       </c>
       <c r="D14">
-        <v>0.9845604411495227</v>
+        <v>0.9845604411495232</v>
       </c>
       <c r="E14">
-        <v>0.9703136692143393</v>
+        <v>0.9703136692143398</v>
       </c>
       <c r="F14">
-        <v>0.9536789840076445</v>
+        <v>0.9536789840076449</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.028686180841201</v>
       </c>
       <c r="J14">
-        <v>0.9894788153100784</v>
+        <v>0.9894788153100789</v>
       </c>
       <c r="K14">
-        <v>0.9997968791691649</v>
+        <v>0.9997968791691655</v>
       </c>
       <c r="L14">
-        <v>0.9858357518006031</v>
+        <v>0.9858357518006036</v>
       </c>
       <c r="M14">
-        <v>0.9695489084524631</v>
+        <v>0.9695489084524636</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9591694803698767</v>
+        <v>0.9591694803698764</v>
       </c>
       <c r="D15">
-        <v>0.9853122043892756</v>
+        <v>0.9853122043892754</v>
       </c>
       <c r="E15">
-        <v>0.9711270077969759</v>
+        <v>0.9711270077969758</v>
       </c>
       <c r="F15">
-        <v>0.9547610818364946</v>
+        <v>0.9547610818364941</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.029046178665265</v>
       </c>
       <c r="J15">
-        <v>0.9901832822243358</v>
+        <v>0.9901832822243356</v>
       </c>
       <c r="K15">
-        <v>1.000443028735083</v>
+        <v>1.000443028735082</v>
       </c>
       <c r="L15">
-        <v>0.9865396823123295</v>
+        <v>0.9865396823123292</v>
       </c>
       <c r="M15">
-        <v>0.970512717131028</v>
+        <v>0.9705127171310276</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,25 +953,25 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9646042646728562</v>
+        <v>0.9646042646728559</v>
       </c>
       <c r="D16">
-        <v>0.9896177853511774</v>
+        <v>0.9896177853511773</v>
       </c>
       <c r="E16">
         <v>0.9757862157279547</v>
       </c>
       <c r="F16">
-        <v>0.9609557893192587</v>
+        <v>0.960955789319258</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031101783408739</v>
+        <v>1.031101783408738</v>
       </c>
       <c r="J16">
-        <v>0.9942146421647294</v>
+        <v>0.9942146421647295</v>
       </c>
       <c r="K16">
         <v>1.004139821314245</v>
@@ -980,7 +980,7 @@
         <v>0.990568856964842</v>
       </c>
       <c r="M16">
-        <v>0.9760288189647913</v>
+        <v>0.9760288189647905</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9679366373256455</v>
+        <v>0.9679366373256467</v>
       </c>
       <c r="D17">
-        <v>0.9922595304689507</v>
+        <v>0.9922595304689512</v>
       </c>
       <c r="E17">
-        <v>0.9786458253183854</v>
+        <v>0.9786458253183865</v>
       </c>
       <c r="F17">
-        <v>0.9647545624517028</v>
+        <v>0.9647545624517037</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032357579136689</v>
+        <v>1.03235757913669</v>
       </c>
       <c r="J17">
-        <v>0.9966852762333559</v>
+        <v>0.9966852762333568</v>
       </c>
       <c r="K17">
-        <v>1.006404653121408</v>
+        <v>1.006404653121409</v>
       </c>
       <c r="L17">
-        <v>0.9930389250028638</v>
+        <v>0.9930389250028649</v>
       </c>
       <c r="M17">
-        <v>0.9794101437395094</v>
+        <v>0.9794101437395103</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9698540391248878</v>
+        <v>0.9698540391248881</v>
       </c>
       <c r="D18">
-        <v>0.9937801248074332</v>
+        <v>0.9937801248074333</v>
       </c>
       <c r="E18">
-        <v>0.980292161341097</v>
+        <v>0.9802921613410973</v>
       </c>
       <c r="F18">
         <v>0.9669405435050089</v>
@@ -1044,16 +1044,16 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033078456015463</v>
+        <v>1.033078456015464</v>
       </c>
       <c r="J18">
-        <v>0.9981063748535685</v>
+        <v>0.9981063748535687</v>
       </c>
       <c r="K18">
-        <v>1.007707092110041</v>
+        <v>1.007707092110042</v>
       </c>
       <c r="L18">
-        <v>0.9944599758690806</v>
+        <v>0.9944599758690809</v>
       </c>
       <c r="M18">
         <v>0.9813554165552951</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9705034798603864</v>
+        <v>0.9705034798603858</v>
       </c>
       <c r="D19">
-        <v>0.9942952547288774</v>
+        <v>0.9942952547288765</v>
       </c>
       <c r="E19">
-        <v>0.9808499476246194</v>
+        <v>0.9808499476246191</v>
       </c>
       <c r="F19">
-        <v>0.9676809966061167</v>
+        <v>0.9676809966061161</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.033322333546969</v>
       </c>
       <c r="J19">
-        <v>0.9985876306691857</v>
+        <v>0.9985876306691849</v>
       </c>
       <c r="K19">
-        <v>1.008148114929795</v>
+        <v>1.008148114929794</v>
       </c>
       <c r="L19">
-        <v>0.9949412626196505</v>
+        <v>0.99494126261965</v>
       </c>
       <c r="M19">
-        <v>0.9820142501255879</v>
+        <v>0.9820142501255871</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9675818560032206</v>
+        <v>0.9675818560032221</v>
       </c>
       <c r="D20">
-        <v>0.9919782162707449</v>
+        <v>0.9919782162707464</v>
       </c>
       <c r="E20">
-        <v>0.9783412763683326</v>
+        <v>0.9783412763683338</v>
       </c>
       <c r="F20">
-        <v>0.9643501042594529</v>
+        <v>0.9643501042594544</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032224055844973</v>
+        <v>1.032224055844974</v>
       </c>
       <c r="J20">
-        <v>0.9964222882081569</v>
+        <v>0.9964222882081584</v>
       </c>
       <c r="K20">
-        <v>1.006163601061018</v>
+        <v>1.006163601061019</v>
       </c>
       <c r="L20">
-        <v>0.9927759683326358</v>
+        <v>0.992775968332637</v>
       </c>
       <c r="M20">
-        <v>0.9790501821131232</v>
+        <v>0.9790501821131244</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.957764653329533</v>
+        <v>0.9577646533295324</v>
       </c>
       <c r="D21">
-        <v>0.9841998679435232</v>
+        <v>0.9841998679435231</v>
       </c>
       <c r="E21">
-        <v>0.9699235788503787</v>
+        <v>0.9699235788503785</v>
       </c>
       <c r="F21">
-        <v>0.9531599141965873</v>
+        <v>0.9531599141965867</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.028513401314572</v>
       </c>
       <c r="J21">
-        <v>0.9891408662615148</v>
+        <v>0.9891408662615142</v>
       </c>
       <c r="K21">
-        <v>0.9994868915366485</v>
+        <v>0.9994868915366484</v>
       </c>
       <c r="L21">
-        <v>0.9854980759632006</v>
+        <v>0.9854980759632004</v>
       </c>
       <c r="M21">
-        <v>0.969086555661507</v>
+        <v>0.9690865556615068</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9513250070684409</v>
+        <v>0.9513250070684439</v>
       </c>
       <c r="D22">
-        <v>0.9791043561566688</v>
+        <v>0.9791043561566714</v>
       </c>
       <c r="E22">
-        <v>0.9644120044002404</v>
+        <v>0.9644120044002427</v>
       </c>
       <c r="F22">
-        <v>0.9458203478534871</v>
+        <v>0.9458203478534901</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026064245759087</v>
+        <v>1.026064245759089</v>
       </c>
       <c r="J22">
-        <v>0.9843608975772438</v>
+        <v>0.9843608975772465</v>
       </c>
       <c r="K22">
-        <v>0.9951014445010666</v>
+        <v>0.9951014445010693</v>
       </c>
       <c r="L22">
-        <v>0.9807230423053146</v>
+        <v>0.980723042305317</v>
       </c>
       <c r="M22">
-        <v>0.9625473461529496</v>
+        <v>0.9625473461529527</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,28 +1219,28 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.95476570354124</v>
+        <v>0.9547657035412402</v>
       </c>
       <c r="D23">
-        <v>0.9818261807859064</v>
+        <v>0.9818261807859067</v>
       </c>
       <c r="E23">
-        <v>0.9673558349728908</v>
+        <v>0.9673558349728906</v>
       </c>
       <c r="F23">
-        <v>0.9497418770399266</v>
+        <v>0.9497418770399265</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027374206176512</v>
+        <v>1.027374206176513</v>
       </c>
       <c r="J23">
-        <v>0.9869151368600736</v>
+        <v>0.9869151368600737</v>
       </c>
       <c r="K23">
-        <v>0.9974450844913156</v>
+        <v>0.9974450844913157</v>
       </c>
       <c r="L23">
         <v>0.9832743989337911</v>
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9677422474168377</v>
+        <v>0.9677422474168399</v>
       </c>
       <c r="D24">
-        <v>0.992105392520919</v>
+        <v>0.9921053925209207</v>
       </c>
       <c r="E24">
-        <v>0.9784789555067815</v>
+        <v>0.9784789555067831</v>
       </c>
       <c r="F24">
-        <v>0.9645329531611605</v>
+        <v>0.9645329531611622</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032284425022717</v>
+        <v>1.032284425022718</v>
       </c>
       <c r="J24">
-        <v>0.9965411826933285</v>
+        <v>0.9965411826933305</v>
       </c>
       <c r="K24">
-        <v>1.006272579378702</v>
+        <v>1.006272579378704</v>
       </c>
       <c r="L24">
-        <v>0.9928948477789669</v>
+        <v>0.9928948477789684</v>
       </c>
       <c r="M24">
-        <v>0.9792129163765387</v>
+        <v>0.9792129163765405</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9817789250085193</v>
+        <v>0.9817789250085187</v>
       </c>
       <c r="D25">
         <v>1.003245582088617</v>
       </c>
       <c r="E25">
-        <v>0.990546785257333</v>
+        <v>0.9905467852573325</v>
       </c>
       <c r="F25">
-        <v>0.9805411619912319</v>
+        <v>0.9805411619912315</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,10 +1316,10 @@
         <v>1.006935455306528</v>
       </c>
       <c r="K25">
-        <v>1.01579372264478</v>
+        <v>1.015793722644779</v>
       </c>
       <c r="L25">
-        <v>1.003293644468409</v>
+        <v>1.003293644468408</v>
       </c>
       <c r="M25">
         <v>0.993449253967688</v>

--- a/Code/Results/Cases/Case_3_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9922799590756524</v>
+        <v>0.9922799590756531</v>
       </c>
       <c r="D2">
         <v>1.011590883411412</v>
       </c>
       <c r="E2">
-        <v>0.9995990779614938</v>
+        <v>0.9995990779614939</v>
       </c>
       <c r="F2">
-        <v>0.9925293240579873</v>
+        <v>0.9925293240579878</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,10 +439,10 @@
         <v>1.041401732588613</v>
       </c>
       <c r="J2">
-        <v>1.014694052853746</v>
+        <v>1.014694052853747</v>
       </c>
       <c r="K2">
-        <v>1.022891066500102</v>
+        <v>1.022891066500103</v>
       </c>
       <c r="L2">
         <v>1.011064001092013</v>
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9995548148227092</v>
+        <v>0.9995548148227089</v>
       </c>
       <c r="D3">
         <v>1.017376341483012</v>
       </c>
       <c r="E3">
-        <v>1.00588237523481</v>
+        <v>1.005882375234809</v>
       </c>
       <c r="F3">
         <v>1.000843545664884</v>
@@ -477,13 +477,13 @@
         <v>1.044050359788969</v>
       </c>
       <c r="J3">
-        <v>1.020057623396667</v>
+        <v>1.020057623396666</v>
       </c>
       <c r="K3">
         <v>1.027791613444506</v>
       </c>
       <c r="L3">
-        <v>1.016440539217161</v>
+        <v>1.01644053921716</v>
       </c>
       <c r="M3">
         <v>1.011465644533278</v>
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004115248156601</v>
+        <v>1.004115248156602</v>
       </c>
       <c r="D4">
-        <v>1.021004275782369</v>
+        <v>1.02100427578237</v>
       </c>
       <c r="E4">
-        <v>1.009826281968503</v>
+        <v>1.009826281968504</v>
       </c>
       <c r="F4">
         <v>1.006060330337307</v>
@@ -512,16 +512,16 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045695129816696</v>
+        <v>1.045695129816697</v>
       </c>
       <c r="J4">
-        <v>1.023414268072361</v>
+        <v>1.023414268072362</v>
       </c>
       <c r="K4">
         <v>1.030855638519152</v>
       </c>
       <c r="L4">
-        <v>1.01980754158293</v>
+        <v>1.019807541582931</v>
       </c>
       <c r="M4">
         <v>1.01608615868</v>
@@ -535,10 +535,10 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005999296350547</v>
+        <v>1.005999296350546</v>
       </c>
       <c r="D5">
-        <v>1.022503266017305</v>
+        <v>1.022503266017304</v>
       </c>
       <c r="E5">
         <v>1.011456766667215</v>
@@ -556,7 +556,7 @@
         <v>1.024799586761631</v>
       </c>
       <c r="K5">
-        <v>1.032119488598484</v>
+        <v>1.032119488598483</v>
       </c>
       <c r="L5">
         <v>1.021197674587661</v>
@@ -576,7 +576,7 @@
         <v>1.006313747026167</v>
       </c>
       <c r="D6">
-        <v>1.022753458087267</v>
+        <v>1.022753458087266</v>
       </c>
       <c r="E6">
         <v>1.011728962345156</v>
@@ -600,7 +600,7 @@
         <v>1.021429637128133</v>
       </c>
       <c r="M6">
-        <v>1.018313446701826</v>
+        <v>1.018313446701825</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004140550665914</v>
+        <v>1.004140550665913</v>
       </c>
       <c r="D7">
-        <v>1.021024406407176</v>
+        <v>1.021024406407175</v>
       </c>
       <c r="E7">
-        <v>1.009848174725806</v>
+        <v>1.009848174725805</v>
       </c>
       <c r="F7">
         <v>1.006089286005015</v>
@@ -629,10 +629,10 @@
         <v>1.045704219519194</v>
       </c>
       <c r="J7">
-        <v>1.023432878361255</v>
+        <v>1.023432878361254</v>
       </c>
       <c r="K7">
-        <v>1.030872619809393</v>
+        <v>1.030872619809392</v>
       </c>
       <c r="L7">
         <v>1.019826214407314</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9947702097311658</v>
+        <v>0.9947702097311644</v>
       </c>
       <c r="D8">
-        <v>1.013570991333697</v>
+        <v>1.013570991333696</v>
       </c>
       <c r="E8">
-        <v>1.001748794221082</v>
+        <v>1.00174879422108</v>
       </c>
       <c r="F8">
-        <v>0.9953743961160356</v>
+        <v>0.9953743961160342</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042311638415416</v>
+        <v>1.042311638415415</v>
       </c>
       <c r="J8">
-        <v>1.016531212455855</v>
+        <v>1.016531212455854</v>
       </c>
       <c r="K8">
-        <v>1.024570219952194</v>
+        <v>1.024570219952193</v>
       </c>
       <c r="L8">
-        <v>1.012905128973014</v>
+        <v>1.012905128973013</v>
       </c>
       <c r="M8">
-        <v>1.006617390865165</v>
+        <v>1.006617390865163</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9770328931824683</v>
+        <v>0.9770328931824694</v>
       </c>
       <c r="D9">
-        <v>0.999476750452202</v>
+        <v>0.9994767504522034</v>
       </c>
       <c r="E9">
-        <v>0.9864623016111633</v>
+        <v>0.9864623016111648</v>
       </c>
       <c r="F9">
-        <v>0.9751268934936799</v>
+        <v>0.9751268934936816</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035765663061122</v>
+        <v>1.035765663061123</v>
       </c>
       <c r="J9">
-        <v>1.003423587711524</v>
+        <v>1.003423587711525</v>
       </c>
       <c r="K9">
-        <v>1.012578322723583</v>
+        <v>1.012578322723585</v>
       </c>
       <c r="L9">
-        <v>0.9997789047491009</v>
+        <v>0.9997789047491021</v>
       </c>
       <c r="M9">
-        <v>0.9886368361287772</v>
+        <v>0.9886368361287791</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9642240197420225</v>
+        <v>0.9642240197420224</v>
       </c>
       <c r="D10">
-        <v>0.9893164278514911</v>
+        <v>0.9893164278514912</v>
       </c>
       <c r="E10">
-        <v>0.9754600504118551</v>
+        <v>0.9754600504118554</v>
       </c>
       <c r="F10">
-        <v>0.9605223510217015</v>
+        <v>0.9605223510217016</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>1.03095825967018</v>
       </c>
       <c r="J10">
-        <v>0.9939326648732496</v>
+        <v>0.9939326648732497</v>
       </c>
       <c r="K10">
         <v>1.003881294409786</v>
@@ -752,7 +752,7 @@
         <v>0.990286982388206</v>
       </c>
       <c r="M10">
-        <v>0.9756429455685128</v>
+        <v>0.9756429455685129</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,13 +763,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9584016636641758</v>
+        <v>0.9584016636641757</v>
       </c>
       <c r="D11">
-        <v>0.9847042185009295</v>
+        <v>0.9847042185009294</v>
       </c>
       <c r="E11">
-        <v>0.9704692194173639</v>
+        <v>0.970469219417364</v>
       </c>
       <c r="F11">
         <v>0.9538859511279814</v>
@@ -784,13 +784,13 @@
         <v>0.9896135603577683</v>
       </c>
       <c r="K11">
-        <v>0.9999204729526109</v>
+        <v>0.9999204729526108</v>
       </c>
       <c r="L11">
         <v>0.9859703907789239</v>
       </c>
       <c r="M11">
-        <v>0.9697332564937928</v>
+        <v>0.9697332564937927</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9561932493248809</v>
+        <v>0.9561932493248797</v>
       </c>
       <c r="D12">
-        <v>0.9829559424622079</v>
+        <v>0.9829559424622064</v>
       </c>
       <c r="E12">
-        <v>0.9685779037733295</v>
+        <v>0.9685779037733283</v>
       </c>
       <c r="F12">
-        <v>0.9513689100633319</v>
+        <v>0.9513689100633305</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027916789137352</v>
+        <v>1.027916789137351</v>
       </c>
       <c r="J12">
-        <v>0.9879746891307455</v>
+        <v>0.987974689130744</v>
       </c>
       <c r="K12">
-        <v>0.9984171303477887</v>
+        <v>0.9984171303477871</v>
       </c>
       <c r="L12">
-        <v>0.9843329198155469</v>
+        <v>0.9843329198155457</v>
       </c>
       <c r="M12">
-        <v>0.9674911277154895</v>
+        <v>0.9674911277154882</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9566691063983783</v>
+        <v>0.9566691063983794</v>
       </c>
       <c r="D13">
-        <v>0.9833325970716861</v>
+        <v>0.983332597071687</v>
       </c>
       <c r="E13">
-        <v>0.968985354725226</v>
+        <v>0.968985354725227</v>
       </c>
       <c r="F13">
-        <v>0.951911265420166</v>
+        <v>0.951911265420167</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.028097529520399</v>
       </c>
       <c r="J13">
-        <v>0.9883278511899776</v>
+        <v>0.9883278511899787</v>
       </c>
       <c r="K13">
-        <v>0.9987411056790676</v>
+        <v>0.9987411056790687</v>
       </c>
       <c r="L13">
-        <v>0.9846857599583448</v>
+        <v>0.984685759958346</v>
       </c>
       <c r="M13">
-        <v>0.967974277818285</v>
+        <v>0.9679742778182859</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9582200752227241</v>
+        <v>0.9582200752227235</v>
       </c>
       <c r="D14">
-        <v>0.9845604411495232</v>
+        <v>0.9845604411495227</v>
       </c>
       <c r="E14">
-        <v>0.9703136692143398</v>
+        <v>0.9703136692143393</v>
       </c>
       <c r="F14">
-        <v>0.9536789840076449</v>
+        <v>0.9536789840076445</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.028686180841201</v>
       </c>
       <c r="J14">
-        <v>0.9894788153100789</v>
+        <v>0.9894788153100784</v>
       </c>
       <c r="K14">
-        <v>0.9997968791691655</v>
+        <v>0.9997968791691649</v>
       </c>
       <c r="L14">
-        <v>0.9858357518006036</v>
+        <v>0.9858357518006031</v>
       </c>
       <c r="M14">
-        <v>0.9695489084524636</v>
+        <v>0.9695489084524631</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9591694803698764</v>
+        <v>0.9591694803698767</v>
       </c>
       <c r="D15">
-        <v>0.9853122043892754</v>
+        <v>0.9853122043892756</v>
       </c>
       <c r="E15">
-        <v>0.9711270077969758</v>
+        <v>0.9711270077969759</v>
       </c>
       <c r="F15">
-        <v>0.9547610818364941</v>
+        <v>0.9547610818364946</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.029046178665265</v>
       </c>
       <c r="J15">
-        <v>0.9901832822243356</v>
+        <v>0.9901832822243358</v>
       </c>
       <c r="K15">
-        <v>1.000443028735082</v>
+        <v>1.000443028735083</v>
       </c>
       <c r="L15">
-        <v>0.9865396823123292</v>
+        <v>0.9865396823123295</v>
       </c>
       <c r="M15">
-        <v>0.9705127171310276</v>
+        <v>0.970512717131028</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,25 +953,25 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9646042646728559</v>
+        <v>0.9646042646728562</v>
       </c>
       <c r="D16">
-        <v>0.9896177853511773</v>
+        <v>0.9896177853511774</v>
       </c>
       <c r="E16">
         <v>0.9757862157279547</v>
       </c>
       <c r="F16">
-        <v>0.960955789319258</v>
+        <v>0.9609557893192587</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031101783408738</v>
+        <v>1.031101783408739</v>
       </c>
       <c r="J16">
-        <v>0.9942146421647295</v>
+        <v>0.9942146421647294</v>
       </c>
       <c r="K16">
         <v>1.004139821314245</v>
@@ -980,7 +980,7 @@
         <v>0.990568856964842</v>
       </c>
       <c r="M16">
-        <v>0.9760288189647905</v>
+        <v>0.9760288189647913</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9679366373256467</v>
+        <v>0.9679366373256455</v>
       </c>
       <c r="D17">
-        <v>0.9922595304689512</v>
+        <v>0.9922595304689507</v>
       </c>
       <c r="E17">
-        <v>0.9786458253183865</v>
+        <v>0.9786458253183854</v>
       </c>
       <c r="F17">
-        <v>0.9647545624517037</v>
+        <v>0.9647545624517028</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03235757913669</v>
+        <v>1.032357579136689</v>
       </c>
       <c r="J17">
-        <v>0.9966852762333568</v>
+        <v>0.9966852762333559</v>
       </c>
       <c r="K17">
-        <v>1.006404653121409</v>
+        <v>1.006404653121408</v>
       </c>
       <c r="L17">
-        <v>0.9930389250028649</v>
+        <v>0.9930389250028638</v>
       </c>
       <c r="M17">
-        <v>0.9794101437395103</v>
+        <v>0.9794101437395094</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9698540391248881</v>
+        <v>0.9698540391248878</v>
       </c>
       <c r="D18">
-        <v>0.9937801248074333</v>
+        <v>0.9937801248074332</v>
       </c>
       <c r="E18">
-        <v>0.9802921613410973</v>
+        <v>0.980292161341097</v>
       </c>
       <c r="F18">
         <v>0.9669405435050089</v>
@@ -1044,16 +1044,16 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033078456015464</v>
+        <v>1.033078456015463</v>
       </c>
       <c r="J18">
-        <v>0.9981063748535687</v>
+        <v>0.9981063748535685</v>
       </c>
       <c r="K18">
-        <v>1.007707092110042</v>
+        <v>1.007707092110041</v>
       </c>
       <c r="L18">
-        <v>0.9944599758690809</v>
+        <v>0.9944599758690806</v>
       </c>
       <c r="M18">
         <v>0.9813554165552951</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9705034798603858</v>
+        <v>0.9705034798603864</v>
       </c>
       <c r="D19">
-        <v>0.9942952547288765</v>
+        <v>0.9942952547288774</v>
       </c>
       <c r="E19">
-        <v>0.9808499476246191</v>
+        <v>0.9808499476246194</v>
       </c>
       <c r="F19">
-        <v>0.9676809966061161</v>
+        <v>0.9676809966061167</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.033322333546969</v>
       </c>
       <c r="J19">
-        <v>0.9985876306691849</v>
+        <v>0.9985876306691857</v>
       </c>
       <c r="K19">
-        <v>1.008148114929794</v>
+        <v>1.008148114929795</v>
       </c>
       <c r="L19">
-        <v>0.99494126261965</v>
+        <v>0.9949412626196505</v>
       </c>
       <c r="M19">
-        <v>0.9820142501255871</v>
+        <v>0.9820142501255879</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9675818560032221</v>
+        <v>0.9675818560032206</v>
       </c>
       <c r="D20">
-        <v>0.9919782162707464</v>
+        <v>0.9919782162707449</v>
       </c>
       <c r="E20">
-        <v>0.9783412763683338</v>
+        <v>0.9783412763683326</v>
       </c>
       <c r="F20">
-        <v>0.9643501042594544</v>
+        <v>0.9643501042594529</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032224055844974</v>
+        <v>1.032224055844973</v>
       </c>
       <c r="J20">
-        <v>0.9964222882081584</v>
+        <v>0.9964222882081569</v>
       </c>
       <c r="K20">
-        <v>1.006163601061019</v>
+        <v>1.006163601061018</v>
       </c>
       <c r="L20">
-        <v>0.992775968332637</v>
+        <v>0.9927759683326358</v>
       </c>
       <c r="M20">
-        <v>0.9790501821131244</v>
+        <v>0.9790501821131232</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9577646533295324</v>
+        <v>0.957764653329533</v>
       </c>
       <c r="D21">
-        <v>0.9841998679435231</v>
+        <v>0.9841998679435232</v>
       </c>
       <c r="E21">
-        <v>0.9699235788503785</v>
+        <v>0.9699235788503787</v>
       </c>
       <c r="F21">
-        <v>0.9531599141965867</v>
+        <v>0.9531599141965873</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.028513401314572</v>
       </c>
       <c r="J21">
-        <v>0.9891408662615142</v>
+        <v>0.9891408662615148</v>
       </c>
       <c r="K21">
-        <v>0.9994868915366484</v>
+        <v>0.9994868915366485</v>
       </c>
       <c r="L21">
-        <v>0.9854980759632004</v>
+        <v>0.9854980759632006</v>
       </c>
       <c r="M21">
-        <v>0.9690865556615068</v>
+        <v>0.969086555661507</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9513250070684439</v>
+        <v>0.9513250070684409</v>
       </c>
       <c r="D22">
-        <v>0.9791043561566714</v>
+        <v>0.9791043561566688</v>
       </c>
       <c r="E22">
-        <v>0.9644120044002427</v>
+        <v>0.9644120044002404</v>
       </c>
       <c r="F22">
-        <v>0.9458203478534901</v>
+        <v>0.9458203478534871</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026064245759089</v>
+        <v>1.026064245759087</v>
       </c>
       <c r="J22">
-        <v>0.9843608975772465</v>
+        <v>0.9843608975772438</v>
       </c>
       <c r="K22">
-        <v>0.9951014445010693</v>
+        <v>0.9951014445010666</v>
       </c>
       <c r="L22">
-        <v>0.980723042305317</v>
+        <v>0.9807230423053146</v>
       </c>
       <c r="M22">
-        <v>0.9625473461529527</v>
+        <v>0.9625473461529496</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,28 +1219,28 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9547657035412402</v>
+        <v>0.95476570354124</v>
       </c>
       <c r="D23">
-        <v>0.9818261807859067</v>
+        <v>0.9818261807859064</v>
       </c>
       <c r="E23">
-        <v>0.9673558349728906</v>
+        <v>0.9673558349728908</v>
       </c>
       <c r="F23">
-        <v>0.9497418770399265</v>
+        <v>0.9497418770399266</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027374206176513</v>
+        <v>1.027374206176512</v>
       </c>
       <c r="J23">
-        <v>0.9869151368600737</v>
+        <v>0.9869151368600736</v>
       </c>
       <c r="K23">
-        <v>0.9974450844913157</v>
+        <v>0.9974450844913156</v>
       </c>
       <c r="L23">
         <v>0.9832743989337911</v>
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9677422474168399</v>
+        <v>0.9677422474168377</v>
       </c>
       <c r="D24">
-        <v>0.9921053925209207</v>
+        <v>0.992105392520919</v>
       </c>
       <c r="E24">
-        <v>0.9784789555067831</v>
+        <v>0.9784789555067815</v>
       </c>
       <c r="F24">
-        <v>0.9645329531611622</v>
+        <v>0.9645329531611605</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032284425022718</v>
+        <v>1.032284425022717</v>
       </c>
       <c r="J24">
-        <v>0.9965411826933305</v>
+        <v>0.9965411826933285</v>
       </c>
       <c r="K24">
-        <v>1.006272579378704</v>
+        <v>1.006272579378702</v>
       </c>
       <c r="L24">
-        <v>0.9928948477789684</v>
+        <v>0.9928948477789669</v>
       </c>
       <c r="M24">
-        <v>0.9792129163765405</v>
+        <v>0.9792129163765387</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9817789250085187</v>
+        <v>0.9817789250085193</v>
       </c>
       <c r="D25">
         <v>1.003245582088617</v>
       </c>
       <c r="E25">
-        <v>0.9905467852573325</v>
+        <v>0.990546785257333</v>
       </c>
       <c r="F25">
-        <v>0.9805411619912315</v>
+        <v>0.9805411619912319</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,10 +1316,10 @@
         <v>1.006935455306528</v>
       </c>
       <c r="K25">
-        <v>1.015793722644779</v>
+        <v>1.01579372264478</v>
       </c>
       <c r="L25">
-        <v>1.003293644468408</v>
+        <v>1.003293644468409</v>
       </c>
       <c r="M25">
         <v>0.993449253967688</v>

--- a/Code/Results/Cases/Case_3_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9922799590756531</v>
+        <v>0.9922908260363441</v>
       </c>
       <c r="D2">
-        <v>1.011590883411412</v>
+        <v>1.011599805215062</v>
       </c>
       <c r="E2">
-        <v>0.9995990779614939</v>
+        <v>0.9996100896348702</v>
       </c>
       <c r="F2">
-        <v>0.9925293240579878</v>
+        <v>0.9925396882392796</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041401732588613</v>
+        <v>1.041406723382102</v>
       </c>
       <c r="J2">
-        <v>1.014694052853747</v>
+        <v>1.014704587778743</v>
       </c>
       <c r="K2">
-        <v>1.022891066500103</v>
+        <v>1.022899867567531</v>
       </c>
       <c r="L2">
-        <v>1.011064001092013</v>
+        <v>1.011074859202075</v>
       </c>
       <c r="M2">
-        <v>1.004093727873937</v>
+        <v>1.00410394490591</v>
+      </c>
+      <c r="N2">
+        <v>1.011264197313003</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9995548148227089</v>
+        <v>0.9995612867128825</v>
       </c>
       <c r="D3">
-        <v>1.017376341483012</v>
+        <v>1.017381666738632</v>
       </c>
       <c r="E3">
-        <v>1.005882375234809</v>
+        <v>1.005889385489558</v>
       </c>
       <c r="F3">
-        <v>1.000843545664884</v>
+        <v>1.000849913985134</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044050359788969</v>
+        <v>1.044053342486978</v>
       </c>
       <c r="J3">
-        <v>1.020057623396666</v>
+        <v>1.020063918644041</v>
       </c>
       <c r="K3">
-        <v>1.027791613444506</v>
+        <v>1.027796873427748</v>
       </c>
       <c r="L3">
-        <v>1.01644053921716</v>
+        <v>1.016447461079453</v>
       </c>
       <c r="M3">
-        <v>1.011465644533278</v>
+        <v>1.01147193154186</v>
+      </c>
+      <c r="N3">
+        <v>1.015017257154514</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004115248156602</v>
+        <v>1.0041190166194</v>
       </c>
       <c r="D4">
-        <v>1.02100427578237</v>
+        <v>1.021007384353496</v>
       </c>
       <c r="E4">
-        <v>1.009826281968504</v>
+        <v>1.009830829286023</v>
       </c>
       <c r="F4">
-        <v>1.006060330337307</v>
+        <v>1.006064253346438</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045695129816697</v>
+        <v>1.045696872171126</v>
       </c>
       <c r="J4">
-        <v>1.023414268072362</v>
+        <v>1.023417941202087</v>
       </c>
       <c r="K4">
-        <v>1.030855638519152</v>
+        <v>1.030858711454661</v>
       </c>
       <c r="L4">
-        <v>1.019807541582931</v>
+        <v>1.019812035333322</v>
       </c>
       <c r="M4">
-        <v>1.01608615868</v>
+        <v>1.016090035046522</v>
+      </c>
+      <c r="N4">
+        <v>1.017363652080985</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005999296350546</v>
+        <v>1.006001958910278</v>
       </c>
       <c r="D5">
-        <v>1.022503266017304</v>
+        <v>1.022505466842426</v>
       </c>
       <c r="E5">
-        <v>1.011456766667215</v>
+        <v>1.01146030622179</v>
       </c>
       <c r="F5">
-        <v>1.008216765880942</v>
+        <v>1.008219691337104</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046370830879203</v>
+        <v>1.046372064692031</v>
       </c>
       <c r="J5">
-        <v>1.024799586761631</v>
+        <v>1.02480218413206</v>
       </c>
       <c r="K5">
-        <v>1.032119488598483</v>
+        <v>1.032121664912498</v>
       </c>
       <c r="L5">
-        <v>1.021197674587661</v>
+        <v>1.021201173651976</v>
       </c>
       <c r="M5">
-        <v>1.01799488461532</v>
+        <v>1.017997776339925</v>
+      </c>
+      <c r="N5">
+        <v>1.018331446231575</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006313747026167</v>
+        <v>1.006316225614415</v>
       </c>
       <c r="D6">
-        <v>1.022753458087266</v>
+        <v>1.022755507851692</v>
       </c>
       <c r="E6">
-        <v>1.011728962345156</v>
+        <v>1.011732334244517</v>
       </c>
       <c r="F6">
-        <v>1.008576752910982</v>
+        <v>1.00857951257581</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046483381155659</v>
+        <v>1.046484530305307</v>
       </c>
       <c r="J6">
-        <v>1.025030714282441</v>
+        <v>1.025033132520858</v>
       </c>
       <c r="K6">
-        <v>1.032330308409726</v>
+        <v>1.032332335456956</v>
       </c>
       <c r="L6">
-        <v>1.021429637128133</v>
+        <v>1.021432970646399</v>
       </c>
       <c r="M6">
-        <v>1.018313446701825</v>
+        <v>1.018316174711547</v>
+      </c>
+      <c r="N6">
+        <v>1.018492878698355</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004140550665913</v>
+        <v>1.004144304234987</v>
       </c>
       <c r="D7">
-        <v>1.021024406407175</v>
+        <v>1.021027502756923</v>
       </c>
       <c r="E7">
-        <v>1.009848174725805</v>
+        <v>1.009852708472049</v>
       </c>
       <c r="F7">
-        <v>1.006089286005015</v>
+        <v>1.006093195568966</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045704219519194</v>
+        <v>1.045705955029304</v>
       </c>
       <c r="J7">
-        <v>1.023432878361254</v>
+        <v>1.023436537015217</v>
       </c>
       <c r="K7">
-        <v>1.030872619809392</v>
+        <v>1.030875680677215</v>
       </c>
       <c r="L7">
-        <v>1.019826214407314</v>
+        <v>1.019830694767069</v>
       </c>
       <c r="M7">
-        <v>1.016111793125727</v>
+        <v>1.01611565622584</v>
+      </c>
+      <c r="N7">
+        <v>1.017376655712829</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9947702097311644</v>
+        <v>0.9947795603370535</v>
       </c>
       <c r="D8">
-        <v>1.013570991333696</v>
+        <v>1.013578673301682</v>
       </c>
       <c r="E8">
-        <v>1.00174879422108</v>
+        <v>1.001758425810239</v>
       </c>
       <c r="F8">
-        <v>0.9953743961160342</v>
+        <v>0.9953833788201593</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042311638415415</v>
+        <v>1.042315937551891</v>
       </c>
       <c r="J8">
-        <v>1.016531212455854</v>
+        <v>1.016540287893275</v>
       </c>
       <c r="K8">
-        <v>1.024570219952193</v>
+        <v>1.024577801327066</v>
       </c>
       <c r="L8">
-        <v>1.012905128973013</v>
+        <v>1.012914630669846</v>
       </c>
       <c r="M8">
-        <v>1.006617390865163</v>
+        <v>1.006626250465743</v>
+      </c>
+      <c r="N8">
+        <v>1.012550201636403</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9770328931824694</v>
+        <v>0.9770533404772518</v>
       </c>
       <c r="D9">
-        <v>0.9994767504522034</v>
+        <v>0.9994934801543855</v>
       </c>
       <c r="E9">
-        <v>0.9864623016111648</v>
+        <v>0.9864820173816351</v>
       </c>
       <c r="F9">
-        <v>0.9751268934936816</v>
+        <v>0.9751460552497844</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035765663061123</v>
+        <v>1.035774996078887</v>
       </c>
       <c r="J9">
-        <v>1.003423587711525</v>
+        <v>1.003443264298523</v>
       </c>
       <c r="K9">
-        <v>1.012578322723585</v>
+        <v>1.012594780638717</v>
       </c>
       <c r="L9">
-        <v>0.9997789047491021</v>
+        <v>0.9997982892336293</v>
       </c>
       <c r="M9">
-        <v>0.9886368361287791</v>
+        <v>0.988655666150263</v>
+      </c>
+      <c r="N9">
+        <v>1.003365561337277</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9642240197420224</v>
+        <v>0.9642529604064252</v>
       </c>
       <c r="D10">
-        <v>0.9893164278514912</v>
+        <v>0.9893400419805946</v>
       </c>
       <c r="E10">
-        <v>0.9754600504118554</v>
+        <v>0.9754874539272579</v>
       </c>
       <c r="F10">
-        <v>0.9605223510217016</v>
+        <v>0.9605494121683372</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03095825967018</v>
+        <v>1.030971403411574</v>
       </c>
       <c r="J10">
-        <v>0.9939326648732497</v>
+        <v>0.9939603319137237</v>
       </c>
       <c r="K10">
-        <v>1.003881294409786</v>
+        <v>1.003904470097122</v>
       </c>
       <c r="L10">
-        <v>0.990286982388206</v>
+        <v>0.9903138579977092</v>
       </c>
       <c r="M10">
-        <v>0.9756429455685129</v>
+        <v>0.9756694638486478</v>
+      </c>
+      <c r="N10">
+        <v>0.9967042509716977</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9584016636641757</v>
+        <v>0.9584346182660224</v>
       </c>
       <c r="D11">
-        <v>0.9847042185009294</v>
+        <v>0.9847310736233641</v>
       </c>
       <c r="E11">
-        <v>0.970469219417364</v>
+        <v>0.9705002447784679</v>
       </c>
       <c r="F11">
-        <v>0.9538859511279814</v>
+        <v>0.9539167780972614</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028755056020369</v>
+        <v>1.028769988371369</v>
       </c>
       <c r="J11">
-        <v>0.9896135603577683</v>
+        <v>0.9896449668726219</v>
       </c>
       <c r="K11">
-        <v>0.9999204729526108</v>
+        <v>0.9999468007809765</v>
       </c>
       <c r="L11">
-        <v>0.9859703907789239</v>
+        <v>0.9860007831772447</v>
       </c>
       <c r="M11">
-        <v>0.9697332564937927</v>
+        <v>0.9697634252300855</v>
+      </c>
+      <c r="N11">
+        <v>0.9936706311032888</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9561932493248797</v>
+        <v>0.9562277535517372</v>
       </c>
       <c r="D12">
-        <v>0.9829559424622064</v>
+        <v>0.98298404662858</v>
       </c>
       <c r="E12">
-        <v>0.9685779037733283</v>
+        <v>0.9686103252766759</v>
       </c>
       <c r="F12">
-        <v>0.9513689100633305</v>
+        <v>0.9514011964553644</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027916789137351</v>
+        <v>1.027932409923725</v>
       </c>
       <c r="J12">
-        <v>0.987974689130744</v>
+        <v>0.9880075330737614</v>
       </c>
       <c r="K12">
-        <v>0.9984171303477871</v>
+        <v>0.9984446712535889</v>
       </c>
       <c r="L12">
-        <v>0.9843329198155457</v>
+        <v>0.9843646657872299</v>
       </c>
       <c r="M12">
-        <v>0.9674911277154882</v>
+        <v>0.9675227086598136</v>
+      </c>
+      <c r="N12">
+        <v>0.9925192387059588</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9566691063983794</v>
+        <v>0.9567032754213718</v>
       </c>
       <c r="D13">
-        <v>0.983332597071687</v>
+        <v>0.9833604311568284</v>
       </c>
       <c r="E13">
-        <v>0.968985354725227</v>
+        <v>0.9690174743270989</v>
       </c>
       <c r="F13">
-        <v>0.951911265420167</v>
+        <v>0.9519432358567833</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028097529520399</v>
+        <v>1.028113001486719</v>
       </c>
       <c r="J13">
-        <v>0.9883278511899787</v>
+        <v>0.9883603844916429</v>
       </c>
       <c r="K13">
-        <v>0.9987411056790687</v>
+        <v>0.9987683843610105</v>
       </c>
       <c r="L13">
-        <v>0.984685759958346</v>
+        <v>0.9847172133303687</v>
       </c>
       <c r="M13">
-        <v>0.9679742778182859</v>
+        <v>0.9680055531466419</v>
+      </c>
+      <c r="N13">
+        <v>0.9927673660895083</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9582200752227235</v>
+        <v>0.9582531566671267</v>
       </c>
       <c r="D14">
-        <v>0.9845604411495227</v>
+        <v>0.9845873985565118</v>
       </c>
       <c r="E14">
-        <v>0.9703136692143393</v>
+        <v>0.970344808899915</v>
       </c>
       <c r="F14">
-        <v>0.9536789840076445</v>
+        <v>0.9537099303192682</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028686180841201</v>
+        <v>1.028701169586431</v>
       </c>
       <c r="J14">
-        <v>0.9894788153100784</v>
+        <v>0.9895103396137608</v>
       </c>
       <c r="K14">
-        <v>0.9997968791691649</v>
+        <v>0.9998233063724991</v>
       </c>
       <c r="L14">
-        <v>0.9858357518006031</v>
+        <v>0.9858662550805998</v>
       </c>
       <c r="M14">
-        <v>0.9695489084524631</v>
+        <v>0.9695791927223972</v>
+      </c>
+      <c r="N14">
+        <v>0.9935759714264834</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9591694803698767</v>
+        <v>0.9592018997675382</v>
       </c>
       <c r="D15">
-        <v>0.9853122043892756</v>
+        <v>0.9853386278388817</v>
       </c>
       <c r="E15">
-        <v>0.9711270077969759</v>
+        <v>0.971157550685524</v>
       </c>
       <c r="F15">
-        <v>0.9547610818364946</v>
+        <v>0.9547914054777332</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029046178665265</v>
+        <v>1.029060872979228</v>
       </c>
       <c r="J15">
-        <v>0.9901832822243358</v>
+        <v>0.9902141914808251</v>
       </c>
       <c r="K15">
-        <v>1.000443028735083</v>
+        <v>1.00046893709946</v>
       </c>
       <c r="L15">
-        <v>0.9865396823123295</v>
+        <v>0.9865696066825744</v>
       </c>
       <c r="M15">
-        <v>0.970512717131028</v>
+        <v>0.9705423984998853</v>
+      </c>
+      <c r="N15">
+        <v>0.9940708544069872</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9646042646728562</v>
+        <v>0.9646329466892838</v>
       </c>
       <c r="D16">
-        <v>0.9896177853511774</v>
+        <v>0.9896411903606601</v>
       </c>
       <c r="E16">
-        <v>0.9757862157279547</v>
+        <v>0.9758133855978781</v>
       </c>
       <c r="F16">
-        <v>0.9609557893192587</v>
+        <v>0.9609826085224515</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031101783408739</v>
+        <v>1.031114811628322</v>
       </c>
       <c r="J16">
-        <v>0.9942146421647294</v>
+        <v>0.9942420674387752</v>
       </c>
       <c r="K16">
-        <v>1.004139821314245</v>
+        <v>1.004162793390395</v>
       </c>
       <c r="L16">
-        <v>0.990568856964842</v>
+        <v>0.990595505436813</v>
       </c>
       <c r="M16">
-        <v>0.9760288189647913</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9760551023922373</v>
+      </c>
+      <c r="N16">
+        <v>0.996902261483982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9679366373256455</v>
+        <v>0.9679630702711018</v>
       </c>
       <c r="D17">
-        <v>0.9922595304689507</v>
+        <v>0.9922811156669369</v>
       </c>
       <c r="E17">
-        <v>0.9786458253183854</v>
+        <v>0.9786709622331738</v>
       </c>
       <c r="F17">
-        <v>0.9647545624517028</v>
+        <v>0.9647792814993957</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032357579136689</v>
+        <v>1.032369601456082</v>
       </c>
       <c r="J17">
-        <v>0.9966852762333559</v>
+        <v>0.9967105951011741</v>
       </c>
       <c r="K17">
-        <v>1.006404653121408</v>
+        <v>1.006425852156231</v>
       </c>
       <c r="L17">
-        <v>0.9930389250028638</v>
+        <v>0.9930635957517807</v>
       </c>
       <c r="M17">
-        <v>0.9794101437395094</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9794343869174595</v>
+      </c>
+      <c r="N17">
+        <v>0.9986369494559454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9698540391248878</v>
+        <v>0.9698791920401536</v>
       </c>
       <c r="D18">
-        <v>0.9937801248074332</v>
+        <v>0.9938006731536099</v>
       </c>
       <c r="E18">
-        <v>0.980292161341097</v>
+        <v>0.9803161402143001</v>
       </c>
       <c r="F18">
-        <v>0.9669405435050089</v>
+        <v>0.9669640702100861</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033078456015463</v>
+        <v>1.033089904727492</v>
       </c>
       <c r="J18">
-        <v>0.9981063748535685</v>
+        <v>0.9981304915699449</v>
       </c>
       <c r="K18">
-        <v>1.007707092110041</v>
+        <v>1.007727279998242</v>
       </c>
       <c r="L18">
-        <v>0.9944599758690806</v>
+        <v>0.9944835189133459</v>
       </c>
       <c r="M18">
-        <v>0.9813554165552951</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9813785000826672</v>
+      </c>
+      <c r="N18">
+        <v>0.9996345255317454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9705034798603864</v>
+        <v>0.9705282014928468</v>
       </c>
       <c r="D19">
-        <v>0.9942952547288774</v>
+        <v>0.9943154535428614</v>
       </c>
       <c r="E19">
-        <v>0.9808499476246194</v>
+        <v>0.9808735361561083</v>
       </c>
       <c r="F19">
-        <v>0.9676809966061167</v>
+        <v>0.9677041220527928</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033322333546969</v>
+        <v>1.033333588809816</v>
       </c>
       <c r="J19">
-        <v>0.9985876306691857</v>
+        <v>0.9986113417989674</v>
       </c>
       <c r="K19">
-        <v>1.008148114929795</v>
+        <v>1.008167961795801</v>
       </c>
       <c r="L19">
-        <v>0.9949412626196505</v>
+        <v>0.9949644253625931</v>
       </c>
       <c r="M19">
-        <v>0.9820142501255879</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9820369431804307</v>
+      </c>
+      <c r="N19">
+        <v>0.9999723186622194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9675818560032206</v>
+        <v>0.9676085269081738</v>
       </c>
       <c r="D20">
-        <v>0.9919782162707449</v>
+        <v>0.9919999941308578</v>
       </c>
       <c r="E20">
-        <v>0.9783412763683326</v>
+        <v>0.9783666284849931</v>
       </c>
       <c r="F20">
-        <v>0.9643501042594529</v>
+        <v>0.9643750452000915</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032224055844973</v>
+        <v>1.032236184709659</v>
       </c>
       <c r="J20">
-        <v>0.9964222882081569</v>
+        <v>0.9964478302920311</v>
       </c>
       <c r="K20">
-        <v>1.006163601061018</v>
+        <v>1.00618498790588</v>
       </c>
       <c r="L20">
-        <v>0.9927759683326358</v>
+        <v>0.9928008485555353</v>
       </c>
       <c r="M20">
-        <v>0.9790501821131232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9790746409943694</v>
+      </c>
+      <c r="N20">
+        <v>0.9984523211460182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.957764653329533</v>
+        <v>0.9577980533453447</v>
       </c>
       <c r="D21">
-        <v>0.9841998679435232</v>
+        <v>0.9842270822073788</v>
       </c>
       <c r="E21">
-        <v>0.9699235788503787</v>
+        <v>0.9699550056323168</v>
       </c>
       <c r="F21">
-        <v>0.9531599141965873</v>
+        <v>0.9531911603343313</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028513401314572</v>
+        <v>1.028528531662674</v>
       </c>
       <c r="J21">
-        <v>0.9891408662615148</v>
+        <v>0.9891726862953788</v>
       </c>
       <c r="K21">
-        <v>0.9994868915366485</v>
+        <v>0.999513568262137</v>
       </c>
       <c r="L21">
-        <v>0.9854980759632006</v>
+        <v>0.9855288576599801</v>
       </c>
       <c r="M21">
-        <v>0.969086555661507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9691171301477811</v>
+      </c>
+      <c r="N21">
+        <v>0.9933385544097695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9513250070684409</v>
+        <v>0.9513629827328437</v>
       </c>
       <c r="D22">
-        <v>0.9791043561566688</v>
+        <v>0.9791352539854309</v>
       </c>
       <c r="E22">
-        <v>0.9644120044002404</v>
+        <v>0.9644475490744038</v>
       </c>
       <c r="F22">
-        <v>0.9458203478534871</v>
+        <v>0.9458559148861699</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026064245759087</v>
+        <v>1.026081404615198</v>
       </c>
       <c r="J22">
-        <v>0.9843608975772438</v>
+        <v>0.9843969491303458</v>
       </c>
       <c r="K22">
-        <v>0.9951014445010666</v>
+        <v>0.9951316952237874</v>
       </c>
       <c r="L22">
-        <v>0.9807230423053146</v>
+        <v>0.9807578121186891</v>
       </c>
       <c r="M22">
-        <v>0.9625473461529496</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9625820965640582</v>
+      </c>
+      <c r="N22">
+        <v>0.9899798631548127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.95476570354124</v>
+        <v>0.9548012177043563</v>
       </c>
       <c r="D23">
-        <v>0.9818261807859064</v>
+        <v>0.9818550983361185</v>
       </c>
       <c r="E23">
-        <v>0.9673558349728908</v>
+        <v>0.9673891657313857</v>
       </c>
       <c r="F23">
-        <v>0.9497418770399266</v>
+        <v>0.9497751162533246</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027374206176512</v>
+        <v>1.02739027501916</v>
       </c>
       <c r="J23">
-        <v>0.9869151368600736</v>
+        <v>0.9869489157602924</v>
       </c>
       <c r="K23">
-        <v>0.9974450844913156</v>
+        <v>0.9974734148513172</v>
       </c>
       <c r="L23">
-        <v>0.9832743989337911</v>
+        <v>0.9833070258249117</v>
       </c>
       <c r="M23">
-        <v>0.966041607882945</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9660741100755781</v>
+      </c>
+      <c r="N23">
+        <v>0.9917747700565198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9677422474168377</v>
+        <v>0.9677688107004208</v>
       </c>
       <c r="D24">
-        <v>0.992105392520919</v>
+        <v>0.9921270832497001</v>
       </c>
       <c r="E24">
-        <v>0.9784789555067815</v>
+        <v>0.978504210297736</v>
       </c>
       <c r="F24">
-        <v>0.9645329531611605</v>
+        <v>0.9645577937376961</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032284425022717</v>
+        <v>1.032296505703875</v>
       </c>
       <c r="J24">
-        <v>0.9965411826933285</v>
+        <v>0.9965666238341194</v>
       </c>
       <c r="K24">
-        <v>1.006272579378702</v>
+        <v>1.006293881289516</v>
       </c>
       <c r="L24">
-        <v>0.9928948477789669</v>
+        <v>0.992919633270113</v>
       </c>
       <c r="M24">
-        <v>0.9792129163765387</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.979237277697416</v>
+      </c>
+      <c r="N24">
+        <v>0.998535790572822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9817789250085193</v>
+        <v>0.9817963326932715</v>
       </c>
       <c r="D25">
-        <v>1.003245582088617</v>
+        <v>1.003259839336038</v>
       </c>
       <c r="E25">
-        <v>0.990546785257333</v>
+        <v>0.9905637426864051</v>
       </c>
       <c r="F25">
-        <v>0.9805411619912319</v>
+        <v>0.9805575195223178</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037531134390214</v>
+        <v>1.03753909483643</v>
       </c>
       <c r="J25">
-        <v>1.006935455306528</v>
+        <v>1.006952246298451</v>
       </c>
       <c r="K25">
-        <v>1.01579372264478</v>
+        <v>1.01580776039501</v>
       </c>
       <c r="L25">
-        <v>1.003293644468409</v>
+        <v>1.003310332184465</v>
       </c>
       <c r="M25">
-        <v>0.993449253967688</v>
+        <v>0.9934653444592411</v>
+      </c>
+      <c r="N25">
+        <v>1.005828327379688</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9922908260363441</v>
+        <v>1.026932149688889</v>
       </c>
       <c r="D2">
-        <v>1.011599805215062</v>
+        <v>1.043140438758849</v>
       </c>
       <c r="E2">
-        <v>0.9996100896348702</v>
+        <v>1.039060629916637</v>
       </c>
       <c r="F2">
-        <v>0.9925396882392796</v>
+        <v>1.050159938983663</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041406723382102</v>
+        <v>1.053392376073856</v>
       </c>
       <c r="J2">
-        <v>1.014704587778743</v>
+        <v>1.048336117806263</v>
       </c>
       <c r="K2">
-        <v>1.022899867567531</v>
+        <v>1.054029777136118</v>
       </c>
       <c r="L2">
-        <v>1.011074859202075</v>
+        <v>1.050001342801881</v>
       </c>
       <c r="M2">
-        <v>1.00410394490591</v>
+        <v>1.060962047976012</v>
       </c>
       <c r="N2">
-        <v>1.011264197313003</v>
+        <v>1.049824875339381</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9995612867128825</v>
+        <v>1.034919411128703</v>
       </c>
       <c r="D3">
-        <v>1.017381666738632</v>
+        <v>1.049366115423567</v>
       </c>
       <c r="E3">
-        <v>1.005889385489558</v>
+        <v>1.045805172908028</v>
       </c>
       <c r="F3">
-        <v>1.000849913985134</v>
+        <v>1.056902198652763</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044053342486978</v>
+        <v>1.05577837507877</v>
       </c>
       <c r="J3">
-        <v>1.020063918644041</v>
+        <v>1.054501377147404</v>
       </c>
       <c r="K3">
-        <v>1.027796873427748</v>
+        <v>1.059404032471339</v>
       </c>
       <c r="L3">
-        <v>1.016447461079453</v>
+        <v>1.055883685546041</v>
       </c>
       <c r="M3">
-        <v>1.01147193154186</v>
+        <v>1.066855312861252</v>
       </c>
       <c r="N3">
-        <v>1.015017257154514</v>
+        <v>1.055998890055952</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0041190166194</v>
+        <v>1.039932843590227</v>
       </c>
       <c r="D4">
-        <v>1.021007384353496</v>
+        <v>1.053275901141497</v>
       </c>
       <c r="E4">
-        <v>1.009830829286023</v>
+        <v>1.050044054547979</v>
       </c>
       <c r="F4">
-        <v>1.006064253346438</v>
+        <v>1.061139711803564</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045696872171126</v>
+        <v>1.057263444644409</v>
       </c>
       <c r="J4">
-        <v>1.023417941202087</v>
+        <v>1.058367428734393</v>
       </c>
       <c r="K4">
-        <v>1.030858711454661</v>
+        <v>1.062771196657466</v>
       </c>
       <c r="L4">
-        <v>1.019812035333322</v>
+        <v>1.059573800108234</v>
       </c>
       <c r="M4">
-        <v>1.016090035046522</v>
+        <v>1.070552253428368</v>
       </c>
       <c r="N4">
-        <v>1.017363652080985</v>
+        <v>1.059870431879637</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006001958910278</v>
+        <v>1.042005553859501</v>
       </c>
       <c r="D5">
-        <v>1.022505466842426</v>
+        <v>1.054892706256509</v>
       </c>
       <c r="E5">
-        <v>1.01146030622179</v>
+        <v>1.051797751988032</v>
       </c>
       <c r="F5">
-        <v>1.008219691337104</v>
+        <v>1.062892843121277</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046372064692031</v>
+        <v>1.057874334007637</v>
       </c>
       <c r="J5">
-        <v>1.02480218413206</v>
+        <v>1.059964803786324</v>
       </c>
       <c r="K5">
-        <v>1.032121664912498</v>
+        <v>1.064161724066719</v>
       </c>
       <c r="L5">
-        <v>1.021201173651976</v>
+        <v>1.061098818144354</v>
       </c>
       <c r="M5">
-        <v>1.017997776339925</v>
+        <v>1.07208007236648</v>
       </c>
       <c r="N5">
-        <v>1.018331446231575</v>
+        <v>1.061470075387363</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006316225614415</v>
+        <v>1.042351581067366</v>
       </c>
       <c r="D6">
-        <v>1.022755507851692</v>
+        <v>1.0551626415929</v>
       </c>
       <c r="E6">
-        <v>1.011732334244517</v>
+        <v>1.05209059016422</v>
       </c>
       <c r="F6">
-        <v>1.00857951257581</v>
+        <v>1.063185586325296</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046484530305307</v>
+        <v>1.057976135149086</v>
       </c>
       <c r="J6">
-        <v>1.025033132520858</v>
+        <v>1.060231417302121</v>
       </c>
       <c r="K6">
-        <v>1.032332335456956</v>
+        <v>1.064393770219113</v>
       </c>
       <c r="L6">
-        <v>1.021432970646399</v>
+        <v>1.061353374094361</v>
       </c>
       <c r="M6">
-        <v>1.018316174711547</v>
+        <v>1.072335094273545</v>
       </c>
       <c r="N6">
-        <v>1.018492878698355</v>
+        <v>1.061737067524933</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004144304234987</v>
+        <v>1.039960673834148</v>
       </c>
       <c r="D7">
-        <v>1.021027502756923</v>
+        <v>1.053297608612224</v>
       </c>
       <c r="E7">
-        <v>1.009852708472049</v>
+        <v>1.050067596750811</v>
       </c>
       <c r="F7">
-        <v>1.006093195568966</v>
+        <v>1.061163246426616</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045705955029304</v>
+        <v>1.057271659343993</v>
       </c>
       <c r="J7">
-        <v>1.023436537015217</v>
+        <v>1.058388880600021</v>
       </c>
       <c r="K7">
-        <v>1.030875680677215</v>
+        <v>1.062789873549765</v>
       </c>
       <c r="L7">
-        <v>1.019830694767069</v>
+        <v>1.05959427894704</v>
       </c>
       <c r="M7">
-        <v>1.01611565622584</v>
+        <v>1.070572769976595</v>
       </c>
       <c r="N7">
-        <v>1.017376655712829</v>
+        <v>1.059891914209375</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9947795603370535</v>
+        <v>1.029664893573369</v>
       </c>
       <c r="D8">
-        <v>1.013578673301682</v>
+        <v>1.045269967300887</v>
       </c>
       <c r="E8">
-        <v>1.001758425810239</v>
+        <v>1.041366970481046</v>
       </c>
       <c r="F8">
-        <v>0.9953833788201593</v>
+        <v>1.05246547453349</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042315937551891</v>
+        <v>1.054211326579845</v>
       </c>
       <c r="J8">
-        <v>1.016540287893275</v>
+        <v>1.050446231201567</v>
       </c>
       <c r="K8">
-        <v>1.024577801327066</v>
+        <v>1.055869751407581</v>
       </c>
       <c r="L8">
-        <v>1.012914630669846</v>
+        <v>1.052014304095142</v>
       </c>
       <c r="M8">
-        <v>1.006626250465743</v>
+        <v>1.062978743400681</v>
       </c>
       <c r="N8">
-        <v>1.012550201636403</v>
+        <v>1.05193798533774</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9770533404772518</v>
+        <v>1.010229459210638</v>
       </c>
       <c r="D9">
-        <v>0.9994934801543855</v>
+        <v>1.030139016475318</v>
       </c>
       <c r="E9">
-        <v>0.9864820173816351</v>
+        <v>1.024992664021398</v>
       </c>
       <c r="F9">
-        <v>0.9751460552497844</v>
+        <v>1.036097907390972</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035774996078887</v>
+        <v>1.048335589585592</v>
       </c>
       <c r="J9">
-        <v>1.003443264298523</v>
+        <v>1.035426089188834</v>
       </c>
       <c r="K9">
-        <v>1.012594780638717</v>
+        <v>1.042761327678328</v>
       </c>
       <c r="L9">
-        <v>0.9997982892336293</v>
+        <v>1.037692861149305</v>
       </c>
       <c r="M9">
-        <v>0.988655666150263</v>
+        <v>1.048631264161075</v>
       </c>
       <c r="N9">
-        <v>1.003365561337277</v>
+        <v>1.036896513000515</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9642529604064252</v>
+        <v>0.9962336864629392</v>
       </c>
       <c r="D10">
-        <v>0.9893400419805946</v>
+        <v>1.019268370086015</v>
       </c>
       <c r="E10">
-        <v>0.9754874539272579</v>
+        <v>1.013244031831471</v>
       </c>
       <c r="F10">
-        <v>0.9605494121683372</v>
+        <v>1.024356362186899</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030971403411574</v>
+        <v>1.044042367939327</v>
       </c>
       <c r="J10">
-        <v>0.9939603319137237</v>
+        <v>1.024597535853503</v>
       </c>
       <c r="K10">
-        <v>1.003904470097122</v>
+        <v>1.033298230122083</v>
       </c>
       <c r="L10">
-        <v>0.9903138579977092</v>
+        <v>1.027378208828085</v>
       </c>
       <c r="M10">
-        <v>0.9756694638486478</v>
+        <v>1.038299352679675</v>
       </c>
       <c r="N10">
-        <v>0.9967042509716977</v>
+        <v>1.026052581877395</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9584346182660224</v>
+        <v>0.989882038322948</v>
       </c>
       <c r="D11">
-        <v>0.9847310736233641</v>
+        <v>1.014343562760867</v>
       </c>
       <c r="E11">
-        <v>0.9705002447784679</v>
+        <v>1.007924629792182</v>
       </c>
       <c r="F11">
-        <v>0.9539167780972614</v>
+        <v>1.019041048028261</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028769988371369</v>
+        <v>1.042080628787251</v>
       </c>
       <c r="J11">
-        <v>0.9896449668726219</v>
+        <v>1.019681879351968</v>
       </c>
       <c r="K11">
-        <v>0.9999468007809765</v>
+        <v>1.028999956783821</v>
       </c>
       <c r="L11">
-        <v>0.9860007831772447</v>
+        <v>1.022698630764569</v>
       </c>
       <c r="M11">
-        <v>0.9697634252300855</v>
+        <v>1.033612595077901</v>
       </c>
       <c r="N11">
-        <v>0.9936706311032888</v>
+        <v>1.021129944579793</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9562277535517372</v>
+        <v>0.9874744958970066</v>
       </c>
       <c r="D12">
-        <v>0.98298404662858</v>
+        <v>1.012478388993096</v>
       </c>
       <c r="E12">
-        <v>0.9686103252766759</v>
+        <v>1.005910441935108</v>
       </c>
       <c r="F12">
-        <v>0.9514011964553644</v>
+        <v>1.017028573735239</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027932409923725</v>
+        <v>1.041335171951655</v>
       </c>
       <c r="J12">
-        <v>0.9880075330737614</v>
+        <v>1.017818582984992</v>
       </c>
       <c r="K12">
-        <v>0.9984446712535889</v>
+        <v>1.027370364908999</v>
       </c>
       <c r="L12">
-        <v>0.9843646657872299</v>
+        <v>1.02092527652407</v>
       </c>
       <c r="M12">
-        <v>0.9675227086598136</v>
+        <v>1.031836646592837</v>
       </c>
       <c r="N12">
-        <v>0.9925192387059588</v>
+        <v>1.019264002118254</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9567032754213718</v>
+        <v>0.9879931845849356</v>
       </c>
       <c r="D13">
-        <v>0.9833604311568284</v>
+        <v>1.012880154448599</v>
       </c>
       <c r="E13">
-        <v>0.9690174743270989</v>
+        <v>1.006344286911256</v>
       </c>
       <c r="F13">
-        <v>0.9519432358567833</v>
+        <v>1.017462041558091</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028113001486719</v>
+        <v>1.041495857882062</v>
       </c>
       <c r="J13">
-        <v>0.9883603844916429</v>
+        <v>1.018220017417466</v>
       </c>
       <c r="K13">
-        <v>0.9987683843610105</v>
+        <v>1.02772146266215</v>
       </c>
       <c r="L13">
-        <v>0.9847172133303687</v>
+        <v>1.021307312342985</v>
       </c>
       <c r="M13">
-        <v>0.9680055531466419</v>
+        <v>1.032219235088101</v>
       </c>
       <c r="N13">
-        <v>0.9927673660895083</v>
+        <v>1.019666006633667</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9582531566671267</v>
+        <v>0.9896840427295256</v>
       </c>
       <c r="D14">
-        <v>0.9845873985565118</v>
+        <v>1.014190138754659</v>
       </c>
       <c r="E14">
-        <v>0.970344808899915</v>
+        <v>1.007758939840058</v>
       </c>
       <c r="F14">
-        <v>0.9537099303192682</v>
+        <v>1.018875495469061</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028701169586431</v>
+        <v>1.042019359818277</v>
       </c>
       <c r="J14">
-        <v>0.9895103396137608</v>
+        <v>1.019528642581912</v>
       </c>
       <c r="K14">
-        <v>0.9998233063724991</v>
+        <v>1.028865945865087</v>
       </c>
       <c r="L14">
-        <v>0.9858662550805998</v>
+        <v>1.022552781336737</v>
       </c>
       <c r="M14">
-        <v>0.9695791927223972</v>
+        <v>1.033466529545523</v>
       </c>
       <c r="N14">
-        <v>0.9935759714264834</v>
+        <v>1.020976490195948</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9592018997675382</v>
+        <v>0.990719296853743</v>
       </c>
       <c r="D15">
-        <v>0.9853386278388817</v>
+        <v>1.014992406568856</v>
       </c>
       <c r="E15">
-        <v>0.971157550685524</v>
+        <v>1.008625364608752</v>
       </c>
       <c r="F15">
-        <v>0.9547914054777332</v>
+        <v>1.019741208726567</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029060872979228</v>
+        <v>1.04233963986592</v>
       </c>
       <c r="J15">
-        <v>0.9902141914808251</v>
+        <v>1.020329866175364</v>
       </c>
       <c r="K15">
-        <v>1.00046893709946</v>
+        <v>1.029566631415892</v>
       </c>
       <c r="L15">
-        <v>0.9865696066825744</v>
+        <v>1.023315397739769</v>
       </c>
       <c r="M15">
-        <v>0.9705423984998853</v>
+        <v>1.03423028123166</v>
       </c>
       <c r="N15">
-        <v>0.9940708544069872</v>
+        <v>1.021778851618805</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9646329466892838</v>
+        <v>0.996648716953844</v>
       </c>
       <c r="D16">
-        <v>0.9896411903606601</v>
+        <v>1.019590365039514</v>
       </c>
       <c r="E16">
-        <v>0.9758133855978781</v>
+        <v>1.013591888107898</v>
       </c>
       <c r="F16">
-        <v>0.9609826085224515</v>
+        <v>1.024703972057702</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031114811628322</v>
+        <v>1.044170286826119</v>
       </c>
       <c r="J16">
-        <v>0.9942420674387752</v>
+        <v>1.024918719373072</v>
       </c>
       <c r="K16">
-        <v>1.004162793390395</v>
+        <v>1.033579027887995</v>
       </c>
       <c r="L16">
-        <v>0.990595505436813</v>
+        <v>1.027684027889104</v>
       </c>
       <c r="M16">
-        <v>0.9760551023922373</v>
+        <v>1.038605656721018</v>
       </c>
       <c r="N16">
-        <v>0.996902261483982</v>
+        <v>1.026374221514402</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9679630702711018</v>
+        <v>1.000287101128778</v>
       </c>
       <c r="D17">
-        <v>0.9922811156669369</v>
+        <v>1.022414141626004</v>
       </c>
       <c r="E17">
-        <v>0.9786709622331738</v>
+        <v>1.016642811018553</v>
       </c>
       <c r="F17">
-        <v>0.9647792814993957</v>
+        <v>1.027752836599791</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032369601456082</v>
+        <v>1.045290202659497</v>
       </c>
       <c r="J17">
-        <v>0.9967105951011741</v>
+        <v>1.027734250932823</v>
       </c>
       <c r="K17">
-        <v>1.006425852156231</v>
+        <v>1.036040260970266</v>
       </c>
       <c r="L17">
-        <v>0.9930635957517807</v>
+        <v>1.030365191176664</v>
       </c>
       <c r="M17">
-        <v>0.9794343869174595</v>
+        <v>1.041291148316665</v>
       </c>
       <c r="N17">
-        <v>0.9986369494559454</v>
+        <v>1.029193751451914</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9698791920401536</v>
+        <v>1.002381528184656</v>
       </c>
       <c r="D18">
-        <v>0.9938006731536099</v>
+        <v>1.024040428781243</v>
       </c>
       <c r="E18">
-        <v>0.9803161402143001</v>
+        <v>1.018400218051908</v>
       </c>
       <c r="F18">
-        <v>0.9669640702100861</v>
+        <v>1.029509138155533</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033089904727492</v>
+        <v>1.045933616923173</v>
       </c>
       <c r="J18">
-        <v>0.9981304915699449</v>
+        <v>1.029354865187883</v>
       </c>
       <c r="K18">
-        <v>1.007727279998242</v>
+        <v>1.037456706315894</v>
       </c>
       <c r="L18">
-        <v>0.9944835189133459</v>
+        <v>1.031908722528355</v>
       </c>
       <c r="M18">
-        <v>0.9813785000826672</v>
+        <v>1.042837230468927</v>
       </c>
       <c r="N18">
-        <v>0.9996345255317454</v>
+        <v>1.030816667165103</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9705282014928468</v>
+        <v>1.003091087646076</v>
       </c>
       <c r="D19">
-        <v>0.9943154535428614</v>
+        <v>1.02459151636428</v>
       </c>
       <c r="E19">
-        <v>0.9808735361561083</v>
+        <v>1.018995789422747</v>
       </c>
       <c r="F19">
-        <v>0.9677041220527928</v>
+        <v>1.030104347564437</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033333588809816</v>
+        <v>1.046151377870316</v>
       </c>
       <c r="J19">
-        <v>0.9986113417989674</v>
+        <v>1.029903876344793</v>
       </c>
       <c r="K19">
-        <v>1.008167961795801</v>
+        <v>1.037936510275962</v>
       </c>
       <c r="L19">
-        <v>0.9949644253625931</v>
+        <v>1.032431663482891</v>
       </c>
       <c r="M19">
-        <v>0.9820369431804307</v>
+        <v>1.043361044839463</v>
       </c>
       <c r="N19">
-        <v>0.9999723186622194</v>
+        <v>1.031366457980828</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9676085269081738</v>
+        <v>0.9998996408354061</v>
       </c>
       <c r="D20">
-        <v>0.9919999941308578</v>
+        <v>1.022113347390152</v>
       </c>
       <c r="E20">
-        <v>0.9783666284849931</v>
+        <v>1.016317789792546</v>
       </c>
       <c r="F20">
-        <v>0.9643750452000915</v>
+        <v>1.027428026096869</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032236184709659</v>
+        <v>1.045171070493975</v>
       </c>
       <c r="J20">
-        <v>0.9964478302920311</v>
+        <v>1.027434431708294</v>
       </c>
       <c r="K20">
-        <v>1.00618498790588</v>
+        <v>1.03577819425476</v>
       </c>
       <c r="L20">
-        <v>0.9928008485555353</v>
+        <v>1.030079653318219</v>
       </c>
       <c r="M20">
-        <v>0.9790746409943694</v>
+        <v>1.041005143175884</v>
       </c>
       <c r="N20">
-        <v>0.9984523211460182</v>
+        <v>1.028893506449697</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9577980533453447</v>
+        <v>0.9891874984672236</v>
       </c>
       <c r="D21">
-        <v>0.9842270822073788</v>
+        <v>1.013805399155098</v>
       </c>
       <c r="E21">
-        <v>0.9699550056323168</v>
+        <v>1.007343447836998</v>
       </c>
       <c r="F21">
-        <v>0.9531911603343313</v>
+        <v>1.018460350784631</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028528531662674</v>
+        <v>1.041865676461361</v>
       </c>
       <c r="J21">
-        <v>0.9891726862953788</v>
+        <v>1.019144346622748</v>
       </c>
       <c r="K21">
-        <v>0.999513568262137</v>
+        <v>1.028529860703633</v>
       </c>
       <c r="L21">
-        <v>0.9855288576599801</v>
+        <v>1.022187019236057</v>
       </c>
       <c r="M21">
-        <v>0.9691171301477811</v>
+        <v>1.033100227633455</v>
       </c>
       <c r="N21">
-        <v>0.9933385544097695</v>
+        <v>1.020591648492443</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9513629827328437</v>
+        <v>0.9821704368049472</v>
       </c>
       <c r="D22">
-        <v>0.9791352539854309</v>
+        <v>1.008372359653034</v>
       </c>
       <c r="E22">
-        <v>0.9644475490744038</v>
+        <v>1.001477111303747</v>
       </c>
       <c r="F22">
-        <v>0.9458559148861699</v>
+        <v>1.012599361550433</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026081404615198</v>
+        <v>1.039689554769976</v>
       </c>
       <c r="J22">
-        <v>0.9843969491303458</v>
+        <v>1.013713635872853</v>
       </c>
       <c r="K22">
-        <v>0.9951316952237874</v>
+        <v>1.023779763250869</v>
       </c>
       <c r="L22">
-        <v>0.9807578121186891</v>
+        <v>1.017019363013932</v>
       </c>
       <c r="M22">
-        <v>0.9625820965640582</v>
+        <v>1.02792528757785</v>
       </c>
       <c r="N22">
-        <v>0.9899798631548127</v>
+        <v>1.015153225510372</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9548012177043563</v>
+        <v>0.9859187055768734</v>
       </c>
       <c r="D23">
-        <v>0.9818550983361185</v>
+        <v>1.011273552105307</v>
       </c>
       <c r="E23">
-        <v>0.9673891657313857</v>
+        <v>1.004609462616321</v>
       </c>
       <c r="F23">
-        <v>0.9497751162533246</v>
+        <v>1.015728752508409</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02739027501916</v>
+        <v>1.04085293580968</v>
       </c>
       <c r="J23">
-        <v>0.9869489157602924</v>
+        <v>1.016614497723664</v>
       </c>
       <c r="K23">
-        <v>0.9974734148513172</v>
+        <v>1.026317220459326</v>
       </c>
       <c r="L23">
-        <v>0.9833070258249117</v>
+        <v>1.019779446450378</v>
       </c>
       <c r="M23">
-        <v>0.9660741100755781</v>
+        <v>1.030689179841827</v>
       </c>
       <c r="N23">
-        <v>0.9917747700565198</v>
+        <v>1.018058206917744</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9677688107004208</v>
+        <v>1.000074802983723</v>
       </c>
       <c r="D24">
-        <v>0.9921270832497001</v>
+        <v>1.022249327321283</v>
       </c>
       <c r="E24">
-        <v>0.978504210297736</v>
+        <v>1.016464721073153</v>
       </c>
       <c r="F24">
-        <v>0.9645577937376961</v>
+        <v>1.027574861869909</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032296505703875</v>
+        <v>1.045224931419356</v>
       </c>
       <c r="J24">
-        <v>0.9965666238341194</v>
+        <v>1.02756997373112</v>
       </c>
       <c r="K24">
-        <v>1.006293881289516</v>
+        <v>1.035896669890626</v>
       </c>
       <c r="L24">
-        <v>0.992919633270113</v>
+        <v>1.030208738230248</v>
       </c>
       <c r="M24">
-        <v>0.979237277697416</v>
+        <v>1.041134439153918</v>
       </c>
       <c r="N24">
-        <v>0.998535790572822</v>
+        <v>1.029029240957742</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9817963326932715</v>
+        <v>1.015423414155203</v>
       </c>
       <c r="D25">
-        <v>1.003259839336038</v>
+        <v>1.034179070258872</v>
       </c>
       <c r="E25">
-        <v>0.9905637426864051</v>
+        <v>1.029361962943283</v>
       </c>
       <c r="F25">
-        <v>0.9805575195223178</v>
+        <v>1.040465126329688</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03753909483643</v>
+        <v>1.049916765234975</v>
       </c>
       <c r="J25">
-        <v>1.006952246298451</v>
+        <v>1.03944263868106</v>
       </c>
       <c r="K25">
-        <v>1.01580776039501</v>
+        <v>1.046268997475171</v>
       </c>
       <c r="L25">
-        <v>1.003310332184465</v>
+        <v>1.041520951258719</v>
       </c>
       <c r="M25">
-        <v>0.9934653444592411</v>
+        <v>1.052466147500762</v>
       </c>
       <c r="N25">
-        <v>1.005828327379688</v>
+        <v>1.040918766453724</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026932149688889</v>
+        <v>0.9869636283984555</v>
       </c>
       <c r="D2">
-        <v>1.043140438758849</v>
+        <v>1.007680116218681</v>
       </c>
       <c r="E2">
-        <v>1.039060629916637</v>
+        <v>0.9952528200235435</v>
       </c>
       <c r="F2">
-        <v>1.050159938983663</v>
+        <v>0.9635976422579796</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053392376073856</v>
+        <v>1.038225540512008</v>
       </c>
       <c r="J2">
-        <v>1.048336117806263</v>
+        <v>1.00954137152413</v>
       </c>
       <c r="K2">
-        <v>1.054029777136118</v>
+        <v>1.019033481797546</v>
       </c>
       <c r="L2">
-        <v>1.050001342801881</v>
+        <v>1.006778689205443</v>
       </c>
       <c r="M2">
-        <v>1.060962047976012</v>
+        <v>0.9755885463279805</v>
       </c>
       <c r="N2">
-        <v>1.049824875339381</v>
+        <v>1.007243583557522</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034919411128703</v>
+        <v>0.9910746275162312</v>
       </c>
       <c r="D3">
-        <v>1.049366115423567</v>
+        <v>1.010857459864741</v>
       </c>
       <c r="E3">
-        <v>1.045805172908028</v>
+        <v>0.9984861920338338</v>
       </c>
       <c r="F3">
-        <v>1.056902198652763</v>
+        <v>0.9752647505782329</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05577837507877</v>
+        <v>1.03988167478687</v>
       </c>
       <c r="J3">
-        <v>1.054501377147404</v>
+        <v>1.011811600211008</v>
       </c>
       <c r="K3">
-        <v>1.059404032471339</v>
+        <v>1.02135327706833</v>
       </c>
       <c r="L3">
-        <v>1.055883685546041</v>
+        <v>1.009138479030262</v>
       </c>
       <c r="M3">
-        <v>1.066855312861252</v>
+        <v>0.986224222228453</v>
       </c>
       <c r="N3">
-        <v>1.055998890055952</v>
+        <v>1.008000570851094</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039932843590227</v>
+        <v>0.9936761698196739</v>
       </c>
       <c r="D4">
-        <v>1.053275901141497</v>
+        <v>1.012863558470883</v>
       </c>
       <c r="E4">
-        <v>1.050044054547979</v>
+        <v>1.000538122841538</v>
       </c>
       <c r="F4">
-        <v>1.061139711803564</v>
+        <v>0.9824762302801004</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057263444644409</v>
+        <v>1.040902159783</v>
       </c>
       <c r="J4">
-        <v>1.058367428734393</v>
+        <v>1.013243034904495</v>
       </c>
       <c r="K4">
-        <v>1.062771196657466</v>
+        <v>1.022809171688711</v>
       </c>
       <c r="L4">
-        <v>1.059573800108234</v>
+        <v>1.010630057530818</v>
       </c>
       <c r="M4">
-        <v>1.070552253428368</v>
+        <v>0.9927908564513863</v>
       </c>
       <c r="N4">
-        <v>1.059870431879637</v>
+        <v>1.008477799101356</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042005553859501</v>
+        <v>0.9947564454536807</v>
       </c>
       <c r="D5">
-        <v>1.054892706256509</v>
+        <v>1.013695534734466</v>
       </c>
       <c r="E5">
-        <v>1.051797751988032</v>
+        <v>1.001391533204478</v>
       </c>
       <c r="F5">
-        <v>1.062892843121277</v>
+        <v>0.9854339103172826</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057874334007637</v>
+        <v>1.041319552462925</v>
       </c>
       <c r="J5">
-        <v>1.059964803786324</v>
+        <v>1.013836205686571</v>
       </c>
       <c r="K5">
-        <v>1.064161724066719</v>
+        <v>1.023410902216572</v>
       </c>
       <c r="L5">
-        <v>1.061098818144354</v>
+        <v>1.011249013228785</v>
       </c>
       <c r="M5">
-        <v>1.07208007236648</v>
+        <v>0.9954822693847786</v>
       </c>
       <c r="N5">
-        <v>1.061470075387363</v>
+        <v>1.00867553756438</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042351581067366</v>
+        <v>0.9949370585728273</v>
       </c>
       <c r="D6">
-        <v>1.0551626415929</v>
+        <v>1.013834574311158</v>
       </c>
       <c r="E6">
-        <v>1.05209059016422</v>
+        <v>1.00153429535654</v>
       </c>
       <c r="F6">
-        <v>1.063185586325296</v>
+        <v>0.9859263590906348</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057976135149086</v>
+        <v>1.041388969889294</v>
       </c>
       <c r="J6">
-        <v>1.060231417302121</v>
+        <v>1.013935307632817</v>
       </c>
       <c r="K6">
-        <v>1.064393770219113</v>
+        <v>1.023511342947236</v>
       </c>
       <c r="L6">
-        <v>1.061353374094361</v>
+        <v>1.011352473283058</v>
       </c>
       <c r="M6">
-        <v>1.072335094273545</v>
+        <v>0.9959302785306356</v>
       </c>
       <c r="N6">
-        <v>1.061737067524933</v>
+        <v>1.008708572797472</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039960673834148</v>
+        <v>0.9936906564563712</v>
       </c>
       <c r="D7">
-        <v>1.053297608612224</v>
+        <v>1.012874719440638</v>
       </c>
       <c r="E7">
-        <v>1.050067596750811</v>
+        <v>1.000549561856409</v>
       </c>
       <c r="F7">
-        <v>1.061163246426616</v>
+        <v>0.9825160334423882</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057271659343993</v>
+        <v>1.040907781891502</v>
       </c>
       <c r="J7">
-        <v>1.058388880600021</v>
+        <v>1.013250994207419</v>
       </c>
       <c r="K7">
-        <v>1.062789873549765</v>
+        <v>1.022817252017982</v>
       </c>
       <c r="L7">
-        <v>1.05959427894704</v>
+        <v>1.010638359436021</v>
       </c>
       <c r="M7">
-        <v>1.070572769976595</v>
+        <v>0.9928270834758541</v>
       </c>
       <c r="N7">
-        <v>1.059891914209375</v>
+        <v>1.008480452483125</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029664893573369</v>
+        <v>0.9883654633949517</v>
       </c>
       <c r="D8">
-        <v>1.045269967300887</v>
+        <v>1.008764586146622</v>
       </c>
       <c r="E8">
-        <v>1.041366970481046</v>
+        <v>0.9963541590395713</v>
       </c>
       <c r="F8">
-        <v>1.05246547453349</v>
+        <v>0.9676150240673467</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054211326579845</v>
+        <v>1.038796231368817</v>
       </c>
       <c r="J8">
-        <v>1.050446231201567</v>
+        <v>1.010316627411257</v>
       </c>
       <c r="K8">
-        <v>1.055869751407581</v>
+        <v>1.019827130066834</v>
       </c>
       <c r="L8">
-        <v>1.052014304095142</v>
+        <v>1.007583743093528</v>
       </c>
       <c r="M8">
-        <v>1.062978743400681</v>
+        <v>0.9792523055366044</v>
       </c>
       <c r="N8">
-        <v>1.05193798533774</v>
+        <v>1.007502098843059</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010229459210638</v>
+        <v>0.9785030704603087</v>
       </c>
       <c r="D9">
-        <v>1.030139016475318</v>
+        <v>1.001111895561567</v>
       </c>
       <c r="E9">
-        <v>1.024992664021398</v>
+        <v>0.9886315409834899</v>
       </c>
       <c r="F9">
-        <v>1.036097907390972</v>
+        <v>0.9383968920441126</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048335589585592</v>
+        <v>1.034650441857483</v>
       </c>
       <c r="J9">
-        <v>1.035426089188834</v>
+        <v>1.004838466061187</v>
       </c>
       <c r="K9">
-        <v>1.042761327678328</v>
+        <v>1.014186958758098</v>
       </c>
       <c r="L9">
-        <v>1.037692861149305</v>
+        <v>1.001911796308891</v>
       </c>
       <c r="M9">
-        <v>1.048631264161075</v>
+        <v>0.9525753105387158</v>
       </c>
       <c r="N9">
-        <v>1.036896513000515</v>
+        <v>1.005675177549</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9962336864629392</v>
+        <v>0.9715575720908017</v>
       </c>
       <c r="D10">
-        <v>1.019268370086015</v>
+        <v>0.9956872255157397</v>
       </c>
       <c r="E10">
-        <v>1.013244031831471</v>
+        <v>0.9832267535452947</v>
       </c>
       <c r="F10">
-        <v>1.024356362186899</v>
+        <v>0.9162688037998123</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044042367939327</v>
+        <v>1.031543344503942</v>
       </c>
       <c r="J10">
-        <v>1.024597535853503</v>
+        <v>1.000946941511514</v>
       </c>
       <c r="K10">
-        <v>1.033298230122083</v>
+        <v>1.010134787501298</v>
       </c>
       <c r="L10">
-        <v>1.027378208828085</v>
+        <v>0.9979056052376645</v>
       </c>
       <c r="M10">
-        <v>1.038299352679675</v>
+        <v>0.9323344646959941</v>
       </c>
       <c r="N10">
-        <v>1.026052581877395</v>
+        <v>1.004377295899054</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.989882038322948</v>
+        <v>0.9684488395198874</v>
       </c>
       <c r="D11">
-        <v>1.014343562760867</v>
+        <v>0.993248087470783</v>
       </c>
       <c r="E11">
-        <v>1.007924629792182</v>
+        <v>0.9808159375669083</v>
       </c>
       <c r="F11">
-        <v>1.019041048028261</v>
+        <v>0.9058536930539719</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042080628787251</v>
+        <v>1.030099121384911</v>
       </c>
       <c r="J11">
-        <v>1.019681879351968</v>
+        <v>0.9991957503737309</v>
       </c>
       <c r="K11">
-        <v>1.028999956783821</v>
+        <v>1.008298468247345</v>
       </c>
       <c r="L11">
-        <v>1.022698630764569</v>
+        <v>0.9961089380164733</v>
       </c>
       <c r="M11">
-        <v>1.033612595077901</v>
+        <v>0.9227999449017671</v>
       </c>
       <c r="N11">
-        <v>1.021129944579793</v>
+        <v>1.003793278482024</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9874744958970066</v>
+        <v>0.9672775018527782</v>
       </c>
       <c r="D12">
-        <v>1.012478388993096</v>
+        <v>0.9923270378843672</v>
       </c>
       <c r="E12">
-        <v>1.005910441935108</v>
+        <v>0.9799088305011178</v>
       </c>
       <c r="F12">
-        <v>1.017028573735239</v>
+        <v>0.9018360340085998</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041335171951655</v>
+        <v>1.029545847702481</v>
       </c>
       <c r="J12">
-        <v>1.017818582984992</v>
+        <v>0.9985343329485239</v>
       </c>
       <c r="K12">
-        <v>1.027370364908999</v>
+        <v>1.00760273107302</v>
       </c>
       <c r="L12">
-        <v>1.02092527652407</v>
+        <v>0.9954313406658386</v>
       </c>
       <c r="M12">
-        <v>1.031836646592837</v>
+        <v>0.9191209611884255</v>
       </c>
       <c r="N12">
-        <v>1.019264002118254</v>
+        <v>1.003572707437634</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9879931845849356</v>
+        <v>0.9675295352208807</v>
       </c>
       <c r="D13">
-        <v>1.012880154448599</v>
+        <v>0.9925253148812122</v>
       </c>
       <c r="E13">
-        <v>1.006344286911256</v>
+        <v>0.9801039529862761</v>
       </c>
       <c r="F13">
-        <v>1.017462041558091</v>
+        <v>0.9027050384898687</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041495857882062</v>
+        <v>1.029665325877778</v>
       </c>
       <c r="J13">
-        <v>1.018220017417466</v>
+        <v>0.9986767234317341</v>
       </c>
       <c r="K13">
-        <v>1.02772146266215</v>
+        <v>1.007752612395983</v>
       </c>
       <c r="L13">
-        <v>1.021307312342985</v>
+        <v>0.9955771679526733</v>
       </c>
       <c r="M13">
-        <v>1.032219235088101</v>
+        <v>0.9199167544919193</v>
       </c>
       <c r="N13">
-        <v>1.019666006633667</v>
+        <v>1.003620191615983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9896840427295256</v>
+        <v>0.9683523644373123</v>
       </c>
       <c r="D14">
-        <v>1.014190138754659</v>
+        <v>0.9931722700526954</v>
       </c>
       <c r="E14">
-        <v>1.007758939840058</v>
+        <v>0.9807411996651113</v>
       </c>
       <c r="F14">
-        <v>1.018875495469061</v>
+        <v>0.9055247948828021</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042019359818277</v>
+        <v>1.030053744212126</v>
       </c>
       <c r="J14">
-        <v>1.019528642581912</v>
+        <v>0.9991413074075368</v>
       </c>
       <c r="K14">
-        <v>1.028865945865087</v>
+        <v>1.00824124594042</v>
       </c>
       <c r="L14">
-        <v>1.022552781336737</v>
+        <v>0.9960531425122271</v>
       </c>
       <c r="M14">
-        <v>1.033466529545523</v>
+        <v>0.9224987912711193</v>
       </c>
       <c r="N14">
-        <v>1.020976490195948</v>
+        <v>1.003775122480764</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.990719296853743</v>
+        <v>0.9688570883137296</v>
       </c>
       <c r="D15">
-        <v>1.014992406568856</v>
+        <v>0.9935688361837566</v>
       </c>
       <c r="E15">
-        <v>1.008625364608752</v>
+        <v>0.9811322536957794</v>
       </c>
       <c r="F15">
-        <v>1.019741208726567</v>
+        <v>0.9072415626827691</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04233963986592</v>
+        <v>1.030290763798644</v>
       </c>
       <c r="J15">
-        <v>1.020329866175364</v>
+        <v>0.9994260681283519</v>
       </c>
       <c r="K15">
-        <v>1.029566631415892</v>
+        <v>1.008540454084495</v>
       </c>
       <c r="L15">
-        <v>1.023315397739769</v>
+        <v>0.9963450186297651</v>
       </c>
       <c r="M15">
-        <v>1.03423028123166</v>
+        <v>0.9240706993709571</v>
       </c>
       <c r="N15">
-        <v>1.021778851618805</v>
+        <v>1.003870086806759</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.996648716953844</v>
+        <v>0.9717616411135153</v>
       </c>
       <c r="D16">
-        <v>1.019590365039514</v>
+        <v>0.9958470827793908</v>
       </c>
       <c r="E16">
-        <v>1.013591888107898</v>
+        <v>0.9833851828639339</v>
       </c>
       <c r="F16">
-        <v>1.024703972057702</v>
+        <v>0.9169405783534185</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044170286826119</v>
+        <v>1.03163695353924</v>
       </c>
       <c r="J16">
-        <v>1.024918719373072</v>
+        <v>1.00106168767259</v>
       </c>
       <c r="K16">
-        <v>1.033579027887995</v>
+        <v>1.010254826900165</v>
       </c>
       <c r="L16">
-        <v>1.027684027889104</v>
+        <v>0.998023464160957</v>
       </c>
       <c r="M16">
-        <v>1.038605656721018</v>
+        <v>0.9329492955413347</v>
       </c>
       <c r="N16">
-        <v>1.026374221514402</v>
+        <v>1.004415564489749</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000287101128778</v>
+        <v>0.9735555664356264</v>
       </c>
       <c r="D17">
-        <v>1.022414141626004</v>
+        <v>0.9972510631119192</v>
       </c>
       <c r="E17">
-        <v>1.016642811018553</v>
+        <v>0.984778845965675</v>
       </c>
       <c r="F17">
-        <v>1.027752836599791</v>
+        <v>0.9227865529123581</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045290202659497</v>
+        <v>1.032453682512664</v>
       </c>
       <c r="J17">
-        <v>1.027734250932823</v>
+        <v>1.002069315865952</v>
       </c>
       <c r="K17">
-        <v>1.036040260970266</v>
+        <v>1.011307463438324</v>
       </c>
       <c r="L17">
-        <v>1.030365191176664</v>
+        <v>0.9990591265520787</v>
       </c>
       <c r="M17">
-        <v>1.041291148316665</v>
+        <v>0.9382988939316177</v>
       </c>
       <c r="N17">
-        <v>1.029193751451914</v>
+        <v>1.004751619097991</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002381528184656</v>
+        <v>0.9745922668804851</v>
       </c>
       <c r="D18">
-        <v>1.024040428781243</v>
+        <v>0.9980613923826285</v>
       </c>
       <c r="E18">
-        <v>1.018400218051908</v>
+        <v>0.9855850223688322</v>
       </c>
       <c r="F18">
-        <v>1.029509138155533</v>
+        <v>0.9261178948166747</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045933616923173</v>
+        <v>1.032920687823656</v>
       </c>
       <c r="J18">
-        <v>1.029354865187883</v>
+        <v>1.002650745688984</v>
       </c>
       <c r="K18">
-        <v>1.037456706315894</v>
+        <v>1.011913672833484</v>
       </c>
       <c r="L18">
-        <v>1.031908722528355</v>
+        <v>0.9996573043371348</v>
       </c>
       <c r="M18">
-        <v>1.042837230468927</v>
+        <v>0.941346660014421</v>
       </c>
       <c r="N18">
-        <v>1.030816667165103</v>
+        <v>1.004945534617609</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003091087646076</v>
+        <v>0.974944153695972</v>
       </c>
       <c r="D19">
-        <v>1.02459151636428</v>
+        <v>0.9983362767891034</v>
       </c>
       <c r="E19">
-        <v>1.018995789422747</v>
+        <v>0.9858587951531883</v>
       </c>
       <c r="F19">
-        <v>1.030104347564437</v>
+        <v>0.9272410970289058</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046151377870316</v>
+        <v>1.033078385672499</v>
       </c>
       <c r="J19">
-        <v>1.029903876344793</v>
+        <v>1.002847956370195</v>
       </c>
       <c r="K19">
-        <v>1.037936510275962</v>
+        <v>1.012119092193607</v>
       </c>
       <c r="L19">
-        <v>1.032431663482891</v>
+        <v>0.9998602906205323</v>
       </c>
       <c r="M19">
-        <v>1.043361044839463</v>
+        <v>0.9423741265018631</v>
       </c>
       <c r="N19">
-        <v>1.031366457980828</v>
+        <v>1.005011307613132</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9998996408354061</v>
+        <v>0.973364104267138</v>
       </c>
       <c r="D20">
-        <v>1.022113347390152</v>
+        <v>0.9971013273597035</v>
       </c>
       <c r="E20">
-        <v>1.016317789792546</v>
+        <v>0.9846300213352515</v>
       </c>
       <c r="F20">
-        <v>1.027428026096869</v>
+        <v>0.9221676073256518</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045171070493975</v>
+        <v>1.03236703797168</v>
       </c>
       <c r="J20">
-        <v>1.027434431708294</v>
+        <v>1.001961865404897</v>
       </c>
       <c r="K20">
-        <v>1.03577819425476</v>
+        <v>1.011195338649933</v>
       </c>
       <c r="L20">
-        <v>1.030079653318219</v>
+        <v>0.9989486267801782</v>
       </c>
       <c r="M20">
-        <v>1.041005143175884</v>
+        <v>0.9377325761647253</v>
       </c>
       <c r="N20">
-        <v>1.028893506449697</v>
+        <v>1.004715782938687</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9891874984672236</v>
+        <v>0.9681105330679262</v>
       </c>
       <c r="D21">
-        <v>1.013805399155098</v>
+        <v>0.9929821869814089</v>
       </c>
       <c r="E21">
-        <v>1.007343447836998</v>
+        <v>0.9805538766326193</v>
       </c>
       <c r="F21">
-        <v>1.018460350784631</v>
+        <v>0.9046987869864255</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041865676461361</v>
+        <v>1.029939847747876</v>
       </c>
       <c r="J21">
-        <v>1.019144346622748</v>
+        <v>0.9990048104978487</v>
       </c>
       <c r="K21">
-        <v>1.028529860703633</v>
+        <v>1.008097744988372</v>
       </c>
       <c r="L21">
-        <v>1.022187019236057</v>
+        <v>0.9959132709041336</v>
       </c>
       <c r="M21">
-        <v>1.033100227633455</v>
+        <v>0.9217424464139807</v>
       </c>
       <c r="N21">
-        <v>1.020591648492443</v>
+        <v>1.003729602763898</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9821704368049472</v>
+        <v>0.9647103493548057</v>
       </c>
       <c r="D22">
-        <v>1.008372359653034</v>
+        <v>0.9903042407994398</v>
       </c>
       <c r="E22">
-        <v>1.001477111303747</v>
+        <v>0.9779231063782207</v>
       </c>
       <c r="F22">
-        <v>1.012599361550433</v>
+        <v>0.8928356983061724</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039689554769976</v>
+        <v>1.028315008853813</v>
       </c>
       <c r="J22">
-        <v>1.013713635872853</v>
+        <v>0.9970815642177389</v>
       </c>
       <c r="K22">
-        <v>1.023779763250869</v>
+        <v>1.006070250996382</v>
       </c>
       <c r="L22">
-        <v>1.017019363013932</v>
+        <v>0.9939449746898535</v>
       </c>
       <c r="M22">
-        <v>1.02792528757785</v>
+        <v>0.9108776278553273</v>
       </c>
       <c r="N22">
-        <v>1.015153225510372</v>
+        <v>1.003088259334601</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9859187055768734</v>
+        <v>0.9665225971568034</v>
       </c>
       <c r="D23">
-        <v>1.011273552105307</v>
+        <v>0.9917328198598795</v>
       </c>
       <c r="E23">
-        <v>1.004609462616321</v>
+        <v>0.9793245739999488</v>
       </c>
       <c r="F23">
-        <v>1.015728752508409</v>
+        <v>0.8992178834454847</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04085293580968</v>
+        <v>1.029186543669723</v>
       </c>
       <c r="J23">
-        <v>1.016614497723664</v>
+        <v>0.9981075868710649</v>
       </c>
       <c r="K23">
-        <v>1.026317220459326</v>
+        <v>1.007153194440742</v>
       </c>
       <c r="L23">
-        <v>1.019779446450378</v>
+        <v>0.9949944475934041</v>
       </c>
       <c r="M23">
-        <v>1.030689179841827</v>
+        <v>0.9167232466234002</v>
       </c>
       <c r="N23">
-        <v>1.018058206917744</v>
+        <v>1.003430398644006</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000074802983723</v>
+        <v>0.9734506475486382</v>
       </c>
       <c r="D24">
-        <v>1.022249327321283</v>
+        <v>0.9971690129347752</v>
       </c>
       <c r="E24">
-        <v>1.016464721073153</v>
+        <v>0.9846972894836669</v>
       </c>
       <c r="F24">
-        <v>1.027574861869909</v>
+        <v>0.9224475231103851</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045224931419356</v>
+        <v>1.03240621775045</v>
       </c>
       <c r="J24">
-        <v>1.02756997373112</v>
+        <v>1.002010437047031</v>
       </c>
       <c r="K24">
-        <v>1.035896669890626</v>
+        <v>1.011246026945374</v>
       </c>
       <c r="L24">
-        <v>1.030208738230248</v>
+        <v>0.9989985750567989</v>
       </c>
       <c r="M24">
-        <v>1.041134439153918</v>
+        <v>0.9379886934582562</v>
       </c>
       <c r="N24">
-        <v>1.029029240957742</v>
+        <v>1.004731982220449</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015423414155203</v>
+        <v>0.9811140798073531</v>
       </c>
       <c r="D25">
-        <v>1.034179070258872</v>
+        <v>1.003143274793538</v>
       </c>
       <c r="E25">
-        <v>1.029361962943283</v>
+        <v>0.9906703638594907</v>
       </c>
       <c r="F25">
-        <v>1.040465126329688</v>
+        <v>0.9463605207435773</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049916765234975</v>
+        <v>1.035777820418238</v>
       </c>
       <c r="J25">
-        <v>1.03944263868106</v>
+        <v>1.006294186159425</v>
       </c>
       <c r="K25">
-        <v>1.046268997475171</v>
+        <v>1.01569299065348</v>
       </c>
       <c r="L25">
-        <v>1.041520951258719</v>
+        <v>1.003415257786813</v>
       </c>
       <c r="M25">
-        <v>1.052466147500762</v>
+        <v>0.95985280256019</v>
       </c>
       <c r="N25">
-        <v>1.040918766453724</v>
+        <v>1.006160679205013</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9869636283984555</v>
+        <v>1.015247382432802</v>
       </c>
       <c r="D2">
-        <v>1.007680116218681</v>
+        <v>1.022334123525267</v>
       </c>
       <c r="E2">
-        <v>0.9952528200235435</v>
+        <v>1.016933692870021</v>
       </c>
       <c r="F2">
-        <v>0.9635976422579796</v>
+        <v>1.031856290586472</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038225540512008</v>
+        <v>1.028306089089873</v>
       </c>
       <c r="J2">
-        <v>1.00954137152413</v>
+        <v>1.020473989073448</v>
       </c>
       <c r="K2">
-        <v>1.019033481797546</v>
+        <v>1.025168811009132</v>
       </c>
       <c r="L2">
-        <v>1.006778689205443</v>
+        <v>1.019784385885734</v>
       </c>
       <c r="M2">
-        <v>0.9755885463279805</v>
+        <v>1.034663200481764</v>
       </c>
       <c r="N2">
-        <v>1.007243583557522</v>
+        <v>1.010947478118969</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9910746275162312</v>
+        <v>1.016092405973018</v>
       </c>
       <c r="D3">
-        <v>1.010857459864741</v>
+        <v>1.022981784943471</v>
       </c>
       <c r="E3">
-        <v>0.9984861920338338</v>
+        <v>1.017646979328246</v>
       </c>
       <c r="F3">
-        <v>0.9752647505782329</v>
+        <v>1.034017308502867</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03988167478687</v>
+        <v>1.028527679182484</v>
       </c>
       <c r="J3">
-        <v>1.011811600211008</v>
+        <v>1.020954495095058</v>
       </c>
       <c r="K3">
-        <v>1.02135327706833</v>
+        <v>1.025623550988762</v>
       </c>
       <c r="L3">
-        <v>1.009138479030262</v>
+        <v>1.020303413555465</v>
       </c>
       <c r="M3">
-        <v>0.986224222228453</v>
+        <v>1.036629251772402</v>
       </c>
       <c r="N3">
-        <v>1.008000570851094</v>
+        <v>1.011106947497183</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9936761698196739</v>
+        <v>1.016639410432084</v>
       </c>
       <c r="D4">
-        <v>1.012863558470883</v>
+        <v>1.023400517598828</v>
       </c>
       <c r="E4">
-        <v>1.000538122841538</v>
+        <v>1.018109119858229</v>
       </c>
       <c r="F4">
-        <v>0.9824762302801004</v>
+        <v>1.03540940210123</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040902159783</v>
+        <v>1.028668800320863</v>
       </c>
       <c r="J4">
-        <v>1.013243034904495</v>
+        <v>1.021265012290299</v>
       </c>
       <c r="K4">
-        <v>1.022809171688711</v>
+        <v>1.025916768310309</v>
       </c>
       <c r="L4">
-        <v>1.010630057530818</v>
+        <v>1.020639186959376</v>
       </c>
       <c r="M4">
-        <v>0.9927908564513863</v>
+        <v>1.037894861278783</v>
       </c>
       <c r="N4">
-        <v>1.008477799101356</v>
+        <v>1.011209972413646</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9947564454536807</v>
+        <v>1.016869422775242</v>
       </c>
       <c r="D5">
-        <v>1.013695534734466</v>
+        <v>1.023576469327599</v>
       </c>
       <c r="E5">
-        <v>1.001391533204478</v>
+        <v>1.018303545700416</v>
       </c>
       <c r="F5">
-        <v>0.9854339103172826</v>
+        <v>1.035993179428833</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041319552462925</v>
+        <v>1.028727587544695</v>
       </c>
       <c r="J5">
-        <v>1.013836205686571</v>
+        <v>1.021395457159122</v>
       </c>
       <c r="K5">
-        <v>1.023410902216572</v>
+        <v>1.026039790440283</v>
       </c>
       <c r="L5">
-        <v>1.011249013228785</v>
+        <v>1.020780328368545</v>
       </c>
       <c r="M5">
-        <v>0.9954822693847786</v>
+        <v>1.038425383988475</v>
       </c>
       <c r="N5">
-        <v>1.00867553756438</v>
+        <v>1.011253245091017</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9949370585728273</v>
+        <v>1.016908045876056</v>
       </c>
       <c r="D6">
-        <v>1.013834574311158</v>
+        <v>1.023606007493454</v>
       </c>
       <c r="E6">
-        <v>1.00153429535654</v>
+        <v>1.018336198954867</v>
       </c>
       <c r="F6">
-        <v>0.9859263590906348</v>
+        <v>1.036091113601168</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041388969889294</v>
+        <v>1.028737426550235</v>
       </c>
       <c r="J6">
-        <v>1.013935307632817</v>
+        <v>1.021417353756864</v>
       </c>
       <c r="K6">
-        <v>1.023511342947236</v>
+        <v>1.026060431949162</v>
       </c>
       <c r="L6">
-        <v>1.011352473283058</v>
+        <v>1.020804025579256</v>
       </c>
       <c r="M6">
-        <v>0.9959302785306356</v>
+        <v>1.038514371678169</v>
       </c>
       <c r="N6">
-        <v>1.008708572797472</v>
+        <v>1.01126050847379</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9936906564563712</v>
+        <v>1.01664248366586</v>
       </c>
       <c r="D7">
-        <v>1.012874719440638</v>
+        <v>1.023402869002868</v>
       </c>
       <c r="E7">
-        <v>1.000549561856409</v>
+        <v>1.018111717229128</v>
       </c>
       <c r="F7">
-        <v>0.9825160334423882</v>
+        <v>1.035417208255153</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040907781891502</v>
+        <v>1.028669587959034</v>
       </c>
       <c r="J7">
-        <v>1.013250994207419</v>
+        <v>1.021266755680784</v>
       </c>
       <c r="K7">
-        <v>1.022817252017982</v>
+        <v>1.025918413106265</v>
       </c>
       <c r="L7">
-        <v>1.010638359436021</v>
+        <v>1.020641072968059</v>
       </c>
       <c r="M7">
-        <v>0.9928270834758541</v>
+        <v>1.0379019561618</v>
       </c>
       <c r="N7">
-        <v>1.008480452483125</v>
+        <v>1.011210550778666</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9883654633949517</v>
+        <v>1.015532916746044</v>
       </c>
       <c r="D8">
-        <v>1.008764586146622</v>
+        <v>1.022553075555094</v>
       </c>
       <c r="E8">
-        <v>0.9963541590395713</v>
+        <v>1.017174627361715</v>
       </c>
       <c r="F8">
-        <v>0.9676150240673467</v>
+        <v>1.032587926287793</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038796231368817</v>
+        <v>1.028381445895815</v>
       </c>
       <c r="J8">
-        <v>1.010316627411257</v>
+        <v>1.020636461499791</v>
       </c>
       <c r="K8">
-        <v>1.019827130066834</v>
+        <v>1.02532270583182</v>
       </c>
       <c r="L8">
-        <v>1.007583743093528</v>
+        <v>1.019959808406142</v>
       </c>
       <c r="M8">
-        <v>0.9792523055366044</v>
+        <v>1.035329012768968</v>
       </c>
       <c r="N8">
-        <v>1.007502098843059</v>
+        <v>1.011001405110897</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9785030704603087</v>
+        <v>1.013579404269832</v>
       </c>
       <c r="D9">
-        <v>1.001111895561567</v>
+        <v>1.021052978419377</v>
       </c>
       <c r="E9">
-        <v>0.9886315409834899</v>
+        <v>1.015527959550039</v>
       </c>
       <c r="F9">
-        <v>0.9383968920441126</v>
+        <v>1.027553183874125</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034650441857483</v>
+        <v>1.027856303978905</v>
       </c>
       <c r="J9">
-        <v>1.004838466061187</v>
+        <v>1.019522730553897</v>
       </c>
       <c r="K9">
-        <v>1.014186958758098</v>
+        <v>1.02426509887212</v>
       </c>
       <c r="L9">
-        <v>1.001911796308891</v>
+        <v>1.018758798614278</v>
       </c>
       <c r="M9">
-        <v>0.9525753105387158</v>
+        <v>1.030743564721409</v>
       </c>
       <c r="N9">
-        <v>1.005675177549</v>
+        <v>1.01063162409713</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9715575720908017</v>
+        <v>1.012278217817976</v>
       </c>
       <c r="D10">
-        <v>0.9956872255157397</v>
+        <v>1.020051138520598</v>
       </c>
       <c r="E10">
-        <v>0.9832267535452947</v>
+        <v>1.014433322204956</v>
       </c>
       <c r="F10">
-        <v>0.9162688037998123</v>
+        <v>1.024161535245591</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031543344503942</v>
+        <v>1.027494408443692</v>
       </c>
       <c r="J10">
-        <v>1.000946941511514</v>
+        <v>1.018778187175678</v>
       </c>
       <c r="K10">
-        <v>1.010134787501298</v>
+        <v>1.023554705346</v>
       </c>
       <c r="L10">
-        <v>0.9979056052376645</v>
+        <v>1.017957788068788</v>
       </c>
       <c r="M10">
-        <v>0.9323344646959941</v>
+        <v>1.027649971433243</v>
       </c>
       <c r="N10">
-        <v>1.004377295899054</v>
+        <v>1.010384274915562</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9684488395198874</v>
+        <v>1.011715067068287</v>
       </c>
       <c r="D11">
-        <v>0.993248087470783</v>
+        <v>1.019616909999473</v>
       </c>
       <c r="E11">
-        <v>0.9808159375669083</v>
+        <v>1.013960085950809</v>
       </c>
       <c r="F11">
-        <v>0.9058536930539719</v>
+        <v>1.022684106340707</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030099121384911</v>
+        <v>1.027334880618098</v>
       </c>
       <c r="J11">
-        <v>0.9991957503737309</v>
+        <v>1.018455304985018</v>
       </c>
       <c r="K11">
-        <v>1.008298468247345</v>
+        <v>1.023245830259261</v>
       </c>
       <c r="L11">
-        <v>0.9961089380164733</v>
+        <v>1.017610865435497</v>
       </c>
       <c r="M11">
-        <v>0.9227999449017671</v>
+        <v>1.026301286404574</v>
       </c>
       <c r="N11">
-        <v>1.003793278482024</v>
+        <v>1.010276974197593</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9672775018527782</v>
+        <v>1.011505928758305</v>
       </c>
       <c r="D12">
-        <v>0.9923270378843672</v>
+        <v>1.019455554183342</v>
       </c>
       <c r="E12">
-        <v>0.9799088305011178</v>
+        <v>1.013784418085905</v>
       </c>
       <c r="F12">
-        <v>0.9018360340085998</v>
+        <v>1.022133957121293</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029545847702481</v>
+        <v>1.027275198320568</v>
       </c>
       <c r="J12">
-        <v>0.9985343329485239</v>
+        <v>1.018335298526041</v>
       </c>
       <c r="K12">
-        <v>1.00760273107302</v>
+        <v>1.023130908983478</v>
       </c>
       <c r="L12">
-        <v>0.9954313406658386</v>
+        <v>1.017481991158533</v>
       </c>
       <c r="M12">
-        <v>0.9191209611884255</v>
+        <v>1.025798913695859</v>
       </c>
       <c r="N12">
-        <v>1.003572707437634</v>
+        <v>1.010237088377892</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9675295352208807</v>
+        <v>1.011550787780366</v>
       </c>
       <c r="D13">
-        <v>0.9925253148812122</v>
+        <v>1.019490168452623</v>
       </c>
       <c r="E13">
-        <v>0.9801039529862761</v>
+        <v>1.013822094309086</v>
       </c>
       <c r="F13">
-        <v>0.9027050384898687</v>
+        <v>1.022252028489681</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029665325877778</v>
+        <v>1.027288019714433</v>
       </c>
       <c r="J13">
-        <v>0.9986767234317341</v>
+        <v>1.01836104365171</v>
       </c>
       <c r="K13">
-        <v>1.007752612395983</v>
+        <v>1.023155568653339</v>
       </c>
       <c r="L13">
-        <v>0.9955771679526733</v>
+        <v>1.017509635657466</v>
       </c>
       <c r="M13">
-        <v>0.9199167544919193</v>
+        <v>1.025906738817935</v>
       </c>
       <c r="N13">
-        <v>1.003620191615983</v>
+        <v>1.010245645358754</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9683523644373123</v>
+        <v>1.011697778794135</v>
       </c>
       <c r="D14">
-        <v>0.9931722700526954</v>
+        <v>1.019603573584018</v>
       </c>
       <c r="E14">
-        <v>0.9807411996651113</v>
+        <v>1.013945562878505</v>
       </c>
       <c r="F14">
-        <v>0.9055247948828021</v>
+        <v>1.022638658946511</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030053744212126</v>
+        <v>1.027329955975319</v>
       </c>
       <c r="J14">
-        <v>0.9991413074075368</v>
+        <v>1.018445386716075</v>
       </c>
       <c r="K14">
-        <v>1.00824124594042</v>
+        <v>1.023236334736653</v>
       </c>
       <c r="L14">
-        <v>0.9960531425122271</v>
+        <v>1.017600212886354</v>
       </c>
       <c r="M14">
-        <v>0.9224987912711193</v>
+        <v>1.02625978912718</v>
       </c>
       <c r="N14">
-        <v>1.003775122480764</v>
+        <v>1.010273677826105</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9688570883137296</v>
+        <v>1.011788350239771</v>
       </c>
       <c r="D15">
-        <v>0.9935688361837566</v>
+        <v>1.01967343774202</v>
       </c>
       <c r="E15">
-        <v>0.9811322536957794</v>
+        <v>1.014021650951078</v>
       </c>
       <c r="F15">
-        <v>0.9072415626827691</v>
+        <v>1.022876692443285</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030290763798644</v>
+        <v>1.027355737699969</v>
       </c>
       <c r="J15">
-        <v>0.9994260681283519</v>
+        <v>1.018497343502989</v>
       </c>
       <c r="K15">
-        <v>1.008540454084495</v>
+        <v>1.023286072018958</v>
       </c>
       <c r="L15">
-        <v>0.9963450186297651</v>
+        <v>1.017656018953834</v>
       </c>
       <c r="M15">
-        <v>0.9240706993709571</v>
+        <v>1.02647712694808</v>
       </c>
       <c r="N15">
-        <v>1.003870086806759</v>
+        <v>1.010290945638632</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9717616411135153</v>
+        <v>1.012315598013821</v>
       </c>
       <c r="D16">
-        <v>0.9958470827793908</v>
+        <v>1.020079947868775</v>
       </c>
       <c r="E16">
-        <v>0.9833851828639339</v>
+        <v>1.014464745170352</v>
       </c>
       <c r="F16">
-        <v>0.9169405783534185</v>
+        <v>1.024259397984195</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03163695353924</v>
+        <v>1.027504936082336</v>
       </c>
       <c r="J16">
-        <v>1.00106168767259</v>
+        <v>1.018799605478492</v>
       </c>
       <c r="K16">
-        <v>1.010254826900165</v>
+        <v>1.023575177567944</v>
       </c>
       <c r="L16">
-        <v>0.998023464160957</v>
+        <v>1.017980810520012</v>
       </c>
       <c r="M16">
-        <v>0.9329492955413347</v>
+        <v>1.027739283442664</v>
       </c>
       <c r="N16">
-        <v>1.004415564489749</v>
+        <v>1.010391391964921</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9735555664356264</v>
+        <v>1.012646399435196</v>
       </c>
       <c r="D17">
-        <v>0.9972510631119192</v>
+        <v>1.02033482701089</v>
       </c>
       <c r="E17">
-        <v>0.984778845965675</v>
+        <v>1.014742887433655</v>
       </c>
       <c r="F17">
-        <v>0.9227865529123581</v>
+        <v>1.025124341966592</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032453682512664</v>
+        <v>1.027597766516898</v>
       </c>
       <c r="J17">
-        <v>1.002069315865952</v>
+        <v>1.018989075237982</v>
       </c>
       <c r="K17">
-        <v>1.011307463438324</v>
+        <v>1.023756185475695</v>
       </c>
       <c r="L17">
-        <v>0.9990591265520787</v>
+        <v>1.018184522493062</v>
       </c>
       <c r="M17">
-        <v>0.9382988939316177</v>
+        <v>1.028528527529028</v>
       </c>
       <c r="N17">
-        <v>1.004751619097991</v>
+        <v>1.010454346598969</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9745922668804851</v>
+        <v>1.01283937650267</v>
       </c>
       <c r="D18">
-        <v>0.9980613923826285</v>
+        <v>1.020483452685212</v>
       </c>
       <c r="E18">
-        <v>0.9855850223688322</v>
+        <v>1.014905195331953</v>
       </c>
       <c r="F18">
-        <v>0.9261178948166747</v>
+        <v>1.025628000693771</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032920687823656</v>
+        <v>1.027651640550235</v>
       </c>
       <c r="J18">
-        <v>1.002650745688984</v>
+        <v>1.019099542469492</v>
       </c>
       <c r="K18">
-        <v>1.011913672833484</v>
+        <v>1.023861641826771</v>
       </c>
       <c r="L18">
-        <v>0.9996573043371348</v>
+        <v>1.018303336529967</v>
       </c>
       <c r="M18">
-        <v>0.941346660014421</v>
+        <v>1.028988001102647</v>
       </c>
       <c r="N18">
-        <v>1.004945534617609</v>
+        <v>1.010491047973967</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.974944153695972</v>
+        <v>1.012905181133329</v>
       </c>
       <c r="D19">
-        <v>0.9983362767891034</v>
+        <v>1.020534123244727</v>
       </c>
       <c r="E19">
-        <v>0.9858587951531883</v>
+        <v>1.014960550360991</v>
       </c>
       <c r="F19">
-        <v>0.9272410970289058</v>
+        <v>1.025799592614542</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033078385672499</v>
+        <v>1.02766996406659</v>
       </c>
       <c r="J19">
-        <v>1.002847956370195</v>
+        <v>1.01913720092217</v>
       </c>
       <c r="K19">
-        <v>1.012119092193607</v>
+        <v>1.023897578953834</v>
       </c>
       <c r="L19">
-        <v>0.9998602906205323</v>
+        <v>1.018343847730852</v>
       </c>
       <c r="M19">
-        <v>0.9423741265018631</v>
+        <v>1.029144521739542</v>
       </c>
       <c r="N19">
-        <v>1.005011307613132</v>
+        <v>1.010503558971004</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.973364104267138</v>
+        <v>1.012610904862904</v>
       </c>
       <c r="D20">
-        <v>0.9971013273597035</v>
+        <v>1.020307485134607</v>
       </c>
       <c r="E20">
-        <v>0.9846300213352515</v>
+        <v>1.014713037926391</v>
       </c>
       <c r="F20">
-        <v>0.9221676073256518</v>
+        <v>1.025031629717029</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03236703797168</v>
+        <v>1.027587834879952</v>
       </c>
       <c r="J20">
-        <v>1.001961865404897</v>
+        <v>1.018968751815846</v>
       </c>
       <c r="K20">
-        <v>1.011195338649933</v>
+        <v>1.023736777714612</v>
       </c>
       <c r="L20">
-        <v>0.9989486267801782</v>
+        <v>1.018162666922247</v>
       </c>
       <c r="M20">
-        <v>0.9377325761647253</v>
+        <v>1.028443940315757</v>
       </c>
       <c r="N20">
-        <v>1.004715782938687</v>
+        <v>1.010447594127414</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9681105330679262</v>
+        <v>1.011654492472644</v>
       </c>
       <c r="D21">
-        <v>0.9929821869814089</v>
+        <v>1.019570180367543</v>
       </c>
       <c r="E21">
-        <v>0.9805538766326193</v>
+        <v>1.013909201333735</v>
       </c>
       <c r="F21">
-        <v>0.9046987869864255</v>
+        <v>1.022524843962841</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029939847747876</v>
+        <v>1.027317618584711</v>
       </c>
       <c r="J21">
-        <v>0.9990048104978487</v>
+        <v>1.018420551818858</v>
       </c>
       <c r="K21">
-        <v>1.008097744988372</v>
+        <v>1.023212556423727</v>
       </c>
       <c r="L21">
-        <v>0.9959132709041336</v>
+        <v>1.017573540473113</v>
       </c>
       <c r="M21">
-        <v>0.9217424464139807</v>
+        <v>1.026155863871265</v>
       </c>
       <c r="N21">
-        <v>1.003729602763898</v>
+        <v>1.01026542377888</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9647103493548057</v>
+        <v>1.011053395038713</v>
       </c>
       <c r="D22">
-        <v>0.9903042407994398</v>
+        <v>1.019106237165387</v>
       </c>
       <c r="E22">
-        <v>0.9779231063782207</v>
+        <v>1.013404452311371</v>
       </c>
       <c r="F22">
-        <v>0.8928356983061724</v>
+        <v>1.020940802259705</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028315008853813</v>
+        <v>1.027145253803936</v>
       </c>
       <c r="J22">
-        <v>0.9970815642177389</v>
+        <v>1.018075450651263</v>
       </c>
       <c r="K22">
-        <v>1.006070250996382</v>
+        <v>1.022881850513488</v>
       </c>
       <c r="L22">
-        <v>0.9939449746898535</v>
+        <v>1.017203065319515</v>
       </c>
       <c r="M22">
-        <v>0.9108776278553273</v>
+        <v>1.024709076201609</v>
       </c>
       <c r="N22">
-        <v>1.003088259334601</v>
+        <v>1.010150715057229</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9665225971568034</v>
+        <v>1.011372025652624</v>
       </c>
       <c r="D23">
-        <v>0.9917328198598795</v>
+        <v>1.019352217399612</v>
       </c>
       <c r="E23">
-        <v>0.9793245739999488</v>
+        <v>1.013671967032815</v>
       </c>
       <c r="F23">
-        <v>0.8992178834454847</v>
+        <v>1.021781297861089</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029186543669723</v>
+        <v>1.027236862419771</v>
       </c>
       <c r="J23">
-        <v>0.9981075868710649</v>
+        <v>1.018258435710095</v>
       </c>
       <c r="K23">
-        <v>1.007153194440742</v>
+        <v>1.023057269102706</v>
       </c>
       <c r="L23">
-        <v>0.9949944475934041</v>
+        <v>1.017399467583127</v>
       </c>
       <c r="M23">
-        <v>0.9167232466234002</v>
+        <v>1.025476834279015</v>
       </c>
       <c r="N23">
-        <v>1.003430398644006</v>
+        <v>1.010211540523017</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9734506475486382</v>
+        <v>1.012626943251823</v>
       </c>
       <c r="D24">
-        <v>0.9971690129347752</v>
+        <v>1.020319839878701</v>
       </c>
       <c r="E24">
-        <v>0.9846972894836669</v>
+        <v>1.014726525411138</v>
       </c>
       <c r="F24">
-        <v>0.9224475231103851</v>
+        <v>1.025073525011963</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03240621775045</v>
+        <v>1.02759232340091</v>
       </c>
       <c r="J24">
-        <v>1.002010437047031</v>
+        <v>1.018977935241863</v>
       </c>
       <c r="K24">
-        <v>1.011246026945374</v>
+        <v>1.02374554762523</v>
       </c>
       <c r="L24">
-        <v>0.9989985750567989</v>
+        <v>1.01817254253808</v>
       </c>
       <c r="M24">
-        <v>0.9379886934582562</v>
+        <v>1.028482164351458</v>
       </c>
       <c r="N24">
-        <v>1.004731982220449</v>
+        <v>1.010450645337456</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9811140798073531</v>
+        <v>1.01408423194487</v>
       </c>
       <c r="D25">
-        <v>1.003143274793538</v>
+        <v>1.021441102825134</v>
       </c>
       <c r="E25">
-        <v>0.9906703638594907</v>
+        <v>1.015953112237939</v>
       </c>
       <c r="F25">
-        <v>0.9463605207435773</v>
+        <v>1.028860826575824</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035777820418238</v>
+        <v>1.027994138010908</v>
       </c>
       <c r="J25">
-        <v>1.006294186159425</v>
+        <v>1.019811019696332</v>
       </c>
       <c r="K25">
-        <v>1.01569299065348</v>
+        <v>1.024539452516558</v>
       </c>
       <c r="L25">
-        <v>1.003415257786813</v>
+        <v>1.019069349427853</v>
       </c>
       <c r="M25">
-        <v>0.95985280256019</v>
+        <v>1.03193532459825</v>
       </c>
       <c r="N25">
-        <v>1.006160679205013</v>
+        <v>1.010727367714823</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015247382432802</v>
+        <v>0.9869636283984551</v>
       </c>
       <c r="D2">
-        <v>1.022334123525267</v>
+        <v>1.00768011621868</v>
       </c>
       <c r="E2">
-        <v>1.016933692870021</v>
+        <v>0.9952528200235431</v>
       </c>
       <c r="F2">
-        <v>1.031856290586472</v>
+        <v>0.9635976422579785</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028306089089873</v>
+        <v>1.038225540512008</v>
       </c>
       <c r="J2">
-        <v>1.020473989073448</v>
+        <v>1.009541371524129</v>
       </c>
       <c r="K2">
-        <v>1.025168811009132</v>
+        <v>1.019033481797546</v>
       </c>
       <c r="L2">
-        <v>1.019784385885734</v>
+        <v>1.006778689205442</v>
       </c>
       <c r="M2">
-        <v>1.034663200481764</v>
+        <v>0.9755885463279795</v>
       </c>
       <c r="N2">
-        <v>1.010947478118969</v>
+        <v>1.007243583557522</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016092405973018</v>
+        <v>0.9910746275162303</v>
       </c>
       <c r="D3">
-        <v>1.022981784943471</v>
+        <v>1.01085745986474</v>
       </c>
       <c r="E3">
-        <v>1.017646979328246</v>
+        <v>0.9984861920338329</v>
       </c>
       <c r="F3">
-        <v>1.034017308502867</v>
+        <v>0.9752647505782319</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028527679182484</v>
+        <v>1.03988167478687</v>
       </c>
       <c r="J3">
-        <v>1.020954495095058</v>
+        <v>1.011811600211007</v>
       </c>
       <c r="K3">
-        <v>1.025623550988762</v>
+        <v>1.02135327706833</v>
       </c>
       <c r="L3">
-        <v>1.020303413555465</v>
+        <v>1.009138479030261</v>
       </c>
       <c r="M3">
-        <v>1.036629251772402</v>
+        <v>0.986224222228452</v>
       </c>
       <c r="N3">
-        <v>1.011106947497183</v>
+        <v>1.008000570851094</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016639410432084</v>
+        <v>0.9936761698196732</v>
       </c>
       <c r="D4">
-        <v>1.023400517598828</v>
+        <v>1.012863558470883</v>
       </c>
       <c r="E4">
-        <v>1.018109119858229</v>
+        <v>1.000538122841537</v>
       </c>
       <c r="F4">
-        <v>1.03540940210123</v>
+        <v>0.9824762302800989</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028668800320863</v>
+        <v>1.040902159782999</v>
       </c>
       <c r="J4">
-        <v>1.021265012290299</v>
+        <v>1.013243034904495</v>
       </c>
       <c r="K4">
-        <v>1.025916768310309</v>
+        <v>1.022809171688711</v>
       </c>
       <c r="L4">
-        <v>1.020639186959376</v>
+        <v>1.010630057530818</v>
       </c>
       <c r="M4">
-        <v>1.037894861278783</v>
+        <v>0.9927908564513849</v>
       </c>
       <c r="N4">
-        <v>1.011209972413646</v>
+        <v>1.008477799101356</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016869422775242</v>
+        <v>0.9947564454536811</v>
       </c>
       <c r="D5">
-        <v>1.023576469327599</v>
+        <v>1.013695534734466</v>
       </c>
       <c r="E5">
-        <v>1.018303545700416</v>
+        <v>1.001391533204478</v>
       </c>
       <c r="F5">
-        <v>1.035993179428833</v>
+        <v>0.9854339103172823</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028727587544695</v>
+        <v>1.041319552462925</v>
       </c>
       <c r="J5">
-        <v>1.021395457159122</v>
+        <v>1.013836205686572</v>
       </c>
       <c r="K5">
-        <v>1.026039790440283</v>
+        <v>1.023410902216573</v>
       </c>
       <c r="L5">
-        <v>1.020780328368545</v>
+        <v>1.011249013228786</v>
       </c>
       <c r="M5">
-        <v>1.038425383988475</v>
+        <v>0.9954822693847782</v>
       </c>
       <c r="N5">
-        <v>1.011253245091017</v>
+        <v>1.00867553756438</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016908045876056</v>
+        <v>0.9949370585728268</v>
       </c>
       <c r="D6">
-        <v>1.023606007493454</v>
+        <v>1.013834574311157</v>
       </c>
       <c r="E6">
-        <v>1.018336198954867</v>
+        <v>1.00153429535654</v>
       </c>
       <c r="F6">
-        <v>1.036091113601168</v>
+        <v>0.9859263590906354</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028737426550235</v>
+        <v>1.041388969889293</v>
       </c>
       <c r="J6">
-        <v>1.021417353756864</v>
+        <v>1.013935307632817</v>
       </c>
       <c r="K6">
-        <v>1.026060431949162</v>
+        <v>1.023511342947235</v>
       </c>
       <c r="L6">
-        <v>1.020804025579256</v>
+        <v>1.011352473283057</v>
       </c>
       <c r="M6">
-        <v>1.038514371678169</v>
+        <v>0.995930278530636</v>
       </c>
       <c r="N6">
-        <v>1.01126050847379</v>
+        <v>1.008708572797472</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01664248366586</v>
+        <v>0.9936906564563713</v>
       </c>
       <c r="D7">
-        <v>1.023402869002868</v>
+        <v>1.012874719440638</v>
       </c>
       <c r="E7">
-        <v>1.018111717229128</v>
+        <v>1.000549561856409</v>
       </c>
       <c r="F7">
-        <v>1.035417208255153</v>
+        <v>0.9825160334423882</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028669587959034</v>
+        <v>1.040907781891502</v>
       </c>
       <c r="J7">
-        <v>1.021266755680784</v>
+        <v>1.013250994207419</v>
       </c>
       <c r="K7">
-        <v>1.025918413106265</v>
+        <v>1.022817252017982</v>
       </c>
       <c r="L7">
-        <v>1.020641072968059</v>
+        <v>1.010638359436021</v>
       </c>
       <c r="M7">
-        <v>1.0379019561618</v>
+        <v>0.9928270834758542</v>
       </c>
       <c r="N7">
-        <v>1.011210550778666</v>
+        <v>1.008480452483125</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015532916746044</v>
+        <v>0.9883654633949516</v>
       </c>
       <c r="D8">
-        <v>1.022553075555094</v>
+        <v>1.008764586146622</v>
       </c>
       <c r="E8">
-        <v>1.017174627361715</v>
+        <v>0.9963541590395708</v>
       </c>
       <c r="F8">
-        <v>1.032587926287793</v>
+        <v>0.9676150240673468</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028381445895815</v>
+        <v>1.038796231368817</v>
       </c>
       <c r="J8">
-        <v>1.020636461499791</v>
+        <v>1.010316627411257</v>
       </c>
       <c r="K8">
-        <v>1.02532270583182</v>
+        <v>1.019827130066834</v>
       </c>
       <c r="L8">
-        <v>1.019959808406142</v>
+        <v>1.007583743093527</v>
       </c>
       <c r="M8">
-        <v>1.035329012768968</v>
+        <v>0.9792523055366045</v>
       </c>
       <c r="N8">
-        <v>1.011001405110897</v>
+        <v>1.007502098843059</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013579404269832</v>
+        <v>0.9785030704603087</v>
       </c>
       <c r="D9">
-        <v>1.021052978419377</v>
+        <v>1.001111895561567</v>
       </c>
       <c r="E9">
-        <v>1.015527959550039</v>
+        <v>0.9886315409834899</v>
       </c>
       <c r="F9">
-        <v>1.027553183874125</v>
+        <v>0.9383968920441119</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027856303978905</v>
+        <v>1.034650441857483</v>
       </c>
       <c r="J9">
-        <v>1.019522730553897</v>
+        <v>1.004838466061187</v>
       </c>
       <c r="K9">
-        <v>1.02426509887212</v>
+        <v>1.014186958758098</v>
       </c>
       <c r="L9">
-        <v>1.018758798614278</v>
+        <v>1.001911796308891</v>
       </c>
       <c r="M9">
-        <v>1.030743564721409</v>
+        <v>0.9525753105387149</v>
       </c>
       <c r="N9">
-        <v>1.01063162409713</v>
+        <v>1.005675177549</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012278217817976</v>
+        <v>0.9715575720908016</v>
       </c>
       <c r="D10">
-        <v>1.020051138520598</v>
+        <v>0.9956872255157396</v>
       </c>
       <c r="E10">
-        <v>1.014433322204956</v>
+        <v>0.9832267535452944</v>
       </c>
       <c r="F10">
-        <v>1.024161535245591</v>
+        <v>0.9162688037998125</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027494408443692</v>
+        <v>1.031543344503942</v>
       </c>
       <c r="J10">
-        <v>1.018778187175678</v>
+        <v>1.000946941511513</v>
       </c>
       <c r="K10">
-        <v>1.023554705346</v>
+        <v>1.010134787501298</v>
       </c>
       <c r="L10">
-        <v>1.017957788068788</v>
+        <v>0.9979056052376643</v>
       </c>
       <c r="M10">
-        <v>1.027649971433243</v>
+        <v>0.9323344646959941</v>
       </c>
       <c r="N10">
-        <v>1.010384274915562</v>
+        <v>1.004377295899054</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011715067068287</v>
+        <v>0.9684488395198868</v>
       </c>
       <c r="D11">
-        <v>1.019616909999473</v>
+        <v>0.9932480874707824</v>
       </c>
       <c r="E11">
-        <v>1.013960085950809</v>
+        <v>0.980815937566908</v>
       </c>
       <c r="F11">
-        <v>1.022684106340707</v>
+        <v>0.9058536930539708</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027334880618098</v>
+        <v>1.030099121384911</v>
       </c>
       <c r="J11">
-        <v>1.018455304985018</v>
+        <v>0.9991957503737303</v>
       </c>
       <c r="K11">
-        <v>1.023245830259261</v>
+        <v>1.008298468247345</v>
       </c>
       <c r="L11">
-        <v>1.017610865435497</v>
+        <v>0.9961089380164729</v>
       </c>
       <c r="M11">
-        <v>1.026301286404574</v>
+        <v>0.9227999449017663</v>
       </c>
       <c r="N11">
-        <v>1.010276974197593</v>
+        <v>1.003793278482024</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011505928758305</v>
+        <v>0.9672775018527782</v>
       </c>
       <c r="D12">
-        <v>1.019455554183342</v>
+        <v>0.9923270378843672</v>
       </c>
       <c r="E12">
-        <v>1.013784418085905</v>
+        <v>0.9799088305011178</v>
       </c>
       <c r="F12">
-        <v>1.022133957121293</v>
+        <v>0.9018360340086006</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027275198320568</v>
+        <v>1.029545847702481</v>
       </c>
       <c r="J12">
-        <v>1.018335298526041</v>
+        <v>0.998534332948524</v>
       </c>
       <c r="K12">
-        <v>1.023130908983478</v>
+        <v>1.00760273107302</v>
       </c>
       <c r="L12">
-        <v>1.017481991158533</v>
+        <v>0.9954313406658384</v>
       </c>
       <c r="M12">
-        <v>1.025798913695859</v>
+        <v>0.9191209611884261</v>
       </c>
       <c r="N12">
-        <v>1.010237088377892</v>
+        <v>1.003572707437634</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011550787780366</v>
+        <v>0.9675295352208809</v>
       </c>
       <c r="D13">
-        <v>1.019490168452623</v>
+        <v>0.9925253148812121</v>
       </c>
       <c r="E13">
-        <v>1.013822094309086</v>
+        <v>0.9801039529862761</v>
       </c>
       <c r="F13">
-        <v>1.022252028489681</v>
+        <v>0.9027050384898679</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027288019714433</v>
+        <v>1.029665325877778</v>
       </c>
       <c r="J13">
-        <v>1.01836104365171</v>
+        <v>0.9986767234317342</v>
       </c>
       <c r="K13">
-        <v>1.023155568653339</v>
+        <v>1.007752612395983</v>
       </c>
       <c r="L13">
-        <v>1.017509635657466</v>
+        <v>0.9955771679526733</v>
       </c>
       <c r="M13">
-        <v>1.025906738817935</v>
+        <v>0.9199167544919185</v>
       </c>
       <c r="N13">
-        <v>1.010245645358754</v>
+        <v>1.003620191615983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011697778794135</v>
+        <v>0.9683523644373128</v>
       </c>
       <c r="D14">
-        <v>1.019603573584018</v>
+        <v>0.9931722700526955</v>
       </c>
       <c r="E14">
-        <v>1.013945562878505</v>
+        <v>0.9807411996651115</v>
       </c>
       <c r="F14">
-        <v>1.022638658946511</v>
+        <v>0.9055247948828009</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027329955975319</v>
+        <v>1.030053744212126</v>
       </c>
       <c r="J14">
-        <v>1.018445386716075</v>
+        <v>0.9991413074075371</v>
       </c>
       <c r="K14">
-        <v>1.023236334736653</v>
+        <v>1.00824124594042</v>
       </c>
       <c r="L14">
-        <v>1.017600212886354</v>
+        <v>0.9960531425122273</v>
       </c>
       <c r="M14">
-        <v>1.02625978912718</v>
+        <v>0.9224987912711181</v>
       </c>
       <c r="N14">
-        <v>1.010273677826105</v>
+        <v>1.003775122480764</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011788350239771</v>
+        <v>0.9688570883137296</v>
       </c>
       <c r="D15">
-        <v>1.01967343774202</v>
+        <v>0.9935688361837566</v>
       </c>
       <c r="E15">
-        <v>1.014021650951078</v>
+        <v>0.9811322536957794</v>
       </c>
       <c r="F15">
-        <v>1.022876692443285</v>
+        <v>0.9072415626827689</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027355737699969</v>
+        <v>1.030290763798644</v>
       </c>
       <c r="J15">
-        <v>1.018497343502989</v>
+        <v>0.9994260681283521</v>
       </c>
       <c r="K15">
-        <v>1.023286072018958</v>
+        <v>1.008540454084495</v>
       </c>
       <c r="L15">
-        <v>1.017656018953834</v>
+        <v>0.996345018629765</v>
       </c>
       <c r="M15">
-        <v>1.02647712694808</v>
+        <v>0.9240706993709569</v>
       </c>
       <c r="N15">
-        <v>1.010290945638632</v>
+        <v>1.003870086806759</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012315598013821</v>
+        <v>0.9717616411135153</v>
       </c>
       <c r="D16">
-        <v>1.020079947868775</v>
+        <v>0.9958470827793906</v>
       </c>
       <c r="E16">
-        <v>1.014464745170352</v>
+        <v>0.9833851828639337</v>
       </c>
       <c r="F16">
-        <v>1.024259397984195</v>
+        <v>0.916940578353418</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027504936082336</v>
+        <v>1.031636953539241</v>
       </c>
       <c r="J16">
-        <v>1.018799605478492</v>
+        <v>1.00106168767259</v>
       </c>
       <c r="K16">
-        <v>1.023575177567944</v>
+        <v>1.010254826900165</v>
       </c>
       <c r="L16">
-        <v>1.017980810520012</v>
+        <v>0.9980234641609567</v>
       </c>
       <c r="M16">
-        <v>1.027739283442664</v>
+        <v>0.9329492955413343</v>
       </c>
       <c r="N16">
-        <v>1.010391391964921</v>
+        <v>1.004415564489749</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012646399435196</v>
+        <v>0.9735555664356261</v>
       </c>
       <c r="D17">
-        <v>1.02033482701089</v>
+        <v>0.997251063111919</v>
       </c>
       <c r="E17">
-        <v>1.014742887433655</v>
+        <v>0.9847788459656744</v>
       </c>
       <c r="F17">
-        <v>1.025124341966592</v>
+        <v>0.922786552912357</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027597766516898</v>
+        <v>1.032453682512664</v>
       </c>
       <c r="J17">
-        <v>1.018989075237982</v>
+        <v>1.002069315865951</v>
       </c>
       <c r="K17">
-        <v>1.023756185475695</v>
+        <v>1.011307463438324</v>
       </c>
       <c r="L17">
-        <v>1.018184522493062</v>
+        <v>0.9990591265520783</v>
       </c>
       <c r="M17">
-        <v>1.028528527529028</v>
+        <v>0.9382988939316167</v>
       </c>
       <c r="N17">
-        <v>1.010454346598969</v>
+        <v>1.004751619097991</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01283937650267</v>
+        <v>0.9745922668804852</v>
       </c>
       <c r="D18">
-        <v>1.020483452685212</v>
+        <v>0.9980613923826284</v>
       </c>
       <c r="E18">
-        <v>1.014905195331953</v>
+        <v>0.9855850223688323</v>
       </c>
       <c r="F18">
-        <v>1.025628000693771</v>
+        <v>0.9261178948166745</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027651640550235</v>
+        <v>1.032920687823656</v>
       </c>
       <c r="J18">
-        <v>1.019099542469492</v>
+        <v>1.002650745688984</v>
       </c>
       <c r="K18">
-        <v>1.023861641826771</v>
+        <v>1.011913672833484</v>
       </c>
       <c r="L18">
-        <v>1.018303336529967</v>
+        <v>0.9996573043371347</v>
       </c>
       <c r="M18">
-        <v>1.028988001102647</v>
+        <v>0.9413466600144206</v>
       </c>
       <c r="N18">
-        <v>1.010491047973967</v>
+        <v>1.004945534617609</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012905181133329</v>
+        <v>0.9749441536959716</v>
       </c>
       <c r="D19">
-        <v>1.020534123244727</v>
+        <v>0.9983362767891033</v>
       </c>
       <c r="E19">
-        <v>1.014960550360991</v>
+        <v>0.9858587951531882</v>
       </c>
       <c r="F19">
-        <v>1.025799592614542</v>
+        <v>0.9272410970289059</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02766996406659</v>
+        <v>1.033078385672499</v>
       </c>
       <c r="J19">
-        <v>1.01913720092217</v>
+        <v>1.002847956370194</v>
       </c>
       <c r="K19">
-        <v>1.023897578953834</v>
+        <v>1.012119092193606</v>
       </c>
       <c r="L19">
-        <v>1.018343847730852</v>
+        <v>0.9998602906205319</v>
       </c>
       <c r="M19">
-        <v>1.029144521739542</v>
+        <v>0.9423741265018634</v>
       </c>
       <c r="N19">
-        <v>1.010503558971004</v>
+        <v>1.005011307613132</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012610904862904</v>
+        <v>0.9733641042671385</v>
       </c>
       <c r="D20">
-        <v>1.020307485134607</v>
+        <v>0.9971013273597039</v>
       </c>
       <c r="E20">
-        <v>1.014713037926391</v>
+        <v>0.9846300213352518</v>
       </c>
       <c r="F20">
-        <v>1.025031629717029</v>
+        <v>0.9221676073256516</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027587834879952</v>
+        <v>1.03236703797168</v>
       </c>
       <c r="J20">
-        <v>1.018968751815846</v>
+        <v>1.001961865404898</v>
       </c>
       <c r="K20">
-        <v>1.023736777714612</v>
+        <v>1.011195338649934</v>
       </c>
       <c r="L20">
-        <v>1.018162666922247</v>
+        <v>0.9989486267801786</v>
       </c>
       <c r="M20">
-        <v>1.028443940315757</v>
+        <v>0.9377325761647252</v>
       </c>
       <c r="N20">
-        <v>1.010447594127414</v>
+        <v>1.004715782938687</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011654492472644</v>
+        <v>0.9681105330679263</v>
       </c>
       <c r="D21">
-        <v>1.019570180367543</v>
+        <v>0.9929821869814092</v>
       </c>
       <c r="E21">
-        <v>1.013909201333735</v>
+        <v>0.9805538766326193</v>
       </c>
       <c r="F21">
-        <v>1.022524843962841</v>
+        <v>0.9046987869864248</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027317618584711</v>
+        <v>1.029939847747876</v>
       </c>
       <c r="J21">
-        <v>1.018420551818858</v>
+        <v>0.9990048104978489</v>
       </c>
       <c r="K21">
-        <v>1.023212556423727</v>
+        <v>1.008097744988372</v>
       </c>
       <c r="L21">
-        <v>1.017573540473113</v>
+        <v>0.9959132709041337</v>
       </c>
       <c r="M21">
-        <v>1.026155863871265</v>
+        <v>0.9217424464139802</v>
       </c>
       <c r="N21">
-        <v>1.01026542377888</v>
+        <v>1.003729602763898</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.011053395038713</v>
+        <v>0.9647103493548056</v>
       </c>
       <c r="D22">
-        <v>1.019106237165387</v>
+        <v>0.9903042407994397</v>
       </c>
       <c r="E22">
-        <v>1.013404452311371</v>
+        <v>0.9779231063782203</v>
       </c>
       <c r="F22">
-        <v>1.020940802259705</v>
+        <v>0.8928356983061728</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027145253803936</v>
+        <v>1.028315008853813</v>
       </c>
       <c r="J22">
-        <v>1.018075450651263</v>
+        <v>0.9970815642177387</v>
       </c>
       <c r="K22">
-        <v>1.022881850513488</v>
+        <v>1.006070250996382</v>
       </c>
       <c r="L22">
-        <v>1.017203065319515</v>
+        <v>0.9939449746898533</v>
       </c>
       <c r="M22">
-        <v>1.024709076201609</v>
+        <v>0.9108776278553277</v>
       </c>
       <c r="N22">
-        <v>1.010150715057229</v>
+        <v>1.003088259334601</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011372025652624</v>
+        <v>0.9665225971568032</v>
       </c>
       <c r="D23">
-        <v>1.019352217399612</v>
+        <v>0.9917328198598788</v>
       </c>
       <c r="E23">
-        <v>1.013671967032815</v>
+        <v>0.9793245739999485</v>
       </c>
       <c r="F23">
-        <v>1.021781297861089</v>
+        <v>0.8992178834454855</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027236862419771</v>
+        <v>1.029186543669723</v>
       </c>
       <c r="J23">
-        <v>1.018258435710095</v>
+        <v>0.9981075868710646</v>
       </c>
       <c r="K23">
-        <v>1.023057269102706</v>
+        <v>1.007153194440741</v>
       </c>
       <c r="L23">
-        <v>1.017399467583127</v>
+        <v>0.9949944475934038</v>
       </c>
       <c r="M23">
-        <v>1.025476834279015</v>
+        <v>0.9167232466234008</v>
       </c>
       <c r="N23">
-        <v>1.010211540523017</v>
+        <v>1.003430398644006</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012626943251823</v>
+        <v>0.973450647548638</v>
       </c>
       <c r="D24">
-        <v>1.020319839878701</v>
+        <v>0.9971690129347751</v>
       </c>
       <c r="E24">
-        <v>1.014726525411138</v>
+        <v>0.9846972894836663</v>
       </c>
       <c r="F24">
-        <v>1.025073525011963</v>
+        <v>0.9224475231103859</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02759232340091</v>
+        <v>1.03240621775045</v>
       </c>
       <c r="J24">
-        <v>1.018977935241863</v>
+        <v>1.002010437047031</v>
       </c>
       <c r="K24">
-        <v>1.02374554762523</v>
+        <v>1.011246026945374</v>
       </c>
       <c r="L24">
-        <v>1.01817254253808</v>
+        <v>0.9989985750567986</v>
       </c>
       <c r="M24">
-        <v>1.028482164351458</v>
+        <v>0.9379886934582569</v>
       </c>
       <c r="N24">
-        <v>1.010450645337456</v>
+        <v>1.004731982220449</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01408423194487</v>
+        <v>0.9811140798073535</v>
       </c>
       <c r="D25">
-        <v>1.021441102825134</v>
+        <v>1.003143274793539</v>
       </c>
       <c r="E25">
-        <v>1.015953112237939</v>
+        <v>0.9906703638594915</v>
       </c>
       <c r="F25">
-        <v>1.028860826575824</v>
+        <v>0.9463605207435789</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027994138010908</v>
+        <v>1.035777820418238</v>
       </c>
       <c r="J25">
-        <v>1.019811019696332</v>
+        <v>1.006294186159426</v>
       </c>
       <c r="K25">
-        <v>1.024539452516558</v>
+        <v>1.015692990653481</v>
       </c>
       <c r="L25">
-        <v>1.019069349427853</v>
+        <v>1.003415257786814</v>
       </c>
       <c r="M25">
-        <v>1.03193532459825</v>
+        <v>0.9598528025601918</v>
       </c>
       <c r="N25">
-        <v>1.010727367714823</v>
+        <v>1.006160679205013</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9869636283984551</v>
+        <v>1.013688935076555</v>
       </c>
       <c r="D2">
-        <v>1.00768011621868</v>
+        <v>1.0337492343237</v>
       </c>
       <c r="E2">
-        <v>0.9952528200235431</v>
+        <v>1.028822460251797</v>
       </c>
       <c r="F2">
-        <v>0.9635976422579785</v>
+        <v>1.041340899836885</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038225540512008</v>
+        <v>1.049930413879785</v>
       </c>
       <c r="J2">
-        <v>1.009541371524129</v>
+        <v>1.035467781560029</v>
       </c>
       <c r="K2">
-        <v>1.019033481797546</v>
+        <v>1.044757589708115</v>
       </c>
       <c r="L2">
-        <v>1.006778689205442</v>
+        <v>1.039894341261859</v>
       </c>
       <c r="M2">
-        <v>0.9755885463279795</v>
+        <v>1.052252836796717</v>
       </c>
       <c r="N2">
-        <v>1.007243583557522</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015236200932752</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.049926945248657</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042717771790971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9910746275162303</v>
+        <v>1.017969955683004</v>
       </c>
       <c r="D3">
-        <v>1.01085745986474</v>
+        <v>1.03656085843639</v>
       </c>
       <c r="E3">
-        <v>0.9984861920338329</v>
+        <v>1.032113040512974</v>
       </c>
       <c r="F3">
-        <v>0.9752647505782319</v>
+        <v>1.044287285150722</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03988167478687</v>
+        <v>1.050735203167039</v>
       </c>
       <c r="J3">
-        <v>1.011811600211007</v>
+        <v>1.037982446966107</v>
       </c>
       <c r="K3">
-        <v>1.02135327706833</v>
+        <v>1.046746368678135</v>
       </c>
       <c r="L3">
-        <v>1.009138479030261</v>
+        <v>1.042350877426369</v>
       </c>
       <c r="M3">
-        <v>0.986224222228452</v>
+        <v>1.054383205964648</v>
       </c>
       <c r="N3">
-        <v>1.008000570851094</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016121232081229</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.051612966028521</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.044121347445303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9936761698196732</v>
+        <v>1.020689940774157</v>
       </c>
       <c r="D4">
-        <v>1.012863558470883</v>
+        <v>1.038350857287802</v>
       </c>
       <c r="E4">
-        <v>1.000538122841537</v>
+        <v>1.034209733152771</v>
       </c>
       <c r="F4">
-        <v>0.9824762302800989</v>
+        <v>1.046165571014825</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040902159782999</v>
+        <v>1.051237155290312</v>
       </c>
       <c r="J4">
-        <v>1.013243034904495</v>
+        <v>1.039578805093921</v>
       </c>
       <c r="K4">
-        <v>1.022809171688711</v>
+        <v>1.048007447413567</v>
       </c>
       <c r="L4">
-        <v>1.010630057530818</v>
+        <v>1.043912090727182</v>
       </c>
       <c r="M4">
-        <v>0.9927908564513849</v>
+        <v>1.055737003938973</v>
       </c>
       <c r="N4">
-        <v>1.008477799101356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016682588714437</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.05268438940155</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.045013918156294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9947564454536811</v>
+        <v>1.02182616069138</v>
       </c>
       <c r="D5">
-        <v>1.013695534734466</v>
+        <v>1.039101407487736</v>
       </c>
       <c r="E5">
-        <v>1.001391533204478</v>
+        <v>1.035087580031246</v>
       </c>
       <c r="F5">
-        <v>0.9854339103172823</v>
+        <v>1.046952258607581</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041319552462925</v>
+        <v>1.051446175116223</v>
       </c>
       <c r="J5">
-        <v>1.013836205686572</v>
+        <v>1.040246985266769</v>
       </c>
       <c r="K5">
-        <v>1.023410902216573</v>
+        <v>1.048536390948872</v>
       </c>
       <c r="L5">
-        <v>1.011249013228786</v>
+        <v>1.044565737976722</v>
       </c>
       <c r="M5">
-        <v>0.9954822693847782</v>
+        <v>1.056303965087001</v>
       </c>
       <c r="N5">
-        <v>1.00867553756438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016918007397489</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.053133093583223</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.045395040090808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9949370585728268</v>
+        <v>1.022021555853874</v>
       </c>
       <c r="D6">
-        <v>1.013834574311157</v>
+        <v>1.039232950878292</v>
       </c>
       <c r="E6">
-        <v>1.00153429535654</v>
+        <v>1.03523935095831</v>
       </c>
       <c r="F6">
-        <v>0.9859263590906354</v>
+        <v>1.047088375396683</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041388969889293</v>
+        <v>1.051483971945627</v>
       </c>
       <c r="J6">
-        <v>1.013935307632817</v>
+        <v>1.040363926270643</v>
       </c>
       <c r="K6">
-        <v>1.023511342947235</v>
+        <v>1.04863070884306</v>
       </c>
       <c r="L6">
-        <v>1.011352473283057</v>
+        <v>1.044679868113887</v>
       </c>
       <c r="M6">
-        <v>0.995930278530636</v>
+        <v>1.056403189110566</v>
       </c>
       <c r="N6">
-        <v>1.008708572797472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01695990195022</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.053211621395734</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.045470410846717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9936906564563713</v>
+        <v>1.020719440807597</v>
       </c>
       <c r="D7">
-        <v>1.012874719440638</v>
+        <v>1.038376843687862</v>
       </c>
       <c r="E7">
-        <v>1.000549561856409</v>
+        <v>1.034234486888268</v>
       </c>
       <c r="F7">
-        <v>0.9825160334423882</v>
+        <v>1.046187992241921</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040907781891502</v>
+        <v>1.051247947010427</v>
       </c>
       <c r="J7">
-        <v>1.013250994207419</v>
+        <v>1.039601688597087</v>
       </c>
       <c r="K7">
-        <v>1.022817252017982</v>
+        <v>1.048030294429726</v>
       </c>
       <c r="L7">
-        <v>1.010638359436021</v>
+        <v>1.043933700708431</v>
       </c>
       <c r="M7">
-        <v>0.9928270834758542</v>
+        <v>1.055756357773076</v>
       </c>
       <c r="N7">
-        <v>1.008480452483125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016692564079644</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.052699706410167</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.045050042776271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9883654633949516</v>
+        <v>1.01516441386959</v>
       </c>
       <c r="D8">
-        <v>1.008764586146622</v>
+        <v>1.034725608859103</v>
       </c>
       <c r="E8">
-        <v>0.9963541590395708</v>
+        <v>1.029957871718895</v>
       </c>
       <c r="F8">
-        <v>0.9676150240673468</v>
+        <v>1.042357590446164</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038796231368817</v>
+        <v>1.050216406585333</v>
       </c>
       <c r="J8">
-        <v>1.010316627411257</v>
+        <v>1.036341690681941</v>
       </c>
       <c r="K8">
-        <v>1.019827130066834</v>
+        <v>1.045454879891092</v>
       </c>
       <c r="L8">
-        <v>1.007583743093527</v>
+        <v>1.040746777029534</v>
       </c>
       <c r="M8">
-        <v>0.9792523055366045</v>
+        <v>1.052992813598076</v>
       </c>
       <c r="N8">
-        <v>1.007502098843059</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015546393571036</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.050512579513456</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.043233579326897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9785030704603087</v>
+        <v>1.004949860398798</v>
       </c>
       <c r="D9">
-        <v>1.001111895561567</v>
+        <v>1.028032404894792</v>
       </c>
       <c r="E9">
-        <v>0.9886315409834899</v>
+        <v>1.022140468841275</v>
       </c>
       <c r="F9">
-        <v>0.9383968920441119</v>
+        <v>1.035363367520862</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034650441857483</v>
+        <v>1.048238377507936</v>
       </c>
       <c r="J9">
-        <v>1.004838466061187</v>
+        <v>1.03032902906305</v>
       </c>
       <c r="K9">
-        <v>1.014186958758098</v>
+        <v>1.040686477894612</v>
       </c>
       <c r="L9">
-        <v>1.001911796308891</v>
+        <v>1.034884262632187</v>
       </c>
       <c r="M9">
-        <v>0.9525753105387149</v>
+        <v>1.04790761918016</v>
       </c>
       <c r="N9">
-        <v>1.005675177549</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013425610650429</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.046488033097397</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.039858871105112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9715575720908016</v>
+        <v>0.9979206165704239</v>
       </c>
       <c r="D10">
-        <v>0.9956872255157396</v>
+        <v>1.023473633550153</v>
       </c>
       <c r="E10">
-        <v>0.9832267535452944</v>
+        <v>1.016824234125843</v>
       </c>
       <c r="F10">
-        <v>0.9162688037998125</v>
+        <v>1.030649595023245</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031543344503942</v>
+        <v>1.04685568963749</v>
       </c>
       <c r="J10">
-        <v>1.000946941511513</v>
+        <v>1.026216978719251</v>
       </c>
       <c r="K10">
-        <v>1.010134787501298</v>
+        <v>1.03743161530636</v>
       </c>
       <c r="L10">
-        <v>0.9979056052376643</v>
+        <v>1.030896223852869</v>
       </c>
       <c r="M10">
-        <v>0.9323344646959941</v>
+        <v>1.044486667200984</v>
       </c>
       <c r="N10">
-        <v>1.004377295899054</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011982904319539</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.043831702636923</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.037574242995952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9684488395198868</v>
+        <v>0.9954238938599799</v>
       </c>
       <c r="D11">
-        <v>0.9932480874707824</v>
+        <v>1.022035818242093</v>
       </c>
       <c r="E11">
-        <v>0.980815937566908</v>
+        <v>1.015158287870135</v>
       </c>
       <c r="F11">
-        <v>0.9058536930539708</v>
+        <v>1.029467087314053</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030099121384911</v>
+        <v>1.046547166947775</v>
       </c>
       <c r="J11">
-        <v>0.9991957503737303</v>
+        <v>1.024988291161927</v>
       </c>
       <c r="K11">
-        <v>1.008298468247345</v>
+        <v>1.036553801599015</v>
       </c>
       <c r="L11">
-        <v>0.9961089380164729</v>
+        <v>1.029799892945354</v>
       </c>
       <c r="M11">
-        <v>0.9227999449017663</v>
+        <v>1.043853900515592</v>
       </c>
       <c r="N11">
-        <v>1.003793278482024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011631073553468</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.04376450550371</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.036986345368613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9672775018527782</v>
+        <v>0.9947160514095974</v>
       </c>
       <c r="D12">
-        <v>0.9923270378843672</v>
+        <v>1.021706645667625</v>
       </c>
       <c r="E12">
-        <v>0.9799088305011178</v>
+        <v>1.014784810796895</v>
       </c>
       <c r="F12">
-        <v>0.9018360340086006</v>
+        <v>1.029353241719699</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029545847702481</v>
+        <v>1.04654583731362</v>
       </c>
       <c r="J12">
-        <v>0.998534332948524</v>
+        <v>1.024745733241411</v>
       </c>
       <c r="K12">
-        <v>1.00760273107302</v>
+        <v>1.036429470583531</v>
       </c>
       <c r="L12">
-        <v>0.9954313406658384</v>
+        <v>1.029634134938103</v>
       </c>
       <c r="M12">
-        <v>0.9191209611884261</v>
+        <v>1.043938888641439</v>
       </c>
       <c r="N12">
-        <v>1.003572707437634</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011609850603005</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.044156308635473</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.036898439764953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9675295352208809</v>
+        <v>0.9953591350253835</v>
       </c>
       <c r="D13">
-        <v>0.9925253148812121</v>
+        <v>1.022230700781333</v>
       </c>
       <c r="E13">
-        <v>0.9801039529862761</v>
+        <v>1.01540053680894</v>
       </c>
       <c r="F13">
-        <v>0.9027050384898679</v>
+        <v>1.030079416587939</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029665325877778</v>
+        <v>1.046796350470757</v>
       </c>
       <c r="J13">
-        <v>0.9986767234317342</v>
+        <v>1.025267866819976</v>
       </c>
       <c r="K13">
-        <v>1.007752612395983</v>
+        <v>1.036901391738763</v>
       </c>
       <c r="L13">
-        <v>0.9955771679526733</v>
+        <v>1.030195453272237</v>
       </c>
       <c r="M13">
-        <v>0.9199167544919185</v>
+        <v>1.044609995040847</v>
       </c>
       <c r="N13">
-        <v>1.003620191615983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011851706635067</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.04496221447973</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.037229616202936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9683523644373128</v>
+        <v>0.9964223081793386</v>
       </c>
       <c r="D14">
-        <v>0.9931722700526955</v>
+        <v>1.02298566373933</v>
       </c>
       <c r="E14">
-        <v>0.9807411996651115</v>
+        <v>1.016280204191578</v>
       </c>
       <c r="F14">
-        <v>0.9055247948828009</v>
+        <v>1.030968978824437</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030053744212126</v>
+        <v>1.047086122440258</v>
       </c>
       <c r="J14">
-        <v>0.9991413074075371</v>
+        <v>1.025980552437395</v>
       </c>
       <c r="K14">
-        <v>1.00824124594042</v>
+        <v>1.037503161660137</v>
       </c>
       <c r="L14">
-        <v>0.9960531425122273</v>
+        <v>1.030918069768555</v>
       </c>
       <c r="M14">
-        <v>0.9224987912711181</v>
+        <v>1.045345814664482</v>
       </c>
       <c r="N14">
-        <v>1.003775122480764</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012140629861505</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.045716402502742</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.037656505238783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9688570883137296</v>
+        <v>0.9969816447286743</v>
       </c>
       <c r="D15">
-        <v>0.9935688361837566</v>
+        <v>1.023363666874817</v>
       </c>
       <c r="E15">
-        <v>0.9811322536957794</v>
+        <v>1.016718700072061</v>
       </c>
       <c r="F15">
-        <v>0.9072415626827689</v>
+        <v>1.031381964103545</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030290763798644</v>
+        <v>1.047216060627643</v>
       </c>
       <c r="J15">
-        <v>0.9994260681283521</v>
+        <v>1.026328679604064</v>
       </c>
       <c r="K15">
-        <v>1.008540454084495</v>
+        <v>1.037788472920171</v>
       </c>
       <c r="L15">
-        <v>0.996345018629765</v>
+        <v>1.031261850614802</v>
       </c>
       <c r="M15">
-        <v>0.9240706993709569</v>
+        <v>1.045666593830853</v>
       </c>
       <c r="N15">
-        <v>1.003870086806759</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012271685021525</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.046007325272539</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03786407988538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9717616411135153</v>
+        <v>0.9998387029191681</v>
       </c>
       <c r="D16">
-        <v>0.9958470827793906</v>
+        <v>1.025199691090952</v>
       </c>
       <c r="E16">
-        <v>0.9833851828639337</v>
+        <v>1.018856794081799</v>
       </c>
       <c r="F16">
-        <v>0.916940578353418</v>
+        <v>1.033264723221378</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031636953539241</v>
+        <v>1.04777062591757</v>
       </c>
       <c r="J16">
-        <v>1.00106168767259</v>
+        <v>1.027981916083617</v>
       </c>
       <c r="K16">
-        <v>1.010254826900165</v>
+        <v>1.039093003503543</v>
       </c>
       <c r="L16">
-        <v>0.9980234641609567</v>
+        <v>1.032858026906538</v>
       </c>
       <c r="M16">
-        <v>0.9329492955413343</v>
+        <v>1.047023277013146</v>
       </c>
       <c r="N16">
-        <v>1.004415564489749</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01284033372935</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04704110726741</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038789575847694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9735555664356261</v>
+        <v>1.001474513627545</v>
       </c>
       <c r="D17">
-        <v>0.997251063111919</v>
+        <v>1.026213614011461</v>
       </c>
       <c r="E17">
-        <v>0.9847788459656744</v>
+        <v>1.020037164631332</v>
       </c>
       <c r="F17">
-        <v>0.922786552912357</v>
+        <v>1.034239585246002</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032453682512664</v>
+        <v>1.048041560439411</v>
       </c>
       <c r="J17">
-        <v>1.002069315865951</v>
+        <v>1.028876146140492</v>
       </c>
       <c r="K17">
-        <v>1.011307463438324</v>
+        <v>1.039777121410159</v>
       </c>
       <c r="L17">
-        <v>0.9990591265520783</v>
+        <v>1.033702759962316</v>
       </c>
       <c r="M17">
-        <v>0.9382988939316167</v>
+        <v>1.047672771880284</v>
       </c>
       <c r="N17">
-        <v>1.004751619097991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013124865394453</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.047426086969409</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.039275845200714</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9745922668804852</v>
+        <v>1.002198537777107</v>
       </c>
       <c r="D18">
-        <v>0.9980613923826284</v>
+        <v>1.02659182794896</v>
       </c>
       <c r="E18">
-        <v>0.9855850223688323</v>
+        <v>1.020477845278019</v>
       </c>
       <c r="F18">
-        <v>0.9261178948166745</v>
+        <v>1.034483583654873</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032920687823656</v>
+        <v>1.048082440377314</v>
       </c>
       <c r="J18">
-        <v>1.002650745688984</v>
+        <v>1.02917874353213</v>
       </c>
       <c r="K18">
-        <v>1.011913672833484</v>
+        <v>1.03996681306065</v>
       </c>
       <c r="L18">
-        <v>0.9996573043371347</v>
+        <v>1.033952224573092</v>
       </c>
       <c r="M18">
-        <v>0.9413466600144206</v>
+        <v>1.047732497923222</v>
       </c>
       <c r="N18">
-        <v>1.004945534617609</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013181434566417</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.047236950349486</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.039398373240495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9749441536959716</v>
+        <v>1.002122869670263</v>
       </c>
       <c r="D19">
-        <v>0.9983362767891033</v>
+        <v>1.026422624945764</v>
       </c>
       <c r="E19">
-        <v>0.9858587951531882</v>
+        <v>1.020270079237987</v>
       </c>
       <c r="F19">
-        <v>0.9272410970289059</v>
+        <v>1.034084407478268</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033078385672499</v>
+        <v>1.047932337948516</v>
       </c>
       <c r="J19">
-        <v>1.002847956370194</v>
+        <v>1.0289717569974</v>
       </c>
       <c r="K19">
-        <v>1.012119092193606</v>
+        <v>1.039738155851227</v>
       </c>
       <c r="L19">
-        <v>0.9998602906205319</v>
+        <v>1.033685144936308</v>
       </c>
       <c r="M19">
-        <v>0.9423741265018634</v>
+        <v>1.047278106854209</v>
       </c>
       <c r="N19">
-        <v>1.005011307613132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013048785137969</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.046554227503356</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.039243076278138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9733641042671385</v>
+        <v>0.9997834585022224</v>
       </c>
       <c r="D20">
-        <v>0.9971013273597039</v>
+        <v>1.024697463020995</v>
       </c>
       <c r="E20">
-        <v>0.9846300213352518</v>
+        <v>1.018237505604414</v>
       </c>
       <c r="F20">
-        <v>0.9221676073256516</v>
+        <v>1.031904567966294</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03236703797168</v>
+        <v>1.047240140993992</v>
       </c>
       <c r="J20">
-        <v>1.001961865404898</v>
+        <v>1.027322730013684</v>
       </c>
       <c r="K20">
-        <v>1.011195338649934</v>
+        <v>1.038319507435714</v>
       </c>
       <c r="L20">
-        <v>0.9989486267801786</v>
+        <v>1.031967075713188</v>
       </c>
       <c r="M20">
-        <v>0.9377325761647252</v>
+        <v>1.045408690848971</v>
       </c>
       <c r="N20">
-        <v>1.004715782938687</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012377228746345</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.044550901101665</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.038243956511742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9681105330679263</v>
+        <v>0.9943808306051798</v>
       </c>
       <c r="D21">
-        <v>0.9929821869814092</v>
+        <v>1.021167381521416</v>
       </c>
       <c r="E21">
-        <v>0.9805538766326193</v>
+        <v>1.014123479626482</v>
       </c>
       <c r="F21">
-        <v>0.9046987869864248</v>
+        <v>1.028201847225158</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029939847747876</v>
+        <v>1.046123840586237</v>
       </c>
       <c r="J21">
-        <v>0.9990048104978489</v>
+        <v>1.024115380242065</v>
       </c>
       <c r="K21">
-        <v>1.008097744988372</v>
+        <v>1.035758529855084</v>
       </c>
       <c r="L21">
-        <v>0.9959132709041337</v>
+        <v>1.028842129187064</v>
       </c>
       <c r="M21">
-        <v>0.9217424464139802</v>
+        <v>1.042667925422836</v>
       </c>
       <c r="N21">
-        <v>1.003729602763898</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011236555307331</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.042341189146613</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036436487229372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9647103493548056</v>
+        <v>0.9909333702195181</v>
       </c>
       <c r="D22">
-        <v>0.9903042407994397</v>
+        <v>1.01892499687279</v>
       </c>
       <c r="E22">
-        <v>0.9779231063782203</v>
+        <v>1.011517835266033</v>
       </c>
       <c r="F22">
-        <v>0.8928356983061728</v>
+        <v>1.025876677608533</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028315008853813</v>
+        <v>1.04540849396702</v>
       </c>
       <c r="J22">
-        <v>0.9970815642177387</v>
+        <v>1.022076730034879</v>
       </c>
       <c r="K22">
-        <v>1.006070250996382</v>
+        <v>1.034130642982178</v>
       </c>
       <c r="L22">
-        <v>0.9939449746898533</v>
+        <v>1.026864523365505</v>
       </c>
       <c r="M22">
-        <v>0.9108776278553277</v>
+        <v>1.040952370399365</v>
       </c>
       <c r="N22">
-        <v>1.003088259334601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010513130229442</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.040983444554427</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.035272031290267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9665225971568032</v>
+        <v>0.992753709348683</v>
       </c>
       <c r="D23">
-        <v>0.9917328198598788</v>
+        <v>1.020102420769795</v>
       </c>
       <c r="E23">
-        <v>0.9793245739999485</v>
+        <v>1.012890601214202</v>
       </c>
       <c r="F23">
-        <v>0.8992178834454855</v>
+        <v>1.027101477482826</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029186543669723</v>
+        <v>1.045782157450948</v>
       </c>
       <c r="J23">
-        <v>0.9981075868710646</v>
+        <v>1.023147966297263</v>
       </c>
       <c r="K23">
-        <v>1.007153194440741</v>
+        <v>1.034982051721968</v>
       </c>
       <c r="L23">
-        <v>0.9949944475934038</v>
+        <v>1.027903946088297</v>
       </c>
       <c r="M23">
-        <v>0.9167232466234008</v>
+        <v>1.041853673399212</v>
       </c>
       <c r="N23">
-        <v>1.003430398644006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010891108352228</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.041696764618152</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.035864392643541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.973450647548638</v>
+        <v>0.9997916230398178</v>
       </c>
       <c r="D24">
-        <v>0.9971690129347751</v>
+        <v>1.024677163896119</v>
       </c>
       <c r="E24">
-        <v>0.9846972894836663</v>
+        <v>1.018219778075744</v>
       </c>
       <c r="F24">
-        <v>0.9224475231103859</v>
+        <v>1.031859642288386</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03240621775045</v>
+        <v>1.047216339352028</v>
       </c>
       <c r="J24">
-        <v>1.002010437047031</v>
+        <v>1.027297696623473</v>
       </c>
       <c r="K24">
-        <v>1.011246026945374</v>
+        <v>1.03828434992595</v>
       </c>
       <c r="L24">
-        <v>0.9989985750567986</v>
+        <v>1.031934314414706</v>
       </c>
       <c r="M24">
-        <v>0.9379886934582569</v>
+        <v>1.045349450458347</v>
       </c>
       <c r="N24">
-        <v>1.004731982220449</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012358238176924</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.044463427922921</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.038191780448368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9811140798073535</v>
+        <v>1.007664595190209</v>
       </c>
       <c r="D25">
-        <v>1.003143274793539</v>
+        <v>1.029817518082683</v>
       </c>
       <c r="E25">
-        <v>0.9906703638594915</v>
+        <v>1.024215410605828</v>
       </c>
       <c r="F25">
-        <v>0.9463605207435789</v>
+        <v>1.037219008871678</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035777820418238</v>
+        <v>1.048780781243343</v>
       </c>
       <c r="J25">
-        <v>1.006294186159426</v>
+        <v>1.031936739975452</v>
       </c>
       <c r="K25">
-        <v>1.015692990653481</v>
+        <v>1.041969940231663</v>
       </c>
       <c r="L25">
-        <v>1.003415257786814</v>
+        <v>1.036449093770402</v>
       </c>
       <c r="M25">
-        <v>0.9598528025601918</v>
+        <v>1.049265770993963</v>
       </c>
       <c r="N25">
-        <v>1.006160679205013</v>
+        <v>1.013996470452819</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.047562909580352</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.040794808516986</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_43/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_43/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013688935076555</v>
+        <v>1.012754107176433</v>
       </c>
       <c r="D2">
-        <v>1.0337492343237</v>
+        <v>1.032350365954287</v>
       </c>
       <c r="E2">
-        <v>1.028822460251797</v>
+        <v>1.028004279609429</v>
       </c>
       <c r="F2">
-        <v>1.041340899836885</v>
+        <v>1.04042448845479</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049930413879785</v>
+        <v>1.04937713038098</v>
       </c>
       <c r="J2">
-        <v>1.035467781560029</v>
+        <v>1.034559923850927</v>
       </c>
       <c r="K2">
-        <v>1.044757589708115</v>
+        <v>1.043376681211278</v>
       </c>
       <c r="L2">
-        <v>1.039894341261859</v>
+        <v>1.039086784014125</v>
       </c>
       <c r="M2">
-        <v>1.052252836796717</v>
+        <v>1.051347971176642</v>
       </c>
       <c r="N2">
-        <v>1.015236200932752</v>
+        <v>1.016025718959061</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.049926945248657</v>
+        <v>1.049210813643219</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042717771790971</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041750087648593</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023451576840053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017969955683004</v>
+        <v>1.016799577732809</v>
       </c>
       <c r="D3">
-        <v>1.03656085843639</v>
+        <v>1.034915849925229</v>
       </c>
       <c r="E3">
-        <v>1.032113040512974</v>
+        <v>1.031092003986291</v>
       </c>
       <c r="F3">
-        <v>1.044287285150722</v>
+        <v>1.043187322257357</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050735203167039</v>
+        <v>1.05007076097604</v>
       </c>
       <c r="J3">
-        <v>1.037982446966107</v>
+        <v>1.036842515328958</v>
       </c>
       <c r="K3">
-        <v>1.046746368678135</v>
+        <v>1.045120648113843</v>
       </c>
       <c r="L3">
-        <v>1.042350877426369</v>
+        <v>1.04134193188907</v>
       </c>
       <c r="M3">
-        <v>1.054383205964648</v>
+        <v>1.053295897293293</v>
       </c>
       <c r="N3">
-        <v>1.016121232081229</v>
+        <v>1.016661706078949</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.051612966028521</v>
+        <v>1.050752446626401</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044121347445303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042980284105084</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023827379815106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020689940774157</v>
+        <v>1.019371868641554</v>
       </c>
       <c r="D4">
-        <v>1.038350857287802</v>
+        <v>1.036550718057876</v>
       </c>
       <c r="E4">
-        <v>1.034209733152771</v>
+        <v>1.033061327723631</v>
       </c>
       <c r="F4">
-        <v>1.046165571014825</v>
+        <v>1.044950202337245</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051237155290312</v>
+        <v>1.050502627877796</v>
       </c>
       <c r="J4">
-        <v>1.039578805093921</v>
+        <v>1.038292693626381</v>
       </c>
       <c r="K4">
-        <v>1.048007447413567</v>
+        <v>1.046227147981756</v>
       </c>
       <c r="L4">
-        <v>1.043912090727182</v>
+        <v>1.042776457351225</v>
       </c>
       <c r="M4">
-        <v>1.055737003938973</v>
+        <v>1.054534776583521</v>
       </c>
       <c r="N4">
-        <v>1.016682588714437</v>
+        <v>1.017065541956869</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.05268438940155</v>
+        <v>1.051732922188609</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045013918156294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043763637199935</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024063407983081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02182616069138</v>
+        <v>1.020446750798371</v>
       </c>
       <c r="D5">
-        <v>1.039101407487736</v>
+        <v>1.037236743348272</v>
       </c>
       <c r="E5">
-        <v>1.035087580031246</v>
+        <v>1.03388623950764</v>
       </c>
       <c r="F5">
-        <v>1.046952258607581</v>
+        <v>1.045688920250172</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051446175116223</v>
+        <v>1.050682461913987</v>
       </c>
       <c r="J5">
-        <v>1.040246985266769</v>
+        <v>1.03890002086523</v>
       </c>
       <c r="K5">
-        <v>1.048536390948872</v>
+        <v>1.046691733021917</v>
       </c>
       <c r="L5">
-        <v>1.044565737976722</v>
+        <v>1.043377399542204</v>
       </c>
       <c r="M5">
-        <v>1.056303965087001</v>
+        <v>1.055053924204361</v>
       </c>
       <c r="N5">
-        <v>1.016918007397489</v>
+        <v>1.017235043336816</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.053133093583223</v>
+        <v>1.052143786336082</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045395040090808</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044099964154703</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024162468366102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022021555853874</v>
+        <v>1.020631513289542</v>
       </c>
       <c r="D6">
-        <v>1.039232950878292</v>
+        <v>1.03735718963799</v>
       </c>
       <c r="E6">
-        <v>1.03523935095831</v>
+        <v>1.034028828650219</v>
       </c>
       <c r="F6">
-        <v>1.047088375396683</v>
+        <v>1.045816751951188</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051483971945627</v>
+        <v>1.050715202679152</v>
       </c>
       <c r="J6">
-        <v>1.040363926270643</v>
+        <v>1.039006410514819</v>
       </c>
       <c r="K6">
-        <v>1.04863070884306</v>
+        <v>1.046774981021738</v>
       </c>
       <c r="L6">
-        <v>1.044679868113887</v>
+        <v>1.04348238674514</v>
       </c>
       <c r="M6">
-        <v>1.056403189110566</v>
+        <v>1.055144889229653</v>
       </c>
       <c r="N6">
-        <v>1.01695990195022</v>
+        <v>1.01726525995076</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.053211621395734</v>
+        <v>1.052215777912388</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.045470410846717</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044168377153087</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024180846998784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020719440807597</v>
+        <v>1.01940995787542</v>
       </c>
       <c r="D7">
-        <v>1.038376843687862</v>
+        <v>1.036582411800434</v>
       </c>
       <c r="E7">
-        <v>1.034234486888268</v>
+        <v>1.033093257898327</v>
       </c>
       <c r="F7">
-        <v>1.046187992241921</v>
+        <v>1.044977942713896</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051247947010427</v>
+        <v>1.050516254601125</v>
       </c>
       <c r="J7">
-        <v>1.039601688597087</v>
+        <v>1.038323943673307</v>
       </c>
       <c r="K7">
-        <v>1.048030294429726</v>
+        <v>1.046255631506304</v>
       </c>
       <c r="L7">
-        <v>1.043933700708431</v>
+        <v>1.042805158874677</v>
       </c>
       <c r="M7">
-        <v>1.055756357773076</v>
+        <v>1.054559386939084</v>
       </c>
       <c r="N7">
-        <v>1.016692564079644</v>
+        <v>1.017102026631318</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.052699706410167</v>
+        <v>1.051752399337277</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045050042776271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043805747403878</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024072117238795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01516441386959</v>
+        <v>1.01417999054948</v>
       </c>
       <c r="D8">
-        <v>1.034725608859103</v>
+        <v>1.033264732403462</v>
       </c>
       <c r="E8">
-        <v>1.029957871718895</v>
+        <v>1.02909648052075</v>
       </c>
       <c r="F8">
-        <v>1.042357590446164</v>
+        <v>1.041398373482083</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050216406585333</v>
+        <v>1.049636163612698</v>
       </c>
       <c r="J8">
-        <v>1.036341690681941</v>
+        <v>1.035384707794341</v>
       </c>
       <c r="K8">
-        <v>1.045454879891092</v>
+        <v>1.044012203021821</v>
       </c>
       <c r="L8">
-        <v>1.040746777029534</v>
+        <v>1.039896233531814</v>
       </c>
       <c r="M8">
-        <v>1.052992813598076</v>
+        <v>1.052045322750578</v>
       </c>
       <c r="N8">
-        <v>1.015546393571036</v>
+        <v>1.016337688891696</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050512579513456</v>
+        <v>1.049762713887937</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043233579326897</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042224486674841</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02359391448531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004949860398798</v>
+        <v>1.004545349547979</v>
       </c>
       <c r="D9">
-        <v>1.028032404894792</v>
+        <v>1.027170601449287</v>
       </c>
       <c r="E9">
-        <v>1.022140468841275</v>
+        <v>1.021777283627779</v>
       </c>
       <c r="F9">
-        <v>1.035363367520862</v>
+        <v>1.034853398604642</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048238377507936</v>
+        <v>1.047928859208719</v>
       </c>
       <c r="J9">
-        <v>1.03032902906305</v>
+        <v>1.029938614543097</v>
       </c>
       <c r="K9">
-        <v>1.040686477894612</v>
+        <v>1.039837715871477</v>
       </c>
       <c r="L9">
-        <v>1.034884262632187</v>
+        <v>1.034526651106294</v>
       </c>
       <c r="M9">
-        <v>1.04790761918016</v>
+        <v>1.047405225822128</v>
       </c>
       <c r="N9">
-        <v>1.013425610650429</v>
+        <v>1.014827601911718</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.046488033097397</v>
+        <v>1.046090425599084</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039858871105112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039269440742794</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02267938801533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9979206165704239</v>
+        <v>0.9979703043965409</v>
       </c>
       <c r="D10">
-        <v>1.023473633550153</v>
+        <v>1.023061775502717</v>
       </c>
       <c r="E10">
-        <v>1.016824234125843</v>
+        <v>1.01684886755219</v>
       </c>
       <c r="F10">
-        <v>1.030649595023245</v>
+        <v>1.030483712718534</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04685568963749</v>
+        <v>1.046750304296593</v>
       </c>
       <c r="J10">
-        <v>1.026216978719251</v>
+        <v>1.026264683636638</v>
       </c>
       <c r="K10">
-        <v>1.03743161530636</v>
+        <v>1.037026763218572</v>
       </c>
       <c r="L10">
-        <v>1.030896223852869</v>
+        <v>1.030920431364675</v>
       </c>
       <c r="M10">
-        <v>1.044486667200984</v>
+        <v>1.044323555389158</v>
       </c>
       <c r="N10">
-        <v>1.011982904319539</v>
+        <v>1.013928469220869</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.043831702636923</v>
+        <v>1.043702619101136</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037574242995952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037300366624685</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022062270429487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9954238938599799</v>
+        <v>0.9956674194957368</v>
       </c>
       <c r="D11">
-        <v>1.022035818242093</v>
+        <v>1.021799279771501</v>
       </c>
       <c r="E11">
-        <v>1.015158287870135</v>
+        <v>1.015343549753396</v>
       </c>
       <c r="F11">
-        <v>1.029467087314053</v>
+        <v>1.029440040148426</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046547166947775</v>
+        <v>1.046516904118952</v>
       </c>
       <c r="J11">
-        <v>1.024988291161927</v>
+        <v>1.025221556283497</v>
       </c>
       <c r="K11">
-        <v>1.036553801599015</v>
+        <v>1.0363214789693</v>
       </c>
       <c r="L11">
-        <v>1.029799892945354</v>
+        <v>1.029981796249591</v>
       </c>
       <c r="M11">
-        <v>1.043853900515592</v>
+        <v>1.043827326314647</v>
       </c>
       <c r="N11">
-        <v>1.011631073553468</v>
+        <v>1.013927950860984</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.04376450550371</v>
+        <v>1.043743485637981</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036986345368613</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036837663806095</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021965347778431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9947160514095974</v>
+        <v>0.9950048157160334</v>
       </c>
       <c r="D12">
-        <v>1.021706645667625</v>
+        <v>1.021508299655943</v>
       </c>
       <c r="E12">
-        <v>1.014784810796895</v>
+        <v>1.015004576420149</v>
       </c>
       <c r="F12">
-        <v>1.029353241719699</v>
+        <v>1.029356415419833</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04654583731362</v>
+        <v>1.046527990348709</v>
       </c>
       <c r="J12">
-        <v>1.024745733241411</v>
+        <v>1.025022095633364</v>
       </c>
       <c r="K12">
-        <v>1.036429470583531</v>
+        <v>1.036234718391331</v>
       </c>
       <c r="L12">
-        <v>1.029634134938103</v>
+        <v>1.029849849700575</v>
       </c>
       <c r="M12">
-        <v>1.043938888641439</v>
+        <v>1.04394200595527</v>
       </c>
       <c r="N12">
-        <v>1.011609850603005</v>
+        <v>1.01401995490872</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.044156308635473</v>
+        <v>1.044158773567006</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.036898439764953</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036776322837173</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021988280969466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9953591350253835</v>
+        <v>0.9955636139991529</v>
       </c>
       <c r="D13">
-        <v>1.022230700781333</v>
+        <v>1.021953977778166</v>
       </c>
       <c r="E13">
-        <v>1.01540053680894</v>
+        <v>1.015544818458019</v>
       </c>
       <c r="F13">
-        <v>1.030079416587939</v>
+        <v>1.030019273310796</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046796350470757</v>
+        <v>1.046737044452754</v>
       </c>
       <c r="J13">
-        <v>1.025267866819976</v>
+        <v>1.025463611012565</v>
       </c>
       <c r="K13">
-        <v>1.036901391738763</v>
+        <v>1.036629659756139</v>
       </c>
       <c r="L13">
-        <v>1.030195453272237</v>
+        <v>1.030337088257717</v>
       </c>
       <c r="M13">
-        <v>1.044609995040847</v>
+        <v>1.044550914891092</v>
       </c>
       <c r="N13">
-        <v>1.011851706635067</v>
+        <v>1.014157933870972</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04496221447973</v>
+        <v>1.044915510075518</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037229616202936</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03705282480515</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022109764409779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9964223081793386</v>
+        <v>0.9965100571148927</v>
       </c>
       <c r="D14">
-        <v>1.02298566373933</v>
+        <v>1.022602239243417</v>
       </c>
       <c r="E14">
-        <v>1.016280204191578</v>
+        <v>1.016322894926996</v>
       </c>
       <c r="F14">
-        <v>1.030968978824437</v>
+        <v>1.030823066653951</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047086122440258</v>
+        <v>1.046974160625885</v>
       </c>
       <c r="J14">
-        <v>1.025980552437395</v>
+        <v>1.026064608672643</v>
       </c>
       <c r="K14">
-        <v>1.037503161660137</v>
+        <v>1.037126564665463</v>
       </c>
       <c r="L14">
-        <v>1.030918069768555</v>
+        <v>1.030959987642229</v>
       </c>
       <c r="M14">
-        <v>1.045345814664482</v>
+        <v>1.045202448081675</v>
       </c>
       <c r="N14">
-        <v>1.012140629861505</v>
+        <v>1.01427734104045</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045716402502742</v>
+        <v>1.045603082641448</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037656505238783</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037405702423029</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022240307052241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9969816447286743</v>
+        <v>0.9970134039083113</v>
       </c>
       <c r="D15">
-        <v>1.023363666874817</v>
+        <v>1.022929337648413</v>
       </c>
       <c r="E15">
-        <v>1.016718700072061</v>
+        <v>1.016713355661328</v>
       </c>
       <c r="F15">
-        <v>1.031381964103545</v>
+        <v>1.031195309652188</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047216060627643</v>
+        <v>1.047079900742905</v>
       </c>
       <c r="J15">
-        <v>1.026328679604064</v>
+        <v>1.026359114282453</v>
       </c>
       <c r="K15">
-        <v>1.037788472920171</v>
+        <v>1.037361818033567</v>
       </c>
       <c r="L15">
-        <v>1.031261850614802</v>
+        <v>1.031256602195105</v>
       </c>
       <c r="M15">
-        <v>1.045666593830853</v>
+        <v>1.045483170418457</v>
       </c>
       <c r="N15">
-        <v>1.012271685021525</v>
+        <v>1.014322230175662</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.046007325272539</v>
+        <v>1.045862347465335</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03786407988538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037578451405753</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022296662398092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9998387029191681</v>
+        <v>0.9996208509007736</v>
       </c>
       <c r="D16">
-        <v>1.025199691090952</v>
+        <v>1.024536896877407</v>
       </c>
       <c r="E16">
-        <v>1.018856794081799</v>
+        <v>1.01864040454527</v>
       </c>
       <c r="F16">
-        <v>1.033264723221378</v>
+        <v>1.032897194586439</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04777062591757</v>
+        <v>1.047530607157012</v>
       </c>
       <c r="J16">
-        <v>1.027981916083617</v>
+        <v>1.027772686377515</v>
       </c>
       <c r="K16">
-        <v>1.039093003503543</v>
+        <v>1.038441405646337</v>
       </c>
       <c r="L16">
-        <v>1.032858026906538</v>
+        <v>1.032645349744278</v>
       </c>
       <c r="M16">
-        <v>1.047023277013146</v>
+        <v>1.046661830504128</v>
       </c>
       <c r="N16">
-        <v>1.01284033372935</v>
+        <v>1.014495261285797</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04704110726741</v>
+        <v>1.046755411911211</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038789575847694</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038345200861098</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02252578277293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001474513627545</v>
+        <v>1.00113901704907</v>
       </c>
       <c r="D17">
-        <v>1.026213614011461</v>
+        <v>1.025440449311312</v>
       </c>
       <c r="E17">
-        <v>1.020037164631332</v>
+        <v>1.019722499958548</v>
       </c>
       <c r="F17">
-        <v>1.034239585246002</v>
+        <v>1.033786254898335</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048041560439411</v>
+        <v>1.047753524257328</v>
       </c>
       <c r="J17">
-        <v>1.028876146140492</v>
+        <v>1.028553494770042</v>
       </c>
       <c r="K17">
-        <v>1.039777121410159</v>
+        <v>1.039016649421025</v>
       </c>
       <c r="L17">
-        <v>1.033702759962316</v>
+        <v>1.03339333889787</v>
       </c>
       <c r="M17">
-        <v>1.047672771880284</v>
+        <v>1.047226733249202</v>
       </c>
       <c r="N17">
-        <v>1.013124865394453</v>
+        <v>1.014595985740401</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047426086969409</v>
+        <v>1.047073493247362</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039275845200714</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038754738325449</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022634759946595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002198537777107</v>
+        <v>1.001833545826564</v>
       </c>
       <c r="D18">
-        <v>1.02659182794896</v>
+        <v>1.025789496392414</v>
       </c>
       <c r="E18">
-        <v>1.020477845278019</v>
+        <v>1.020140640275753</v>
       </c>
       <c r="F18">
-        <v>1.034483583654873</v>
+        <v>1.034008870521857</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048082440377314</v>
+        <v>1.047785040445297</v>
       </c>
       <c r="J18">
-        <v>1.02917874353213</v>
+        <v>1.028827462521115</v>
       </c>
       <c r="K18">
-        <v>1.03996681306065</v>
+        <v>1.039177438198469</v>
       </c>
       <c r="L18">
-        <v>1.033952224573092</v>
+        <v>1.033620546038512</v>
       </c>
       <c r="M18">
-        <v>1.047732497923222</v>
+        <v>1.047265298669005</v>
       </c>
       <c r="N18">
-        <v>1.013181434566417</v>
+        <v>1.014596303809902</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.047236950349486</v>
+        <v>1.04686755294514</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039398373240495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038855696913449</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022639565063871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002122869670263</v>
+        <v>1.001795842435204</v>
       </c>
       <c r="D19">
-        <v>1.026422624945764</v>
+        <v>1.025655415520292</v>
       </c>
       <c r="E19">
-        <v>1.020270079237987</v>
+        <v>1.019968339680562</v>
       </c>
       <c r="F19">
-        <v>1.034084407478268</v>
+        <v>1.033638434172245</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047932337948516</v>
+        <v>1.047655753306513</v>
       </c>
       <c r="J19">
-        <v>1.0289717569974</v>
+        <v>1.028656944696611</v>
       </c>
       <c r="K19">
-        <v>1.039738155851227</v>
+        <v>1.038983274594278</v>
       </c>
       <c r="L19">
-        <v>1.033685144936308</v>
+        <v>1.033388326561331</v>
       </c>
       <c r="M19">
-        <v>1.047278106854209</v>
+        <v>1.046839161689242</v>
       </c>
       <c r="N19">
-        <v>1.013048785137969</v>
+        <v>1.014496245716159</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046554227503356</v>
+        <v>1.046207057553319</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039243076278138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038725413066601</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022558326868095</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9997834585022224</v>
+        <v>0.999680621155136</v>
       </c>
       <c r="D20">
-        <v>1.024697463020995</v>
+        <v>1.024143295660705</v>
       </c>
       <c r="E20">
-        <v>1.018237505604414</v>
+        <v>1.018131902633651</v>
       </c>
       <c r="F20">
-        <v>1.031904567966294</v>
+        <v>1.031626400378275</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047240140993992</v>
+        <v>1.047068606496624</v>
       </c>
       <c r="J20">
-        <v>1.027322730013684</v>
+        <v>1.027223859875002</v>
       </c>
       <c r="K20">
-        <v>1.038319507435714</v>
+        <v>1.037774495707856</v>
       </c>
       <c r="L20">
-        <v>1.031967075713188</v>
+        <v>1.03186324511244</v>
       </c>
       <c r="M20">
-        <v>1.045408690848971</v>
+        <v>1.045135035337294</v>
       </c>
       <c r="N20">
-        <v>1.012377228746345</v>
+        <v>1.0140981004717</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044550901101665</v>
+        <v>1.044334332877024</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038243956511742</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037875072051861</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022229790164982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9943808306051798</v>
+        <v>0.9947871024329494</v>
       </c>
       <c r="D21">
-        <v>1.021167381521416</v>
+        <v>1.021077976722179</v>
       </c>
       <c r="E21">
-        <v>1.014123479626482</v>
+        <v>1.014453478782176</v>
       </c>
       <c r="F21">
-        <v>1.028201847225158</v>
+        <v>1.028295246307943</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046123840586237</v>
+        <v>1.046170647867463</v>
       </c>
       <c r="J21">
-        <v>1.024115380242065</v>
+        <v>1.024504401224217</v>
       </c>
       <c r="K21">
-        <v>1.035758529855084</v>
+        <v>1.035670729047134</v>
       </c>
       <c r="L21">
-        <v>1.028842129187064</v>
+        <v>1.029166103589935</v>
       </c>
       <c r="M21">
-        <v>1.042667925422836</v>
+        <v>1.042759678828215</v>
       </c>
       <c r="N21">
-        <v>1.011236555307331</v>
+        <v>1.013763639690827</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.042341189146613</v>
+        <v>1.042413805626581</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036436487229372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03639120074817</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021766063260685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9909333702195181</v>
+        <v>0.9916649198371178</v>
       </c>
       <c r="D22">
-        <v>1.01892499687279</v>
+        <v>1.01913323504732</v>
       </c>
       <c r="E22">
-        <v>1.011517835266033</v>
+        <v>1.012126625525859</v>
       </c>
       <c r="F22">
-        <v>1.025876677608533</v>
+        <v>1.026208549826541</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04540849396702</v>
+        <v>1.04559555838034</v>
       </c>
       <c r="J22">
-        <v>1.022076730034879</v>
+        <v>1.022775357816019</v>
       </c>
       <c r="K22">
-        <v>1.034130642982178</v>
+        <v>1.034334954740954</v>
       </c>
       <c r="L22">
-        <v>1.026864523365505</v>
+        <v>1.027461619525467</v>
       </c>
       <c r="M22">
-        <v>1.040952370399365</v>
+        <v>1.041278096074616</v>
       </c>
       <c r="N22">
-        <v>1.010513130229442</v>
+        <v>1.013546128786371</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040983444554427</v>
+        <v>1.041241234368363</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035272031290267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035431989344797</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021471188237337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.992753709348683</v>
+        <v>0.9932956580913438</v>
       </c>
       <c r="D23">
-        <v>1.020102420769795</v>
+        <v>1.020139880490756</v>
       </c>
       <c r="E23">
-        <v>1.012890601214202</v>
+        <v>1.013336727863827</v>
       </c>
       <c r="F23">
-        <v>1.027101477482826</v>
+        <v>1.027295231404579</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045782157450948</v>
+        <v>1.045888240618214</v>
       </c>
       <c r="J23">
-        <v>1.023147966297263</v>
+        <v>1.023666259852819</v>
       </c>
       <c r="K23">
-        <v>1.034982051721968</v>
+        <v>1.03501882333356</v>
       </c>
       <c r="L23">
-        <v>1.027903946088297</v>
+        <v>1.028341729044757</v>
       </c>
       <c r="M23">
-        <v>1.041853673399212</v>
+        <v>1.042043931662913</v>
       </c>
       <c r="N23">
-        <v>1.010891108352228</v>
+        <v>1.01361159822267</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.041696764618152</v>
+        <v>1.041847341012306</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035864392643541</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.035904951022464</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021618938928524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9997916230398178</v>
+        <v>0.9996921974882853</v>
       </c>
       <c r="D24">
-        <v>1.024677163896119</v>
+        <v>1.024125928465745</v>
       </c>
       <c r="E24">
-        <v>1.018219778075744</v>
+        <v>1.018117531550029</v>
       </c>
       <c r="F24">
-        <v>1.031859642288386</v>
+        <v>1.03158405666476</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047216339352028</v>
+        <v>1.047046925246882</v>
       </c>
       <c r="J24">
-        <v>1.027297696623473</v>
+        <v>1.027202101167404</v>
       </c>
       <c r="K24">
-        <v>1.03828434992595</v>
+        <v>1.037742210458931</v>
       </c>
       <c r="L24">
-        <v>1.031934314414706</v>
+        <v>1.031833781795334</v>
       </c>
       <c r="M24">
-        <v>1.045349450458347</v>
+        <v>1.045078329803625</v>
       </c>
       <c r="N24">
-        <v>1.012358238176924</v>
+        <v>1.014080852483839</v>
       </c>
       <c r="O24">
-        <v>1.03</v>
+        <v>1.030000000000001</v>
       </c>
       <c r="P24">
-        <v>1.044463427922921</v>
+        <v>1.044248855242727</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038191780448368</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037822258987708</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022215072822276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007664595190209</v>
+        <v>1.007090172665796</v>
       </c>
       <c r="D25">
-        <v>1.029817518082683</v>
+        <v>1.028785560654779</v>
       </c>
       <c r="E25">
-        <v>1.024215410605828</v>
+        <v>1.023706581292912</v>
       </c>
       <c r="F25">
-        <v>1.037219008871678</v>
+        <v>1.036579516836356</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048780781243343</v>
+        <v>1.048393697368913</v>
       </c>
       <c r="J25">
-        <v>1.031936739975452</v>
+        <v>1.031381257741475</v>
       </c>
       <c r="K25">
-        <v>1.041969940231663</v>
+        <v>1.040952867533091</v>
       </c>
       <c r="L25">
-        <v>1.036449093770402</v>
+        <v>1.0359477011565</v>
       </c>
       <c r="M25">
-        <v>1.049265770993963</v>
+        <v>1.048635332730006</v>
       </c>
       <c r="N25">
-        <v>1.013996470452819</v>
+        <v>1.015199186172351</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.047562909580352</v>
+        <v>1.047063964622489</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040794808516986</v>
+        <v>1.040089171614264</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022927679725171</v>
       </c>
     </row>
   </sheetData>
